--- a/OSA_CaseStudy/DATA/OSA_DB_class.xlsx
+++ b/OSA_CaseStudy/DATA/OSA_DB_class.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AHI</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Cervical</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cervical</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>BMI</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>OSA</t>
         </is>
@@ -480,24 +465,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>40.6177347242921</v>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
-      </c>
-      <c r="E2" t="n">
-        <v>168</v>
-      </c>
-      <c r="F2" t="n">
-        <v>40.6177347242921</v>
-      </c>
-      <c r="G2" t="n">
         <v>29.05328798185942</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -508,24 +484,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>87.79703703703704</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
-      </c>
-      <c r="E3" t="n">
-        <v>171.3994082840237</v>
-      </c>
-      <c r="F3" t="n">
-        <v>43</v>
-      </c>
-      <c r="G3" t="n">
         <v>29.88554795334758</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -536,24 +503,15 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
-      </c>
-      <c r="E4" t="n">
-        <v>190</v>
-      </c>
-      <c r="F4" t="n">
-        <v>42</v>
-      </c>
-      <c r="G4" t="n">
         <v>30.19390581717452</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -564,24 +522,15 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
-      </c>
-      <c r="E5" t="n">
-        <v>169</v>
-      </c>
-      <c r="F5" t="n">
-        <v>42</v>
-      </c>
-      <c r="G5" t="n">
         <v>30.11099051153672</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -592,24 +541,15 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
-      </c>
-      <c r="E6" t="n">
-        <v>172</v>
-      </c>
-      <c r="F6" t="n">
-        <v>44</v>
-      </c>
-      <c r="G6" t="n">
         <v>49.01297998918335</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -620,24 +560,15 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>3.7</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
-      </c>
-      <c r="E7" t="n">
-        <v>180</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -648,24 +579,15 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
-      </c>
-      <c r="E8" t="n">
-        <v>156</v>
-      </c>
-      <c r="F8" t="n">
-        <v>38</v>
-      </c>
-      <c r="G8" t="n">
         <v>22.60026298487837</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -676,24 +598,15 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>4.3</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
-      </c>
-      <c r="E9" t="n">
-        <v>171</v>
-      </c>
-      <c r="F9" t="n">
-        <v>45</v>
-      </c>
-      <c r="G9" t="n">
         <v>30.43671557060292</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -704,24 +617,15 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
-      </c>
-      <c r="E10" t="n">
-        <v>177</v>
-      </c>
-      <c r="F10" t="n">
-        <v>46</v>
-      </c>
-      <c r="G10" t="n">
         <v>36.06881802802515</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -732,24 +636,15 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
-      </c>
-      <c r="E11" t="n">
-        <v>162</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33</v>
-      </c>
-      <c r="G11" t="n">
         <v>22.86236854138088</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -760,24 +655,15 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>53.6</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D12" t="n">
-        <v>48</v>
-      </c>
-      <c r="E12" t="n">
-        <v>170</v>
-      </c>
-      <c r="F12" t="n">
-        <v>46</v>
-      </c>
-      <c r="G12" t="n">
         <v>37.0242214532872</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -788,24 +674,15 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2.1</v>
+        <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
-      </c>
-      <c r="E13" t="n">
-        <v>174</v>
-      </c>
-      <c r="F13" t="n">
-        <v>38</v>
-      </c>
-      <c r="G13" t="n">
         <v>23.12062359624785</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -816,24 +693,15 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
-      </c>
-      <c r="E14" t="n">
-        <v>180</v>
-      </c>
-      <c r="F14" t="n">
-        <v>48</v>
-      </c>
-      <c r="G14" t="n">
         <v>30.8641975308642</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -844,24 +712,15 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C15" t="n">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
-      </c>
-      <c r="E15" t="n">
-        <v>185</v>
-      </c>
-      <c r="F15" t="n">
-        <v>47</v>
-      </c>
-      <c r="G15" t="n">
         <v>30.67932797662527</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -872,24 +731,15 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
-      </c>
-      <c r="E16" t="n">
-        <v>182</v>
-      </c>
-      <c r="F16" t="n">
-        <v>46</v>
-      </c>
-      <c r="G16" t="n">
         <v>33.20854969206617</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -900,24 +750,15 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
-      </c>
-      <c r="E17" t="n">
-        <v>182</v>
-      </c>
-      <c r="F17" t="n">
-        <v>50</v>
-      </c>
-      <c r="G17" t="n">
         <v>34.71802922352373</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -928,24 +769,15 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>37.3</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
-      </c>
-      <c r="E18" t="n">
-        <v>168</v>
-      </c>
-      <c r="F18" t="n">
-        <v>43</v>
-      </c>
-      <c r="G18" t="n">
         <v>31.88775510204082</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -956,24 +788,15 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
-      </c>
-      <c r="E19" t="n">
-        <v>171</v>
-      </c>
-      <c r="F19" t="n">
-        <v>37</v>
-      </c>
-      <c r="G19" t="n">
         <v>24.62296091104956</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -984,24 +807,15 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C20" t="n">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
-      </c>
-      <c r="E20" t="n">
-        <v>175</v>
-      </c>
-      <c r="F20" t="n">
-        <v>42</v>
-      </c>
-      <c r="G20" t="n">
         <v>30.36734693877551</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1012,24 +826,15 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>46.3</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
-      </c>
-      <c r="E21" t="n">
-        <v>179</v>
-      </c>
-      <c r="F21" t="n">
-        <v>44</v>
-      </c>
-      <c r="G21" t="n">
         <v>34.33101338909523</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1040,24 +845,15 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>33.1</v>
+        <v>48</v>
       </c>
       <c r="C22" t="n">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
-      </c>
-      <c r="E22" t="n">
-        <v>173</v>
-      </c>
-      <c r="F22" t="n">
-        <v>47</v>
-      </c>
-      <c r="G22" t="n">
         <v>41.76551171104948</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1068,24 +864,15 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>43.1</v>
+        <v>44</v>
       </c>
       <c r="C23" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
-      </c>
-      <c r="E23" t="n">
-        <v>175</v>
-      </c>
-      <c r="F23" t="n">
-        <v>39</v>
-      </c>
-      <c r="G23" t="n">
         <v>23.51020408163265</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1096,24 +883,15 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
-      </c>
-      <c r="E24" t="n">
-        <v>156</v>
-      </c>
-      <c r="F24" t="n">
-        <v>42</v>
-      </c>
-      <c r="G24" t="n">
         <v>27.94214332675871</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1124,24 +902,15 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
-        <v>49</v>
-      </c>
-      <c r="E25" t="n">
-        <v>168</v>
-      </c>
-      <c r="F25" t="n">
-        <v>36</v>
-      </c>
-      <c r="G25" t="n">
         <v>23.73866213151928</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1152,24 +921,15 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C26" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
-      </c>
-      <c r="E26" t="n">
-        <v>187</v>
-      </c>
-      <c r="F26" t="n">
-        <v>41</v>
-      </c>
-      <c r="G26" t="n">
         <v>25.73708141496754</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1180,24 +940,15 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
-      </c>
-      <c r="E27" t="n">
-        <v>172</v>
-      </c>
-      <c r="F27" t="n">
-        <v>42</v>
-      </c>
-      <c r="G27" t="n">
         <v>33.80205516495403</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1208,24 +959,15 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C28" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="D28" t="n">
-        <v>61</v>
-      </c>
-      <c r="E28" t="n">
-        <v>168</v>
-      </c>
-      <c r="F28" t="n">
-        <v>42</v>
-      </c>
-      <c r="G28" t="n">
         <v>34.36791383219956</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1236,24 +978,15 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>38.6</v>
+        <v>47</v>
       </c>
       <c r="C29" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
-      </c>
-      <c r="E29" t="n">
-        <v>178</v>
-      </c>
-      <c r="F29" t="n">
-        <v>43</v>
-      </c>
-      <c r="G29" t="n">
         <v>25.88057063502083</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1264,24 +997,15 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
-      </c>
-      <c r="E30" t="n">
-        <v>175</v>
-      </c>
-      <c r="F30" t="n">
-        <v>38</v>
-      </c>
-      <c r="G30" t="n">
         <v>24.16326530612245</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1292,24 +1016,15 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C31" t="n">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D31" t="n">
-        <v>42</v>
-      </c>
-      <c r="E31" t="n">
-        <v>175</v>
-      </c>
-      <c r="F31" t="n">
-        <v>44</v>
-      </c>
-      <c r="G31" t="n">
         <v>32</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1320,24 +1035,15 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>60</v>
-      </c>
-      <c r="E32" t="n">
-        <v>175</v>
-      </c>
-      <c r="F32" t="n">
-        <v>37</v>
-      </c>
-      <c r="G32" t="n">
         <v>25.46938775510204</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1348,24 +1054,15 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D33" t="n">
-        <v>37</v>
-      </c>
-      <c r="E33" t="n">
-        <v>179</v>
-      </c>
-      <c r="F33" t="n">
-        <v>38</v>
-      </c>
-      <c r="G33" t="n">
         <v>23.40750912892856</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1376,24 +1073,15 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C34" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D34" t="n">
-        <v>51</v>
-      </c>
-      <c r="E34" t="n">
-        <v>169</v>
-      </c>
-      <c r="F34" t="n">
-        <v>39</v>
-      </c>
-      <c r="G34" t="n">
         <v>26.25958474843318</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1404,24 +1092,15 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
-        <v>72</v>
-      </c>
-      <c r="E35" t="n">
-        <v>168</v>
-      </c>
-      <c r="F35" t="n">
-        <v>45</v>
-      </c>
-      <c r="G35" t="n">
         <v>31.88775510204082</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1432,24 +1111,15 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C36" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>48</v>
-      </c>
-      <c r="E36" t="n">
-        <v>180</v>
-      </c>
-      <c r="F36" t="n">
-        <v>41</v>
-      </c>
-      <c r="G36" t="n">
         <v>23.14814814814815</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1460,24 +1130,15 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>4.2</v>
+        <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>41</v>
-      </c>
-      <c r="E37" t="n">
-        <v>188</v>
-      </c>
-      <c r="F37" t="n">
-        <v>42</v>
-      </c>
-      <c r="G37" t="n">
         <v>26.02987777274785</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1488,24 +1149,15 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>36.3</v>
+        <v>71</v>
       </c>
       <c r="C38" t="n">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="D38" t="n">
-        <v>71</v>
-      </c>
-      <c r="E38" t="n">
-        <v>187</v>
-      </c>
-      <c r="F38" t="n">
-        <v>47</v>
-      </c>
-      <c r="G38" t="n">
         <v>30.0265949841288</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1516,24 +1168,15 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>3.8</v>
+        <v>51</v>
       </c>
       <c r="C39" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>51</v>
-      </c>
-      <c r="E39" t="n">
-        <v>164</v>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
-      <c r="G39" t="n">
         <v>29.74419988102321</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1544,24 +1187,15 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>42.3</v>
+        <v>51</v>
       </c>
       <c r="C40" t="n">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="D40" t="n">
-        <v>51</v>
-      </c>
-      <c r="E40" t="n">
-        <v>174</v>
-      </c>
-      <c r="F40" t="n">
-        <v>48</v>
-      </c>
-      <c r="G40" t="n">
         <v>35.01123001717532</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1572,24 +1206,15 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C41" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D41" t="n">
-        <v>63</v>
-      </c>
-      <c r="E41" t="n">
-        <v>170</v>
-      </c>
-      <c r="F41" t="n">
-        <v>42</v>
-      </c>
-      <c r="G41" t="n">
         <v>29.75778546712803</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1600,24 +1225,15 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>3.3</v>
+        <v>29</v>
       </c>
       <c r="C42" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D42" t="n">
-        <v>29</v>
-      </c>
-      <c r="E42" t="n">
-        <v>191</v>
-      </c>
-      <c r="F42" t="n">
-        <v>46</v>
-      </c>
-      <c r="G42" t="n">
         <v>30.15268221814095</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1628,24 +1244,15 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>2.5</v>
+        <v>51</v>
       </c>
       <c r="C43" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>51</v>
-      </c>
-      <c r="E43" t="n">
-        <v>158</v>
-      </c>
-      <c r="F43" t="n">
-        <v>35</v>
-      </c>
-      <c r="G43" t="n">
         <v>29.64268546707258</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1656,24 +1263,15 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C44" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="D44" t="n">
-        <v>61</v>
-      </c>
-      <c r="E44" t="n">
-        <v>170</v>
-      </c>
-      <c r="F44" t="n">
-        <v>44</v>
-      </c>
-      <c r="G44" t="n">
         <v>29.75778546712803</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1684,24 +1282,15 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>43.36</v>
+        <v>36</v>
       </c>
       <c r="C45" t="n">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D45" t="n">
-        <v>36</v>
-      </c>
-      <c r="E45" t="n">
-        <v>178</v>
-      </c>
-      <c r="F45" t="n">
-        <v>41</v>
-      </c>
-      <c r="G45" t="n">
         <v>29.98358793081681</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1712,24 +1301,15 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>1.2</v>
+        <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D46" t="n">
-        <v>50</v>
-      </c>
-      <c r="E46" t="n">
-        <v>170</v>
-      </c>
-      <c r="F46" t="n">
-        <v>44</v>
-      </c>
-      <c r="G46" t="n">
         <v>30.10380622837371</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1740,24 +1320,15 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C47" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
-        <v>56</v>
-      </c>
-      <c r="E47" t="n">
-        <v>170</v>
-      </c>
-      <c r="F47" t="n">
-        <v>45</v>
-      </c>
-      <c r="G47" t="n">
         <v>27.68166089965398</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1768,24 +1339,15 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C48" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D48" t="n">
-        <v>34</v>
-      </c>
-      <c r="E48" t="n">
-        <v>169</v>
-      </c>
-      <c r="F48" t="n">
-        <v>41</v>
-      </c>
-      <c r="G48" t="n">
         <v>24.5089457652043</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1796,24 +1358,15 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>2.2</v>
+        <v>65</v>
       </c>
       <c r="C49" t="n">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D49" t="n">
-        <v>65</v>
-      </c>
-      <c r="E49" t="n">
-        <v>163</v>
-      </c>
-      <c r="F49" t="n">
-        <v>46</v>
-      </c>
-      <c r="G49" t="n">
         <v>38.01422710677858</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1824,24 +1377,15 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C50" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="D50" t="n">
-        <v>39</v>
-      </c>
-      <c r="E50" t="n">
-        <v>180</v>
-      </c>
-      <c r="F50" t="n">
-        <v>52</v>
-      </c>
-      <c r="G50" t="n">
         <v>37.03703703703704</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1852,24 +1396,15 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>3.4</v>
+        <v>37</v>
       </c>
       <c r="C51" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D51" t="n">
-        <v>37</v>
-      </c>
-      <c r="E51" t="n">
-        <v>184</v>
-      </c>
-      <c r="F51" t="n">
-        <v>40</v>
-      </c>
-      <c r="G51" t="n">
         <v>25.40170132325142</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1880,24 +1415,15 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C52" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>37</v>
-      </c>
-      <c r="E52" t="n">
-        <v>174</v>
-      </c>
-      <c r="F52" t="n">
-        <v>42</v>
-      </c>
-      <c r="G52" t="n">
         <v>33.02946228035407</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1908,24 +1434,15 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C53" t="n">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D53" t="n">
-        <v>54</v>
-      </c>
-      <c r="E53" t="n">
-        <v>182</v>
-      </c>
-      <c r="F53" t="n">
-        <v>53</v>
-      </c>
-      <c r="G53" t="n">
         <v>42.2654268808115</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1936,24 +1453,15 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C54" t="n">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="D54" t="n">
-        <v>49</v>
-      </c>
-      <c r="E54" t="n">
-        <v>180</v>
-      </c>
-      <c r="F54" t="n">
-        <v>52</v>
-      </c>
-      <c r="G54" t="n">
         <v>49.69135802469135</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1964,24 +1472,15 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="C55" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
-        <v>35</v>
-      </c>
-      <c r="E55" t="n">
-        <v>170</v>
-      </c>
-      <c r="F55" t="n">
-        <v>33</v>
-      </c>
-      <c r="G55" t="n">
         <v>22.49134948096886</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1992,24 +1491,15 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>44.7</v>
+        <v>32</v>
       </c>
       <c r="C56" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>32</v>
-      </c>
-      <c r="E56" t="n">
-        <v>177</v>
-      </c>
-      <c r="F56" t="n">
-        <v>42</v>
-      </c>
-      <c r="G56" t="n">
         <v>29.04657027035654</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2020,24 +1510,15 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1.4</v>
+        <v>46</v>
       </c>
       <c r="C57" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D57" t="n">
-        <v>46</v>
-      </c>
-      <c r="E57" t="n">
-        <v>187</v>
-      </c>
-      <c r="F57" t="n">
-        <v>41</v>
-      </c>
-      <c r="G57" t="n">
         <v>22.87740570219337</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2048,24 +1529,15 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>3.7</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>33</v>
-      </c>
-      <c r="E58" t="n">
-        <v>165</v>
-      </c>
-      <c r="F58" t="n">
-        <v>35</v>
-      </c>
-      <c r="G58" t="n">
         <v>30.48668503213958</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2076,24 +1548,15 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>4.8</v>
+        <v>38</v>
       </c>
       <c r="C59" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>38</v>
-      </c>
-      <c r="E59" t="n">
-        <v>166</v>
-      </c>
-      <c r="F59" t="n">
-        <v>40</v>
-      </c>
-      <c r="G59" t="n">
         <v>31.20917404557991</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2104,24 +1567,15 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>52.3</v>
+        <v>35</v>
       </c>
       <c r="C60" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="D60" t="n">
-        <v>35</v>
-      </c>
-      <c r="E60" t="n">
-        <v>176</v>
-      </c>
-      <c r="F60" t="n">
-        <v>47</v>
-      </c>
-      <c r="G60" t="n">
         <v>35.51136363636364</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2132,24 +1586,15 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>3.4</v>
+        <v>38</v>
       </c>
       <c r="C61" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>38</v>
-      </c>
-      <c r="E61" t="n">
-        <v>176</v>
-      </c>
-      <c r="F61" t="n">
-        <v>40</v>
-      </c>
-      <c r="G61" t="n">
         <v>26.79493801652893</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2160,24 +1605,15 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C62" t="n">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D62" t="n">
-        <v>38</v>
-      </c>
-      <c r="E62" t="n">
-        <v>156</v>
-      </c>
-      <c r="F62" t="n">
-        <v>39</v>
-      </c>
-      <c r="G62" t="n">
         <v>38.62590401051939</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2188,24 +1624,15 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C63" t="n">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D63" t="n">
-        <v>25</v>
-      </c>
-      <c r="E63" t="n">
-        <v>180</v>
-      </c>
-      <c r="F63" t="n">
-        <v>43</v>
-      </c>
-      <c r="G63" t="n">
         <v>32.4074074074074</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2216,24 +1643,15 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C64" t="n">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>31</v>
-      </c>
-      <c r="E64" t="n">
-        <v>186</v>
-      </c>
-      <c r="F64" t="n">
-        <v>42</v>
-      </c>
-      <c r="G64" t="n">
         <v>31.21748178980229</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2244,24 +1662,15 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>1.1</v>
+        <v>37</v>
       </c>
       <c r="C65" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D65" t="n">
-        <v>37</v>
-      </c>
-      <c r="E65" t="n">
-        <v>183</v>
-      </c>
-      <c r="F65" t="n">
-        <v>42</v>
-      </c>
-      <c r="G65" t="n">
         <v>26.27728507868255</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2272,24 +1681,15 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>32.3</v>
+        <v>55</v>
       </c>
       <c r="C66" t="n">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>55</v>
-      </c>
-      <c r="E66" t="n">
-        <v>153</v>
-      </c>
-      <c r="F66" t="n">
-        <v>35</v>
-      </c>
-      <c r="G66" t="n">
         <v>30.75740099961553</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2300,24 +1700,15 @@
         <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>2.4</v>
+        <v>32</v>
       </c>
       <c r="C67" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D67" t="n">
-        <v>32</v>
-      </c>
-      <c r="E67" t="n">
-        <v>174</v>
-      </c>
-      <c r="F67" t="n">
-        <v>42</v>
-      </c>
-      <c r="G67" t="n">
         <v>31.37798916633637</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2328,24 +1719,15 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C68" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>31</v>
-      </c>
-      <c r="E68" t="n">
-        <v>163</v>
-      </c>
-      <c r="F68" t="n">
-        <v>35</v>
-      </c>
-      <c r="G68" t="n">
         <v>24.08822311716662</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2356,24 +1738,15 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>35.7</v>
+        <v>55</v>
       </c>
       <c r="C69" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D69" t="n">
-        <v>55</v>
-      </c>
-      <c r="E69" t="n">
-        <v>153</v>
-      </c>
-      <c r="F69" t="n">
-        <v>37</v>
-      </c>
-      <c r="G69" t="n">
         <v>38.44675124951942</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2384,24 +1757,15 @@
         <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>46.5</v>
+        <v>40</v>
       </c>
       <c r="C70" t="n">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="D70" t="n">
-        <v>40</v>
-      </c>
-      <c r="E70" t="n">
-        <v>176</v>
-      </c>
-      <c r="F70" t="n">
-        <v>47</v>
-      </c>
-      <c r="G70" t="n">
         <v>52.29855371900827</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2412,24 +1776,15 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>38.3</v>
+        <v>41</v>
       </c>
       <c r="C71" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D71" t="n">
-        <v>41</v>
-      </c>
-      <c r="E71" t="n">
-        <v>185</v>
-      </c>
-      <c r="F71" t="n">
-        <v>44</v>
-      </c>
-      <c r="G71" t="n">
         <v>27.75748721694668</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2440,24 +1795,15 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C72" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>32</v>
-      </c>
-      <c r="E72" t="n">
-        <v>168</v>
-      </c>
-      <c r="F72" t="n">
-        <v>35</v>
-      </c>
-      <c r="G72" t="n">
         <v>24.8015873015873</v>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2468,24 +1814,15 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>35.1</v>
+        <v>54</v>
       </c>
       <c r="C73" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D73" t="n">
-        <v>54</v>
-      </c>
-      <c r="E73" t="n">
-        <v>170</v>
-      </c>
-      <c r="F73" t="n">
-        <v>42</v>
-      </c>
-      <c r="G73" t="n">
         <v>29.06574394463668</v>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2496,24 +1833,15 @@
         <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C74" t="n">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D74" t="n">
-        <v>49</v>
-      </c>
-      <c r="E74" t="n">
-        <v>162</v>
-      </c>
-      <c r="F74" t="n">
-        <v>44</v>
-      </c>
-      <c r="G74" t="n">
         <v>35.43667123914037</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2524,24 +1852,15 @@
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C75" t="n">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D75" t="n">
-        <v>43</v>
-      </c>
-      <c r="E75" t="n">
-        <v>174</v>
-      </c>
-      <c r="F75" t="n">
-        <v>44</v>
-      </c>
-      <c r="G75" t="n">
         <v>33.35975690315762</v>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2552,24 +1871,15 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7</v>
+        <v>26</v>
       </c>
       <c r="C76" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D76" t="n">
-        <v>26</v>
-      </c>
-      <c r="E76" t="n">
-        <v>170</v>
-      </c>
-      <c r="F76" t="n">
-        <v>37</v>
-      </c>
-      <c r="G76" t="n">
         <v>34.94809688581315</v>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2580,24 +1890,15 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>1.4</v>
+        <v>35</v>
       </c>
       <c r="C77" t="n">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="D77" t="n">
-        <v>35</v>
-      </c>
-      <c r="E77" t="n">
-        <v>184</v>
-      </c>
-      <c r="F77" t="n">
-        <v>44</v>
-      </c>
-      <c r="G77" t="n">
         <v>32.7859168241966</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2608,24 +1909,15 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>3.6</v>
+        <v>29</v>
       </c>
       <c r="C78" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D78" t="n">
-        <v>29</v>
-      </c>
-      <c r="E78" t="n">
-        <v>178</v>
-      </c>
-      <c r="F78" t="n">
-        <v>38</v>
-      </c>
-      <c r="G78" t="n">
         <v>25.24933720489837</v>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2636,24 +1928,15 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C79" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D79" t="n">
-        <v>49</v>
-      </c>
-      <c r="E79" t="n">
-        <v>156</v>
-      </c>
-      <c r="F79" t="n">
-        <v>36</v>
-      </c>
-      <c r="G79" t="n">
         <v>28.76397107166338</v>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2664,24 +1947,15 @@
         <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>59.6</v>
+        <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D80" t="n">
-        <v>78</v>
-      </c>
-      <c r="E80" t="n">
-        <v>175</v>
-      </c>
-      <c r="F80" t="n">
-        <v>44</v>
-      </c>
-      <c r="G80" t="n">
         <v>35.91836734693877</v>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2692,24 +1966,15 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>2.3</v>
+        <v>37</v>
       </c>
       <c r="C81" t="n">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D81" t="n">
-        <v>37</v>
-      </c>
-      <c r="E81" t="n">
-        <v>164</v>
-      </c>
-      <c r="F81" t="n">
-        <v>40</v>
-      </c>
-      <c r="G81" t="n">
         <v>37.55205234979179</v>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2720,24 +1985,15 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>45</v>
+        <v>49.50370370370371</v>
       </c>
       <c r="C82" t="n">
-        <v>106</v>
+        <v>40.6177347242921</v>
       </c>
       <c r="D82" t="n">
-        <v>49.50370370370371</v>
-      </c>
-      <c r="E82" t="n">
-        <v>184</v>
-      </c>
-      <c r="F82" t="n">
-        <v>40.6177347242921</v>
-      </c>
-      <c r="G82" t="n">
         <v>31.30907372400756</v>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2748,24 +2004,15 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C83" t="n">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="D83" t="n">
-        <v>33</v>
-      </c>
-      <c r="E83" t="n">
-        <v>181</v>
-      </c>
-      <c r="F83" t="n">
-        <v>44</v>
-      </c>
-      <c r="G83" t="n">
         <v>36.01843655566069</v>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2776,24 +2023,15 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C84" t="n">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D84" t="n">
-        <v>52</v>
-      </c>
-      <c r="E84" t="n">
-        <v>182</v>
-      </c>
-      <c r="F84" t="n">
-        <v>47</v>
-      </c>
-      <c r="G84" t="n">
         <v>39.24646781789639</v>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2804,24 +2042,15 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>44.6</v>
+        <v>53</v>
       </c>
       <c r="C85" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D85" t="n">
-        <v>53</v>
-      </c>
-      <c r="E85" t="n">
-        <v>165</v>
-      </c>
-      <c r="F85" t="n">
-        <v>41</v>
-      </c>
-      <c r="G85" t="n">
         <v>28.65013774104683</v>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2832,24 +2061,15 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>3.9</v>
+        <v>35</v>
       </c>
       <c r="C86" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D86" t="n">
-        <v>35</v>
-      </c>
-      <c r="E86" t="n">
-        <v>167</v>
-      </c>
-      <c r="F86" t="n">
-        <v>35</v>
-      </c>
-      <c r="G86" t="n">
         <v>21.15529420201513</v>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2860,24 +2080,15 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>2.1</v>
+        <v>36</v>
       </c>
       <c r="C87" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D87" t="n">
-        <v>36</v>
-      </c>
-      <c r="E87" t="n">
-        <v>178</v>
-      </c>
-      <c r="F87" t="n">
-        <v>41</v>
-      </c>
-      <c r="G87" t="n">
         <v>28.40550435551067</v>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2888,24 +2099,15 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>2.4</v>
+        <v>37</v>
       </c>
       <c r="C88" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D88" t="n">
-        <v>37</v>
-      </c>
-      <c r="E88" t="n">
-        <v>174</v>
-      </c>
-      <c r="F88" t="n">
-        <v>37</v>
-      </c>
-      <c r="G88" t="n">
         <v>27.08415906989034</v>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2916,24 +2118,15 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>4.8</v>
+        <v>38</v>
       </c>
       <c r="C89" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D89" t="n">
-        <v>38</v>
-      </c>
-      <c r="E89" t="n">
-        <v>166</v>
-      </c>
-      <c r="F89" t="n">
-        <v>40</v>
-      </c>
-      <c r="G89" t="n">
         <v>31.20917404557991</v>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2944,24 +2137,15 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>2.6</v>
+        <v>65</v>
       </c>
       <c r="C90" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D90" t="n">
-        <v>65</v>
-      </c>
-      <c r="E90" t="n">
-        <v>158</v>
-      </c>
-      <c r="F90" t="n">
-        <v>37</v>
-      </c>
-      <c r="G90" t="n">
         <v>24.03460983816696</v>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2972,24 +2156,15 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>33.3</v>
+        <v>47</v>
       </c>
       <c r="C91" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D91" t="n">
-        <v>47</v>
-      </c>
-      <c r="E91" t="n">
-        <v>174</v>
-      </c>
-      <c r="F91" t="n">
-        <v>45</v>
-      </c>
-      <c r="G91" t="n">
         <v>28.07504293830096</v>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3000,24 +2175,15 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C92" t="n">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D92" t="n">
-        <v>48</v>
-      </c>
-      <c r="E92" t="n">
-        <v>174</v>
-      </c>
-      <c r="F92" t="n">
-        <v>45</v>
-      </c>
-      <c r="G92" t="n">
         <v>34.02034614876469</v>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3028,24 +2194,15 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C93" t="n">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D93" t="n">
-        <v>40</v>
-      </c>
-      <c r="E93" t="n">
-        <v>183</v>
-      </c>
-      <c r="F93" t="n">
-        <v>44</v>
-      </c>
-      <c r="G93" t="n">
         <v>28.06891815222909</v>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3056,24 +2213,15 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>4.8</v>
+        <v>65</v>
       </c>
       <c r="C94" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D94" t="n">
-        <v>65</v>
-      </c>
-      <c r="E94" t="n">
-        <v>166</v>
-      </c>
-      <c r="F94" t="n">
-        <v>38</v>
-      </c>
-      <c r="G94" t="n">
         <v>26.85440557410364</v>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3084,24 +2232,15 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>50.9</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D95" t="n">
-        <v>45</v>
-      </c>
-      <c r="E95" t="n">
-        <v>173</v>
-      </c>
-      <c r="F95" t="n">
-        <v>42</v>
-      </c>
-      <c r="G95" t="n">
         <v>28.73467205720204</v>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3112,24 +2251,15 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>58.5</v>
+        <v>55</v>
       </c>
       <c r="C96" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D96" t="n">
-        <v>55</v>
-      </c>
-      <c r="E96" t="n">
-        <v>180</v>
-      </c>
-      <c r="F96" t="n">
-        <v>42</v>
-      </c>
-      <c r="G96" t="n">
         <v>27.16049382716049</v>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3140,24 +2270,15 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C97" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>59</v>
-      </c>
-      <c r="E97" t="n">
-        <v>178</v>
-      </c>
-      <c r="F97" t="n">
-        <v>47</v>
-      </c>
-      <c r="G97" t="n">
         <v>29.98358793081681</v>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3168,24 +2289,15 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="C98" t="n">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="D98" t="n">
-        <v>51</v>
-      </c>
-      <c r="E98" t="n">
-        <v>144</v>
-      </c>
-      <c r="F98" t="n">
-        <v>43</v>
-      </c>
-      <c r="G98" t="n">
         <v>44.84953703703704</v>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3196,24 +2308,15 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>1.5</v>
+        <v>38</v>
       </c>
       <c r="C99" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D99" t="n">
-        <v>38</v>
-      </c>
-      <c r="E99" t="n">
-        <v>170</v>
-      </c>
-      <c r="F99" t="n">
-        <v>40</v>
-      </c>
-      <c r="G99" t="n">
         <v>29.75778546712803</v>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3224,24 +2327,15 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>1.3</v>
+        <v>34</v>
       </c>
       <c r="C100" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D100" t="n">
-        <v>34</v>
-      </c>
-      <c r="E100" t="n">
-        <v>157</v>
-      </c>
-      <c r="F100" t="n">
-        <v>34</v>
-      </c>
-      <c r="G100" t="n">
         <v>21.50188648626719</v>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3252,24 +2346,15 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>37.9</v>
+        <v>30</v>
       </c>
       <c r="C101" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D101" t="n">
-        <v>30</v>
-      </c>
-      <c r="E101" t="n">
-        <v>160</v>
-      </c>
-      <c r="F101" t="n">
-        <v>35</v>
-      </c>
-      <c r="G101" t="n">
         <v>39.06249999999999</v>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3280,24 +2365,15 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C102" t="n">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="D102" t="n">
-        <v>41</v>
-      </c>
-      <c r="E102" t="n">
-        <v>190</v>
-      </c>
-      <c r="F102" t="n">
-        <v>49</v>
-      </c>
-      <c r="G102" t="n">
         <v>32.96398891966759</v>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3308,24 +2384,15 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C103" t="n">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D103" t="n">
-        <v>32</v>
-      </c>
-      <c r="E103" t="n">
-        <v>179</v>
-      </c>
-      <c r="F103" t="n">
-        <v>37</v>
-      </c>
-      <c r="G103" t="n">
         <v>32.77051278049998</v>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3336,24 +2403,15 @@
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>48.7</v>
+        <v>66</v>
       </c>
       <c r="C104" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D104" t="n">
-        <v>66</v>
-      </c>
-      <c r="E104" t="n">
-        <v>173</v>
-      </c>
-      <c r="F104" t="n">
-        <v>43</v>
-      </c>
-      <c r="G104" t="n">
         <v>28.40054796351365</v>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3364,24 +2422,15 @@
         <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>40.8</v>
+        <v>50</v>
       </c>
       <c r="C105" t="n">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D105" t="n">
-        <v>50</v>
-      </c>
-      <c r="E105" t="n">
-        <v>177</v>
-      </c>
-      <c r="F105" t="n">
-        <v>46</v>
-      </c>
-      <c r="G105" t="n">
         <v>33.51527338887293</v>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3392,24 +2441,15 @@
         <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C106" t="n">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D106" t="n">
-        <v>33</v>
-      </c>
-      <c r="E106" t="n">
-        <v>197</v>
-      </c>
-      <c r="F106" t="n">
-        <v>44</v>
-      </c>
-      <c r="G106" t="n">
         <v>30.14764616454946</v>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3420,24 +2460,15 @@
         <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>4.2</v>
+        <v>59</v>
       </c>
       <c r="C107" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D107" t="n">
-        <v>59</v>
-      </c>
-      <c r="E107" t="n">
-        <v>176</v>
-      </c>
-      <c r="F107" t="n">
-        <v>41</v>
-      </c>
-      <c r="G107" t="n">
         <v>26.14927685950413</v>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3448,24 +2479,15 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C108" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D108" t="n">
-        <v>71</v>
-      </c>
-      <c r="E108" t="n">
-        <v>158</v>
-      </c>
-      <c r="F108" t="n">
-        <v>35</v>
-      </c>
-      <c r="G108" t="n">
         <v>26.43807082198365</v>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3476,24 +2498,15 @@
         <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C109" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>57</v>
-      </c>
-      <c r="E109" t="n">
-        <v>165</v>
-      </c>
-      <c r="F109" t="n">
-        <v>44</v>
-      </c>
-      <c r="G109" t="n">
         <v>36.73094582185492</v>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3504,24 +2517,15 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C110" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D110" t="n">
-        <v>55</v>
-      </c>
-      <c r="E110" t="n">
-        <v>160</v>
-      </c>
-      <c r="F110" t="n">
-        <v>40</v>
-      </c>
-      <c r="G110" t="n">
         <v>31.24999999999999</v>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3532,24 +2536,15 @@
         <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C111" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D111" t="n">
-        <v>40</v>
-      </c>
-      <c r="E111" t="n">
-        <v>171</v>
-      </c>
-      <c r="F111" t="n">
-        <v>46</v>
-      </c>
-      <c r="G111" t="n">
         <v>30.0947300023939</v>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3560,24 +2555,15 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C112" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D112" t="n">
-        <v>64</v>
-      </c>
-      <c r="E112" t="n">
-        <v>168</v>
-      </c>
-      <c r="F112" t="n">
-        <v>33</v>
-      </c>
-      <c r="G112" t="n">
         <v>25.15589569160998</v>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3588,24 +2574,15 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>3.4</v>
+        <v>52</v>
       </c>
       <c r="C113" t="n">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>52</v>
-      </c>
-      <c r="E113" t="n">
-        <v>165</v>
-      </c>
-      <c r="F113" t="n">
-        <v>40</v>
-      </c>
-      <c r="G113" t="n">
         <v>36.36363636363637</v>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3616,24 +2593,15 @@
         <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>3.5</v>
+        <v>53</v>
       </c>
       <c r="C114" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D114" t="n">
-        <v>53</v>
-      </c>
-      <c r="E114" t="n">
-        <v>169</v>
-      </c>
-      <c r="F114" t="n">
-        <v>43</v>
-      </c>
-      <c r="G114" t="n">
         <v>27.30996813837051</v>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3644,24 +2612,15 @@
         <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C115" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="D115" t="n">
-        <v>67</v>
-      </c>
-      <c r="E115" t="n">
-        <v>173</v>
-      </c>
-      <c r="F115" t="n">
-        <v>50</v>
-      </c>
-      <c r="G115" t="n">
         <v>35.08302983728156</v>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3672,24 +2631,15 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C116" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D116" t="n">
-        <v>29</v>
-      </c>
-      <c r="E116" t="n">
-        <v>158</v>
-      </c>
-      <c r="F116" t="n">
-        <v>33</v>
-      </c>
-      <c r="G116" t="n">
         <v>22.43230251562249</v>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3700,24 +2650,15 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>4.2</v>
+        <v>39</v>
       </c>
       <c r="C117" t="n">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D117" t="n">
-        <v>39</v>
-      </c>
-      <c r="E117" t="n">
-        <v>167</v>
-      </c>
-      <c r="F117" t="n">
-        <v>38</v>
-      </c>
-      <c r="G117" t="n">
         <v>33.34648069131199</v>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3728,24 +2669,15 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>84.8</v>
+        <v>43</v>
       </c>
       <c r="C118" t="n">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="D118" t="n">
-        <v>43</v>
-      </c>
-      <c r="E118" t="n">
-        <v>163</v>
-      </c>
-      <c r="F118" t="n">
-        <v>39</v>
-      </c>
-      <c r="G118" t="n">
         <v>38.76698407919004</v>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3756,24 +2688,15 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>3.5</v>
+        <v>65</v>
       </c>
       <c r="C119" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D119" t="n">
-        <v>65</v>
-      </c>
-      <c r="E119" t="n">
-        <v>162</v>
-      </c>
-      <c r="F119" t="n">
-        <v>37</v>
-      </c>
-      <c r="G119" t="n">
         <v>32.00731595793324</v>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3784,24 +2707,15 @@
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C120" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D120" t="n">
-        <v>62</v>
-      </c>
-      <c r="E120" t="n">
-        <v>165</v>
-      </c>
-      <c r="F120" t="n">
-        <v>37</v>
-      </c>
-      <c r="G120" t="n">
         <v>26.07897153351699</v>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3812,24 +2726,15 @@
         <v>1</v>
       </c>
       <c r="B121" t="n">
-        <v>40.9</v>
+        <v>54</v>
       </c>
       <c r="C121" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D121" t="n">
-        <v>54</v>
-      </c>
-      <c r="E121" t="n">
-        <v>175</v>
-      </c>
-      <c r="F121" t="n">
-        <v>44</v>
-      </c>
-      <c r="G121" t="n">
         <v>27.75510204081633</v>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3840,24 +2745,15 @@
         <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>3.6</v>
+        <v>42</v>
       </c>
       <c r="C122" t="n">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D122" t="n">
-        <v>42</v>
-      </c>
-      <c r="E122" t="n">
-        <v>176</v>
-      </c>
-      <c r="F122" t="n">
-        <v>38</v>
-      </c>
-      <c r="G122" t="n">
         <v>27.11776859504132</v>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3868,24 +2764,15 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>1.9</v>
+        <v>64</v>
       </c>
       <c r="C123" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D123" t="n">
-        <v>64</v>
-      </c>
-      <c r="E123" t="n">
-        <v>152</v>
-      </c>
-      <c r="F123" t="n">
-        <v>40</v>
-      </c>
-      <c r="G123" t="n">
         <v>43.28254847645429</v>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3896,24 +2783,15 @@
         <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>4.3</v>
+        <v>42</v>
       </c>
       <c r="C124" t="n">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D124" t="n">
-        <v>42</v>
-      </c>
-      <c r="E124" t="n">
-        <v>189</v>
-      </c>
-      <c r="F124" t="n">
-        <v>38</v>
-      </c>
-      <c r="G124" t="n">
         <v>23.23563170124017</v>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3924,24 +2802,15 @@
         <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C125" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D125" t="n">
-        <v>48</v>
-      </c>
-      <c r="E125" t="n">
-        <v>181</v>
-      </c>
-      <c r="F125" t="n">
-        <v>43</v>
-      </c>
-      <c r="G125" t="n">
         <v>26.25072494734593</v>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3952,24 +2821,15 @@
         <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>2.5</v>
+        <v>46</v>
       </c>
       <c r="C126" t="n">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="D126" t="n">
-        <v>46</v>
-      </c>
-      <c r="E126" t="n">
-        <v>160</v>
-      </c>
-      <c r="F126" t="n">
-        <v>38</v>
-      </c>
-      <c r="G126" t="n">
         <v>41.79687499999999</v>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3980,24 +2840,15 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>3.2</v>
+        <v>51</v>
       </c>
       <c r="C127" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D127" t="n">
-        <v>51</v>
-      </c>
-      <c r="E127" t="n">
-        <v>167</v>
-      </c>
-      <c r="F127" t="n">
-        <v>34</v>
-      </c>
-      <c r="G127" t="n">
         <v>25.81663021262863</v>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4008,24 +2859,15 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C128" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D128" t="n">
-        <v>67</v>
-      </c>
-      <c r="E128" t="n">
-        <v>150</v>
-      </c>
-      <c r="F128" t="n">
-        <v>33</v>
-      </c>
-      <c r="G128" t="n">
         <v>29.33333333333333</v>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4036,24 +2878,15 @@
         <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>2.6</v>
+        <v>29</v>
       </c>
       <c r="C129" t="n">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D129" t="n">
-        <v>29</v>
-      </c>
-      <c r="E129" t="n">
-        <v>181</v>
-      </c>
-      <c r="F129" t="n">
-        <v>39</v>
-      </c>
-      <c r="G129" t="n">
         <v>26.25072494734593</v>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4064,24 +2897,15 @@
         <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>67.8</v>
+        <v>33</v>
       </c>
       <c r="C130" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="D130" t="n">
-        <v>33</v>
-      </c>
-      <c r="E130" t="n">
-        <v>178</v>
-      </c>
-      <c r="F130" t="n">
-        <v>46</v>
-      </c>
-      <c r="G130" t="n">
         <v>41.03017295795985</v>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4092,24 +2916,15 @@
         <v>1</v>
       </c>
       <c r="B131" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C131" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D131" t="n">
-        <v>60</v>
-      </c>
-      <c r="E131" t="n">
-        <v>187</v>
-      </c>
-      <c r="F131" t="n">
-        <v>46</v>
-      </c>
-      <c r="G131" t="n">
         <v>34.31610855329005</v>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4120,24 +2935,15 @@
         <v>1</v>
       </c>
       <c r="B132" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C132" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D132" t="n">
-        <v>49</v>
-      </c>
-      <c r="E132" t="n">
-        <v>171</v>
-      </c>
-      <c r="F132" t="n">
-        <v>46</v>
-      </c>
-      <c r="G132" t="n">
         <v>27.35884545672173</v>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4148,24 +2954,15 @@
         <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C133" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D133" t="n">
-        <v>43</v>
-      </c>
-      <c r="E133" t="n">
-        <v>178</v>
-      </c>
-      <c r="F133" t="n">
-        <v>42</v>
-      </c>
-      <c r="G133" t="n">
         <v>26.82742078020452</v>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4176,24 +2973,15 @@
         <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>4.1</v>
+        <v>40</v>
       </c>
       <c r="C134" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D134" t="n">
-        <v>40</v>
-      </c>
-      <c r="E134" t="n">
-        <v>162</v>
-      </c>
-      <c r="F134" t="n">
-        <v>33</v>
-      </c>
-      <c r="G134" t="n">
         <v>21.71925011431184</v>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4204,24 +2992,15 @@
         <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>108.4</v>
+        <v>59</v>
       </c>
       <c r="C135" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D135" t="n">
-        <v>59</v>
-      </c>
-      <c r="E135" t="n">
-        <v>154</v>
-      </c>
-      <c r="F135" t="n">
-        <v>45</v>
-      </c>
-      <c r="G135" t="n">
         <v>36.68409512565357</v>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4232,24 +3011,15 @@
         <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C136" t="n">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D136" t="n">
-        <v>40</v>
-      </c>
-      <c r="E136" t="n">
-        <v>170</v>
-      </c>
-      <c r="F136" t="n">
-        <v>42</v>
-      </c>
-      <c r="G136" t="n">
         <v>32.17993079584775</v>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4260,24 +3030,15 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C137" t="n">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D137" t="n">
-        <v>40</v>
-      </c>
-      <c r="E137" t="n">
-        <v>162</v>
-      </c>
-      <c r="F137" t="n">
-        <v>34</v>
-      </c>
-      <c r="G137" t="n">
         <v>28.19692120103642</v>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4288,24 +3049,15 @@
         <v>1</v>
       </c>
       <c r="B138" t="n">
-        <v>58.4</v>
+        <v>49</v>
       </c>
       <c r="C138" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D138" t="n">
-        <v>49</v>
-      </c>
-      <c r="E138" t="n">
-        <v>170</v>
-      </c>
-      <c r="F138" t="n">
-        <v>41</v>
-      </c>
-      <c r="G138" t="n">
         <v>28.02768166089966</v>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4316,24 +3068,15 @@
         <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C139" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D139" t="n">
-        <v>58</v>
-      </c>
-      <c r="E139" t="n">
-        <v>175</v>
-      </c>
-      <c r="F139" t="n">
-        <v>39</v>
-      </c>
-      <c r="G139" t="n">
         <v>26.12244897959184</v>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4344,24 +3087,15 @@
         <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>3.4</v>
+        <v>50</v>
       </c>
       <c r="C140" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D140" t="n">
-        <v>50</v>
-      </c>
-      <c r="E140" t="n">
-        <v>168</v>
-      </c>
-      <c r="F140" t="n">
-        <v>36</v>
-      </c>
-      <c r="G140" t="n">
         <v>30.11621315192744</v>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4372,24 +3106,15 @@
         <v>1</v>
       </c>
       <c r="B141" t="n">
-        <v>33.1</v>
+        <v>71</v>
       </c>
       <c r="C141" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D141" t="n">
-        <v>71</v>
-      </c>
-      <c r="E141" t="n">
-        <v>170</v>
-      </c>
-      <c r="F141" t="n">
-        <v>46</v>
-      </c>
-      <c r="G141" t="n">
         <v>31.83391003460208</v>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4400,24 +3125,15 @@
         <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>36.8</v>
+        <v>44</v>
       </c>
       <c r="C142" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="D142" t="n">
-        <v>44</v>
-      </c>
-      <c r="E142" t="n">
-        <v>187</v>
-      </c>
-      <c r="F142" t="n">
-        <v>42</v>
-      </c>
-      <c r="G142" t="n">
         <v>31.45643284051588</v>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4428,24 +3144,15 @@
         <v>1</v>
       </c>
       <c r="B143" t="n">
-        <v>61.5</v>
+        <v>56</v>
       </c>
       <c r="C143" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D143" t="n">
-        <v>56</v>
-      </c>
-      <c r="E143" t="n">
-        <v>169</v>
-      </c>
-      <c r="F143" t="n">
-        <v>44</v>
-      </c>
-      <c r="G143" t="n">
         <v>38.51405763103534</v>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4456,24 +3163,15 @@
         <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>78.40000000000001</v>
+        <v>37</v>
       </c>
       <c r="C144" t="n">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="D144" t="n">
-        <v>37</v>
-      </c>
-      <c r="E144" t="n">
-        <v>178</v>
-      </c>
-      <c r="F144" t="n">
-        <v>43</v>
-      </c>
-      <c r="G144" t="n">
         <v>35.34907208685772</v>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4484,24 +3182,15 @@
         <v>1</v>
       </c>
       <c r="B145" t="n">
-        <v>36.5</v>
+        <v>34</v>
       </c>
       <c r="C145" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D145" t="n">
-        <v>34</v>
-      </c>
-      <c r="E145" t="n">
-        <v>183</v>
-      </c>
-      <c r="F145" t="n">
-        <v>39</v>
-      </c>
-      <c r="G145" t="n">
         <v>25.38146854190928</v>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4512,24 +3201,15 @@
         <v>1</v>
       </c>
       <c r="B146" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C146" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="D146" t="n">
-        <v>48</v>
-      </c>
-      <c r="E146" t="n">
-        <v>176</v>
-      </c>
-      <c r="F146" t="n">
-        <v>49</v>
-      </c>
-      <c r="G146" t="n">
         <v>33.89721074380165</v>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4540,24 +3220,15 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C147" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D147" t="n">
-        <v>55</v>
-      </c>
-      <c r="E147" t="n">
-        <v>160</v>
-      </c>
-      <c r="F147" t="n">
-        <v>34</v>
-      </c>
-      <c r="G147" t="n">
         <v>27.34375</v>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4568,24 +3239,15 @@
         <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C148" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D148" t="n">
-        <v>35</v>
-      </c>
-      <c r="E148" t="n">
-        <v>191</v>
-      </c>
-      <c r="F148" t="n">
-        <v>44</v>
-      </c>
-      <c r="G148" t="n">
         <v>32.89383514706286</v>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4596,24 +3258,15 @@
         <v>1</v>
       </c>
       <c r="B149" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C149" t="n">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="D149" t="n">
-        <v>35</v>
-      </c>
-      <c r="E149" t="n">
-        <v>180</v>
-      </c>
-      <c r="F149" t="n">
-        <v>44</v>
-      </c>
-      <c r="G149" t="n">
         <v>41.04938271604938</v>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4624,24 +3277,15 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C150" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D150" t="n">
-        <v>37</v>
-      </c>
-      <c r="E150" t="n">
-        <v>155</v>
-      </c>
-      <c r="F150" t="n">
-        <v>33</v>
-      </c>
-      <c r="G150" t="n">
         <v>34.54734651404786</v>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4652,24 +3296,15 @@
         <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C151" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D151" t="n">
-        <v>70</v>
-      </c>
-      <c r="E151" t="n">
-        <v>163</v>
-      </c>
-      <c r="F151" t="n">
-        <v>41</v>
-      </c>
-      <c r="G151" t="n">
         <v>29.35752192404683</v>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4680,24 +3315,15 @@
         <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>76.5</v>
+        <v>45</v>
       </c>
       <c r="C152" t="n">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D152" t="n">
-        <v>45</v>
-      </c>
-      <c r="E152" t="n">
-        <v>174</v>
-      </c>
-      <c r="F152" t="n">
-        <v>43</v>
-      </c>
-      <c r="G152" t="n">
         <v>49.21389879772757</v>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4708,24 +3334,15 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C153" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D153" t="n">
-        <v>34</v>
-      </c>
-      <c r="E153" t="n">
-        <v>168</v>
-      </c>
-      <c r="F153" t="n">
-        <v>39</v>
-      </c>
-      <c r="G153" t="n">
         <v>31.17913832199547</v>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4736,24 +3353,15 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C154" t="n">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="D154" t="n">
-        <v>43</v>
-      </c>
-      <c r="E154" t="n">
-        <v>185</v>
-      </c>
-      <c r="F154" t="n">
-        <v>50</v>
-      </c>
-      <c r="G154" t="n">
         <v>39.44485025566107</v>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4764,24 +3372,15 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C155" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D155" t="n">
-        <v>57</v>
-      </c>
-      <c r="E155" t="n">
-        <v>156</v>
-      </c>
-      <c r="F155" t="n">
-        <v>41</v>
-      </c>
-      <c r="G155" t="n">
         <v>32.87310979618672</v>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4792,24 +3391,15 @@
         <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C156" t="n">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="D156" t="n">
-        <v>52</v>
-      </c>
-      <c r="E156" t="n">
-        <v>169</v>
-      </c>
-      <c r="F156" t="n">
-        <v>44</v>
-      </c>
-      <c r="G156" t="n">
         <v>41.66520780084731</v>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4820,24 +3410,15 @@
         <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C157" t="n">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D157" t="n">
-        <v>57</v>
-      </c>
-      <c r="E157" t="n">
-        <v>179</v>
-      </c>
-      <c r="F157" t="n">
-        <v>46</v>
-      </c>
-      <c r="G157" t="n">
         <v>32.45841265878094</v>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4848,24 +3429,15 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C158" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D158" t="n">
-        <v>35</v>
-      </c>
-      <c r="E158" t="n">
-        <v>175</v>
-      </c>
-      <c r="F158" t="n">
-        <v>35</v>
-      </c>
-      <c r="G158" t="n">
         <v>23.18367346938776</v>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4876,24 +3448,15 @@
         <v>1</v>
       </c>
       <c r="B159" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C159" t="n">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D159" t="n">
-        <v>45</v>
-      </c>
-      <c r="E159" t="n">
-        <v>165</v>
-      </c>
-      <c r="F159" t="n">
-        <v>45</v>
-      </c>
-      <c r="G159" t="n">
         <v>30.48668503213958</v>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4904,24 +3467,15 @@
         <v>1</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C160" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D160" t="n">
-        <v>41</v>
-      </c>
-      <c r="E160" t="n">
-        <v>185</v>
-      </c>
-      <c r="F160" t="n">
-        <v>40</v>
-      </c>
-      <c r="G160" t="n">
         <v>28.63403944485025</v>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4932,24 +3486,15 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>3.5</v>
+        <v>51</v>
       </c>
       <c r="C161" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D161" t="n">
-        <v>51</v>
-      </c>
-      <c r="E161" t="n">
-        <v>158</v>
-      </c>
-      <c r="F161" t="n">
-        <v>35</v>
-      </c>
-      <c r="G161" t="n">
         <v>33.64845377343374</v>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4960,24 +3505,15 @@
         <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>0.8</v>
+        <v>29</v>
       </c>
       <c r="C162" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D162" t="n">
-        <v>29</v>
-      </c>
-      <c r="E162" t="n">
-        <v>173</v>
-      </c>
-      <c r="F162" t="n">
-        <v>38</v>
-      </c>
-      <c r="G162" t="n">
         <v>24.0569347455645</v>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4988,24 +3524,15 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>2.1</v>
+        <v>49</v>
       </c>
       <c r="C163" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D163" t="n">
-        <v>49</v>
-      </c>
-      <c r="E163" t="n">
-        <v>163</v>
-      </c>
-      <c r="F163" t="n">
-        <v>31</v>
-      </c>
-      <c r="G163" t="n">
         <v>21.82995219993225</v>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5016,24 +3543,15 @@
         <v>1</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C164" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D164" t="n">
-        <v>42</v>
-      </c>
-      <c r="E164" t="n">
-        <v>185</v>
-      </c>
-      <c r="F164" t="n">
-        <v>40</v>
-      </c>
-      <c r="G164" t="n">
         <v>25.4200146092038</v>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5044,24 +3562,15 @@
         <v>1</v>
       </c>
       <c r="B165" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C165" t="n">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D165" t="n">
-        <v>54</v>
-      </c>
-      <c r="E165" t="n">
-        <v>181</v>
-      </c>
-      <c r="F165" t="n">
-        <v>43</v>
-      </c>
-      <c r="G165" t="n">
         <v>28.99789383718446</v>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5072,24 +3581,15 @@
         <v>1</v>
       </c>
       <c r="B166" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C166" t="n">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="D166" t="n">
-        <v>36</v>
-      </c>
-      <c r="E166" t="n">
-        <v>182</v>
-      </c>
-      <c r="F166" t="n">
-        <v>45</v>
-      </c>
-      <c r="G166" t="n">
         <v>35.92561284868977</v>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5100,24 +3600,15 @@
         <v>1</v>
       </c>
       <c r="B167" t="n">
-        <v>71.3</v>
+        <v>39</v>
       </c>
       <c r="C167" t="n">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D167" t="n">
-        <v>39</v>
-      </c>
-      <c r="E167" t="n">
-        <v>176</v>
-      </c>
-      <c r="F167" t="n">
-        <v>44</v>
-      </c>
-      <c r="G167" t="n">
         <v>31.31456611570248</v>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5128,24 +3619,15 @@
         <v>1</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C168" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D168" t="n">
-        <v>62</v>
-      </c>
-      <c r="E168" t="n">
-        <v>162</v>
-      </c>
-      <c r="F168" t="n">
-        <v>44</v>
-      </c>
-      <c r="G168" t="n">
         <v>25.91068434689833</v>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5156,24 +3638,15 @@
         <v>1</v>
       </c>
       <c r="B169" t="n">
-        <v>84.40000000000001</v>
+        <v>56</v>
       </c>
       <c r="C169" t="n">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="D169" t="n">
-        <v>56</v>
-      </c>
-      <c r="E169" t="n">
-        <v>173</v>
-      </c>
-      <c r="F169" t="n">
-        <v>47</v>
-      </c>
-      <c r="G169" t="n">
         <v>36.41952621203515</v>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5184,24 +3657,15 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C170" t="n">
-        <v>87.79703703703704</v>
+        <v>40</v>
       </c>
       <c r="D170" t="n">
-        <v>71</v>
-      </c>
-      <c r="E170" t="n">
-        <v>171.3994082840237</v>
-      </c>
-      <c r="F170" t="n">
-        <v>40</v>
-      </c>
-      <c r="G170" t="n">
         <v>29.88554795334758</v>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5212,24 +3676,15 @@
         <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>38.7</v>
+        <v>48</v>
       </c>
       <c r="C171" t="n">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D171" t="n">
-        <v>48</v>
-      </c>
-      <c r="E171" t="n">
-        <v>171</v>
-      </c>
-      <c r="F171" t="n">
-        <v>42</v>
-      </c>
-      <c r="G171" t="n">
         <v>45.14209500359085</v>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5240,24 +3695,15 @@
         <v>1</v>
       </c>
       <c r="B172" t="n">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C172" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D172" t="n">
-        <v>76</v>
-      </c>
-      <c r="E172" t="n">
-        <v>172</v>
-      </c>
-      <c r="F172" t="n">
-        <v>50</v>
-      </c>
-      <c r="G172" t="n">
         <v>33.46403461330449</v>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5268,24 +3714,15 @@
         <v>1</v>
       </c>
       <c r="B173" t="n">
-        <v>51.9</v>
+        <v>34</v>
       </c>
       <c r="C173" t="n">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D173" t="n">
-        <v>34</v>
-      </c>
-      <c r="E173" t="n">
-        <v>183</v>
-      </c>
-      <c r="F173" t="n">
-        <v>46</v>
-      </c>
-      <c r="G173" t="n">
         <v>31.65218429932216</v>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5296,24 +3733,15 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C174" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D174" t="n">
-        <v>44</v>
-      </c>
-      <c r="E174" t="n">
-        <v>165</v>
-      </c>
-      <c r="F174" t="n">
-        <v>34</v>
-      </c>
-      <c r="G174" t="n">
         <v>23.1404958677686</v>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5324,24 +3752,15 @@
         <v>1</v>
       </c>
       <c r="B175" t="n">
-        <v>31.4</v>
+        <v>70</v>
       </c>
       <c r="C175" t="n">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D175" t="n">
-        <v>70</v>
-      </c>
-      <c r="E175" t="n">
-        <v>180</v>
-      </c>
-      <c r="F175" t="n">
-        <v>39</v>
-      </c>
-      <c r="G175" t="n">
         <v>25</v>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5352,24 +3771,15 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C176" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D176" t="n">
-        <v>41</v>
-      </c>
-      <c r="E176" t="n">
-        <v>164</v>
-      </c>
-      <c r="F176" t="n">
-        <v>33</v>
-      </c>
-      <c r="G176" t="n">
         <v>21.56454491374182</v>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5380,24 +3790,15 @@
         <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C177" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D177" t="n">
-        <v>47</v>
-      </c>
-      <c r="E177" t="n">
-        <v>166</v>
-      </c>
-      <c r="F177" t="n">
-        <v>41</v>
-      </c>
-      <c r="G177" t="n">
         <v>39.91871098853245</v>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5408,24 +3809,15 @@
         <v>1</v>
       </c>
       <c r="B178" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C178" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D178" t="n">
-        <v>61</v>
-      </c>
-      <c r="E178" t="n">
-        <v>177</v>
-      </c>
-      <c r="F178" t="n">
-        <v>39</v>
-      </c>
-      <c r="G178" t="n">
         <v>27.13141179099237</v>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5436,24 +3828,15 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C179" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D179" t="n">
-        <v>43</v>
-      </c>
-      <c r="E179" t="n">
-        <v>162</v>
-      </c>
-      <c r="F179" t="n">
-        <v>37</v>
-      </c>
-      <c r="G179" t="n">
         <v>38.10394756896814</v>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5464,24 +3847,15 @@
         <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C180" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D180" t="n">
-        <v>40</v>
-      </c>
-      <c r="E180" t="n">
-        <v>166</v>
-      </c>
-      <c r="F180" t="n">
-        <v>38</v>
-      </c>
-      <c r="G180" t="n">
         <v>25.76571345623458</v>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5492,24 +3866,15 @@
         <v>1</v>
       </c>
       <c r="B181" t="n">
-        <v>2.5</v>
+        <v>48</v>
       </c>
       <c r="C181" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D181" t="n">
-        <v>48</v>
-      </c>
-      <c r="E181" t="n">
-        <v>170</v>
-      </c>
-      <c r="F181" t="n">
-        <v>37</v>
-      </c>
-      <c r="G181" t="n">
         <v>23.18339100346021</v>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5520,24 +3885,15 @@
         <v>1</v>
       </c>
       <c r="B182" t="n">
-        <v>41.7</v>
+        <v>50</v>
       </c>
       <c r="C182" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D182" t="n">
-        <v>50</v>
-      </c>
-      <c r="E182" t="n">
-        <v>169</v>
-      </c>
-      <c r="F182" t="n">
-        <v>34</v>
-      </c>
-      <c r="G182" t="n">
         <v>21.35779559539232</v>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5548,24 +3904,15 @@
         <v>1</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C183" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D183" t="n">
-        <v>34</v>
-      </c>
-      <c r="E183" t="n">
-        <v>186</v>
-      </c>
-      <c r="F183" t="n">
-        <v>40</v>
-      </c>
-      <c r="G183" t="n">
         <v>26.01456815816857</v>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5576,24 +3923,15 @@
         <v>1</v>
       </c>
       <c r="B184" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C184" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D184" t="n">
-        <v>71</v>
-      </c>
-      <c r="E184" t="n">
-        <v>172</v>
-      </c>
-      <c r="F184" t="n">
-        <v>42</v>
-      </c>
-      <c r="G184" t="n">
         <v>32.11195240670633</v>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5604,24 +3942,15 @@
         <v>1</v>
       </c>
       <c r="B185" t="n">
-        <v>34.3</v>
+        <v>37</v>
       </c>
       <c r="C185" t="n">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D185" t="n">
-        <v>37</v>
-      </c>
-      <c r="E185" t="n">
-        <v>167</v>
-      </c>
-      <c r="F185" t="n">
-        <v>43</v>
-      </c>
-      <c r="G185" t="n">
         <v>36.57355946789057</v>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5632,24 +3961,15 @@
         <v>1</v>
       </c>
       <c r="B186" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C186" t="n">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="D186" t="n">
-        <v>59</v>
-      </c>
-      <c r="E186" t="n">
-        <v>174</v>
-      </c>
-      <c r="F186" t="n">
-        <v>48</v>
-      </c>
-      <c r="G186" t="n">
         <v>35.34152463997886</v>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5660,24 +3980,15 @@
         <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C187" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D187" t="n">
-        <v>33</v>
-      </c>
-      <c r="E187" t="n">
-        <v>181</v>
-      </c>
-      <c r="F187" t="n">
-        <v>40</v>
-      </c>
-      <c r="G187" t="n">
         <v>24.72452000854675</v>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5688,24 +3999,15 @@
         <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C188" t="n">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="D188" t="n">
-        <v>42</v>
-      </c>
-      <c r="E188" t="n">
-        <v>177</v>
-      </c>
-      <c r="F188" t="n">
-        <v>45</v>
-      </c>
-      <c r="G188" t="n">
         <v>41.81429346611765</v>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5716,24 +4018,15 @@
         <v>1</v>
       </c>
       <c r="B189" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="C189" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D189" t="n">
-        <v>49</v>
-      </c>
-      <c r="E189" t="n">
-        <v>188</v>
-      </c>
-      <c r="F189" t="n">
-        <v>42</v>
-      </c>
-      <c r="G189" t="n">
         <v>24.0493435943866</v>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5744,24 +4037,15 @@
         <v>1</v>
       </c>
       <c r="B190" t="n">
-        <v>37.6</v>
+        <v>67</v>
       </c>
       <c r="C190" t="n">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D190" t="n">
-        <v>67</v>
-      </c>
-      <c r="E190" t="n">
-        <v>180</v>
-      </c>
-      <c r="F190" t="n">
-        <v>40</v>
-      </c>
-      <c r="G190" t="n">
         <v>27.16049382716049</v>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5772,24 +4056,15 @@
         <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C191" t="n">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="D191" t="n">
-        <v>48</v>
-      </c>
-      <c r="E191" t="n">
-        <v>159</v>
-      </c>
-      <c r="F191" t="n">
-        <v>39</v>
-      </c>
-      <c r="G191" t="n">
         <v>40.7420592539852</v>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5800,24 +4075,15 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C192" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D192" t="n">
-        <v>49</v>
-      </c>
-      <c r="E192" t="n">
-        <v>164</v>
-      </c>
-      <c r="F192" t="n">
-        <v>33</v>
-      </c>
-      <c r="G192" t="n">
         <v>23.79535990481856</v>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5828,24 +4094,15 @@
         <v>1</v>
       </c>
       <c r="B193" t="n">
-        <v>4.1</v>
+        <v>33</v>
       </c>
       <c r="C193" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D193" t="n">
-        <v>33</v>
-      </c>
-      <c r="E193" t="n">
-        <v>186</v>
-      </c>
-      <c r="F193" t="n">
-        <v>39</v>
-      </c>
-      <c r="G193" t="n">
         <v>26.88172043010752</v>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5856,24 +4113,15 @@
         <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>35.5</v>
+        <v>53</v>
       </c>
       <c r="C194" t="n">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D194" t="n">
-        <v>53</v>
-      </c>
-      <c r="E194" t="n">
-        <v>177</v>
-      </c>
-      <c r="F194" t="n">
-        <v>46</v>
-      </c>
-      <c r="G194" t="n">
         <v>46.28299658463404</v>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5884,24 +4132,15 @@
         <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C195" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D195" t="n">
-        <v>35</v>
-      </c>
-      <c r="E195" t="n">
-        <v>155</v>
-      </c>
-      <c r="F195" t="n">
-        <v>35</v>
-      </c>
-      <c r="G195" t="n">
         <v>27.88761706555671</v>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5912,24 +4151,15 @@
         <v>1</v>
       </c>
       <c r="B196" t="n">
-        <v>35.9</v>
+        <v>42</v>
       </c>
       <c r="C196" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D196" t="n">
-        <v>42</v>
-      </c>
-      <c r="E196" t="n">
-        <v>184</v>
-      </c>
-      <c r="F196" t="n">
-        <v>43</v>
-      </c>
-      <c r="G196" t="n">
         <v>29.53686200378072</v>
       </c>
-      <c r="H196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5940,24 +4170,15 @@
         <v>1</v>
       </c>
       <c r="B197" t="n">
-        <v>4.4</v>
+        <v>33</v>
       </c>
       <c r="C197" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D197" t="n">
-        <v>33</v>
-      </c>
-      <c r="E197" t="n">
-        <v>167</v>
-      </c>
-      <c r="F197" t="n">
-        <v>37</v>
-      </c>
-      <c r="G197" t="n">
         <v>23.30668005306752</v>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5968,24 +4189,15 @@
         <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>4.6</v>
+        <v>34</v>
       </c>
       <c r="C198" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D198" t="n">
-        <v>34</v>
-      </c>
-      <c r="E198" t="n">
-        <v>178</v>
-      </c>
-      <c r="F198" t="n">
-        <v>42</v>
-      </c>
-      <c r="G198" t="n">
         <v>28.08988764044944</v>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5996,24 +4208,15 @@
         <v>1</v>
       </c>
       <c r="B199" t="n">
-        <v>3.7</v>
+        <v>42</v>
       </c>
       <c r="C199" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D199" t="n">
-        <v>42</v>
-      </c>
-      <c r="E199" t="n">
-        <v>167</v>
-      </c>
-      <c r="F199" t="n">
-        <v>40</v>
-      </c>
-      <c r="G199" t="n">
         <v>31.91222345727707</v>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6024,24 +4227,15 @@
         <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C200" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D200" t="n">
-        <v>35</v>
-      </c>
-      <c r="E200" t="n">
-        <v>153</v>
-      </c>
-      <c r="F200" t="n">
-        <v>36</v>
-      </c>
-      <c r="G200" t="n">
         <v>31.61177324960485</v>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6052,24 +4246,15 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C201" t="n">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D201" t="n">
-        <v>53</v>
-      </c>
-      <c r="E201" t="n">
-        <v>161</v>
-      </c>
-      <c r="F201" t="n">
-        <v>35</v>
-      </c>
-      <c r="G201" t="n">
         <v>26.61934338952972</v>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6080,24 +4265,15 @@
         <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>4.1</v>
+        <v>34</v>
       </c>
       <c r="C202" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D202" t="n">
-        <v>34</v>
-      </c>
-      <c r="E202" t="n">
-        <v>154</v>
-      </c>
-      <c r="F202" t="n">
-        <v>37</v>
-      </c>
-      <c r="G202" t="n">
         <v>28.67262607522348</v>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6108,24 +4284,15 @@
         <v>1</v>
       </c>
       <c r="B203" t="n">
-        <v>44.8</v>
+        <v>29</v>
       </c>
       <c r="C203" t="n">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="D203" t="n">
-        <v>29</v>
-      </c>
-      <c r="E203" t="n">
-        <v>193</v>
-      </c>
-      <c r="F203" t="n">
-        <v>44</v>
-      </c>
-      <c r="G203" t="n">
         <v>30.87331203522242</v>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6136,24 +4303,15 @@
         <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C204" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D204" t="n">
-        <v>48</v>
-      </c>
-      <c r="E204" t="n">
-        <v>180</v>
-      </c>
-      <c r="F204" t="n">
-        <v>45</v>
-      </c>
-      <c r="G204" t="n">
         <v>38.58024691358025</v>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6164,24 +4322,15 @@
         <v>1</v>
       </c>
       <c r="B205" t="n">
-        <v>39.6</v>
+        <v>57</v>
       </c>
       <c r="C205" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D205" t="n">
-        <v>57</v>
-      </c>
-      <c r="E205" t="n">
-        <v>157</v>
-      </c>
-      <c r="F205" t="n">
-        <v>42</v>
-      </c>
-      <c r="G205" t="n">
         <v>32.45567771512029</v>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6192,24 +4341,15 @@
         <v>1</v>
       </c>
       <c r="B206" t="n">
-        <v>3.9</v>
+        <v>66</v>
       </c>
       <c r="C206" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D206" t="n">
-        <v>66</v>
-      </c>
-      <c r="E206" t="n">
-        <v>165</v>
-      </c>
-      <c r="F206" t="n">
-        <v>39</v>
-      </c>
-      <c r="G206" t="n">
         <v>24.97704315886134</v>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6220,24 +4360,15 @@
         <v>1</v>
       </c>
       <c r="B207" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C207" t="n">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="D207" t="n">
-        <v>46</v>
-      </c>
-      <c r="E207" t="n">
-        <v>183</v>
-      </c>
-      <c r="F207" t="n">
-        <v>50</v>
-      </c>
-      <c r="G207" t="n">
         <v>43.29779927737466</v>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6248,24 +4379,15 @@
         <v>1</v>
       </c>
       <c r="B208" t="n">
-        <v>35.3</v>
+        <v>51</v>
       </c>
       <c r="C208" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D208" t="n">
-        <v>51</v>
-      </c>
-      <c r="E208" t="n">
-        <v>175</v>
-      </c>
-      <c r="F208" t="n">
-        <v>41</v>
-      </c>
-      <c r="G208" t="n">
         <v>28.73469387755102</v>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6276,24 +4398,15 @@
         <v>1</v>
       </c>
       <c r="B209" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C209" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D209" t="n">
-        <v>47</v>
-      </c>
-      <c r="E209" t="n">
-        <v>182</v>
-      </c>
-      <c r="F209" t="n">
-        <v>42</v>
-      </c>
-      <c r="G209" t="n">
         <v>27.77442337881898</v>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6304,24 +4417,15 @@
         <v>1</v>
       </c>
       <c r="B210" t="n">
-        <v>42.2</v>
+        <v>52</v>
       </c>
       <c r="C210" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D210" t="n">
-        <v>52</v>
-      </c>
-      <c r="E210" t="n">
-        <v>170</v>
-      </c>
-      <c r="F210" t="n">
-        <v>46</v>
-      </c>
-      <c r="G210" t="n">
         <v>38.06228373702422</v>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6332,24 +4436,15 @@
         <v>1</v>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C211" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D211" t="n">
-        <v>26</v>
-      </c>
-      <c r="E211" t="n">
-        <v>160</v>
-      </c>
-      <c r="F211" t="n">
-        <v>37</v>
-      </c>
-      <c r="G211" t="n">
         <v>25.390625</v>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6360,24 +4455,15 @@
         <v>1</v>
       </c>
       <c r="B212" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C212" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D212" t="n">
-        <v>68</v>
-      </c>
-      <c r="E212" t="n">
-        <v>169</v>
-      </c>
-      <c r="F212" t="n">
-        <v>42</v>
-      </c>
-      <c r="G212" t="n">
         <v>25.20920135849585</v>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6388,24 +4474,15 @@
         <v>0</v>
       </c>
       <c r="B213" t="n">
-        <v>4.2</v>
+        <v>27</v>
       </c>
       <c r="C213" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D213" t="n">
-        <v>27</v>
-      </c>
-      <c r="E213" t="n">
-        <v>170</v>
-      </c>
-      <c r="F213" t="n">
-        <v>36</v>
-      </c>
-      <c r="G213" t="n">
         <v>24.91349480968858</v>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6416,24 +4493,15 @@
         <v>1</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C214" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D214" t="n">
-        <v>63</v>
-      </c>
-      <c r="E214" t="n">
-        <v>161</v>
-      </c>
-      <c r="F214" t="n">
-        <v>43</v>
-      </c>
-      <c r="G214" t="n">
         <v>26.23355580417422</v>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6444,24 +4512,15 @@
         <v>1</v>
       </c>
       <c r="B215" t="n">
-        <v>4.4</v>
+        <v>35</v>
       </c>
       <c r="C215" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D215" t="n">
-        <v>35</v>
-      </c>
-      <c r="E215" t="n">
-        <v>170</v>
-      </c>
-      <c r="F215" t="n">
-        <v>35</v>
-      </c>
-      <c r="G215" t="n">
         <v>23.52941176470588</v>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6472,24 +4531,15 @@
         <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>32.5</v>
+        <v>52</v>
       </c>
       <c r="C216" t="n">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D216" t="n">
-        <v>52</v>
-      </c>
-      <c r="E216" t="n">
-        <v>175</v>
-      </c>
-      <c r="F216" t="n">
-        <v>41</v>
-      </c>
-      <c r="G216" t="n">
         <v>38.53061224489796</v>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6500,24 +4550,15 @@
         <v>1</v>
       </c>
       <c r="B217" t="n">
-        <v>54.5</v>
+        <v>41</v>
       </c>
       <c r="C217" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D217" t="n">
-        <v>41</v>
-      </c>
-      <c r="E217" t="n">
-        <v>173</v>
-      </c>
-      <c r="F217" t="n">
-        <v>41</v>
-      </c>
-      <c r="G217" t="n">
         <v>26.72992749507167</v>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6528,24 +4569,15 @@
         <v>1</v>
       </c>
       <c r="B218" t="n">
-        <v>36.6</v>
+        <v>39</v>
       </c>
       <c r="C218" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D218" t="n">
-        <v>39</v>
-      </c>
-      <c r="E218" t="n">
-        <v>177</v>
-      </c>
-      <c r="F218" t="n">
-        <v>42</v>
-      </c>
-      <c r="G218" t="n">
         <v>30.32334258993265</v>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6556,24 +4588,15 @@
         <v>1</v>
       </c>
       <c r="B219" t="n">
-        <v>64.5</v>
+        <v>62</v>
       </c>
       <c r="C219" t="n">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="D219" t="n">
-        <v>62</v>
-      </c>
-      <c r="E219" t="n">
-        <v>172</v>
-      </c>
-      <c r="F219" t="n">
-        <v>44</v>
-      </c>
-      <c r="G219" t="n">
         <v>31.09789075175771</v>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6584,24 +4607,15 @@
         <v>0</v>
       </c>
       <c r="B220" t="n">
-        <v>0.7</v>
+        <v>44</v>
       </c>
       <c r="C220" t="n">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D220" t="n">
-        <v>44</v>
-      </c>
-      <c r="E220" t="n">
-        <v>163</v>
-      </c>
-      <c r="F220" t="n">
-        <v>33</v>
-      </c>
-      <c r="G220" t="n">
         <v>28.98114343784109</v>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6612,24 +4626,15 @@
         <v>0</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C221" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D221" t="n">
-        <v>39</v>
-      </c>
-      <c r="E221" t="n">
-        <v>164</v>
-      </c>
-      <c r="F221" t="n">
-        <v>30</v>
-      </c>
-      <c r="G221" t="n">
         <v>18.5901249256395</v>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6640,24 +4645,15 @@
         <v>0</v>
       </c>
       <c r="B222" t="n">
-        <v>1.8</v>
+        <v>49</v>
       </c>
       <c r="C222" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D222" t="n">
-        <v>49</v>
-      </c>
-      <c r="E222" t="n">
-        <v>165</v>
-      </c>
-      <c r="F222" t="n">
-        <v>33</v>
-      </c>
-      <c r="G222" t="n">
         <v>23.8751147842057</v>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6668,24 +4664,15 @@
         <v>1</v>
       </c>
       <c r="B223" t="n">
-        <v>2.6</v>
+        <v>29</v>
       </c>
       <c r="C223" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D223" t="n">
-        <v>29</v>
-      </c>
-      <c r="E223" t="n">
-        <v>172</v>
-      </c>
-      <c r="F223" t="n">
-        <v>35</v>
-      </c>
-      <c r="G223" t="n">
         <v>20.61925365062196</v>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6696,24 +4683,15 @@
         <v>1</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C224" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D224" t="n">
-        <v>42</v>
-      </c>
-      <c r="E224" t="n">
-        <v>172</v>
-      </c>
-      <c r="F224" t="n">
-        <v>39</v>
-      </c>
-      <c r="G224" t="n">
         <v>25.35154137371552</v>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6724,24 +4702,15 @@
         <v>1</v>
       </c>
       <c r="B225" t="n">
-        <v>35.7</v>
+        <v>61</v>
       </c>
       <c r="C225" t="n">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D225" t="n">
-        <v>61</v>
-      </c>
-      <c r="E225" t="n">
-        <v>170</v>
-      </c>
-      <c r="F225" t="n">
-        <v>42</v>
-      </c>
-      <c r="G225" t="n">
         <v>32.17993079584775</v>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6752,24 +4721,15 @@
         <v>1</v>
       </c>
       <c r="B226" t="n">
-        <v>37.3</v>
+        <v>40</v>
       </c>
       <c r="C226" t="n">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="D226" t="n">
-        <v>40</v>
-      </c>
-      <c r="E226" t="n">
-        <v>170</v>
-      </c>
-      <c r="F226" t="n">
-        <v>45</v>
-      </c>
-      <c r="G226" t="n">
         <v>33.56401384083046</v>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6780,24 +4740,15 @@
         <v>0</v>
       </c>
       <c r="B227" t="n">
-        <v>45.9</v>
+        <v>65</v>
       </c>
       <c r="C227" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D227" t="n">
-        <v>65</v>
-      </c>
-      <c r="E227" t="n">
-        <v>150</v>
-      </c>
-      <c r="F227" t="n">
-        <v>43</v>
-      </c>
-      <c r="G227" t="n">
         <v>37.77777777777778</v>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6808,24 +4759,15 @@
         <v>0</v>
       </c>
       <c r="B228" t="n">
-        <v>44.7</v>
+        <v>46</v>
       </c>
       <c r="C228" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D228" t="n">
-        <v>46</v>
-      </c>
-      <c r="E228" t="n">
-        <v>160</v>
-      </c>
-      <c r="F228" t="n">
-        <v>38</v>
-      </c>
-      <c r="G228" t="n">
         <v>39.06249999999999</v>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6836,24 +4778,15 @@
         <v>1</v>
       </c>
       <c r="B229" t="n">
-        <v>4.6</v>
+        <v>42</v>
       </c>
       <c r="C229" t="n">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="D229" t="n">
-        <v>42</v>
-      </c>
-      <c r="E229" t="n">
-        <v>195</v>
-      </c>
-      <c r="F229" t="n">
-        <v>48</v>
-      </c>
-      <c r="G229" t="n">
         <v>30.24326101249178</v>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6864,24 +4797,15 @@
         <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>1.7</v>
+        <v>31</v>
       </c>
       <c r="C230" t="n">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="D230" t="n">
-        <v>31</v>
-      </c>
-      <c r="E230" t="n">
-        <v>166</v>
-      </c>
-      <c r="F230" t="n">
-        <v>38</v>
-      </c>
-      <c r="G230" t="n">
         <v>37.37842938017129</v>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -6892,24 +4816,15 @@
         <v>1</v>
       </c>
       <c r="B231" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C231" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D231" t="n">
-        <v>49</v>
-      </c>
-      <c r="E231" t="n">
-        <v>172</v>
-      </c>
-      <c r="F231" t="n">
-        <v>44</v>
-      </c>
-      <c r="G231" t="n">
         <v>33.80205516495403</v>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6920,24 +4835,15 @@
         <v>0</v>
       </c>
       <c r="B232" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C232" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D232" t="n">
-        <v>61</v>
-      </c>
-      <c r="E232" t="n">
-        <v>155</v>
-      </c>
-      <c r="F232" t="n">
-        <v>34</v>
-      </c>
-      <c r="G232" t="n">
         <v>29.1363163371488</v>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6948,24 +4854,15 @@
         <v>1</v>
       </c>
       <c r="B233" t="n">
-        <v>61.1</v>
+        <v>70</v>
       </c>
       <c r="C233" t="n">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D233" t="n">
-        <v>70</v>
-      </c>
-      <c r="E233" t="n">
-        <v>176</v>
-      </c>
-      <c r="F233" t="n">
-        <v>45</v>
-      </c>
-      <c r="G233" t="n">
         <v>31.96022727272727</v>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6976,24 +4873,15 @@
         <v>0</v>
       </c>
       <c r="B234" t="n">
-        <v>74.3</v>
+        <v>62</v>
       </c>
       <c r="C234" t="n">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="D234" t="n">
-        <v>62</v>
-      </c>
-      <c r="E234" t="n">
-        <v>156</v>
-      </c>
-      <c r="F234" t="n">
-        <v>42</v>
-      </c>
-      <c r="G234" t="n">
         <v>47.66600920447074</v>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7004,24 +4892,15 @@
         <v>1</v>
       </c>
       <c r="B235" t="n">
-        <v>2.6</v>
+        <v>54</v>
       </c>
       <c r="C235" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D235" t="n">
-        <v>54</v>
-      </c>
-      <c r="E235" t="n">
-        <v>178</v>
-      </c>
-      <c r="F235" t="n">
-        <v>38</v>
-      </c>
-      <c r="G235" t="n">
         <v>23.67125362959222</v>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7032,24 +4911,15 @@
         <v>1</v>
       </c>
       <c r="B236" t="n">
-        <v>31.8</v>
+        <v>57</v>
       </c>
       <c r="C236" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D236" t="n">
-        <v>57</v>
-      </c>
-      <c r="E236" t="n">
-        <v>168</v>
-      </c>
-      <c r="F236" t="n">
-        <v>40</v>
-      </c>
-      <c r="G236" t="n">
         <v>28.34467120181406</v>
       </c>
-      <c r="H236" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7060,24 +4930,15 @@
         <v>1</v>
       </c>
       <c r="B237" t="n">
-        <v>63.1</v>
+        <v>80</v>
       </c>
       <c r="C237" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D237" t="n">
-        <v>80</v>
-      </c>
-      <c r="E237" t="n">
-        <v>158</v>
-      </c>
-      <c r="F237" t="n">
-        <v>43</v>
-      </c>
-      <c r="G237" t="n">
         <v>26.83864765261977</v>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7088,24 +4949,15 @@
         <v>1</v>
       </c>
       <c r="B238" t="n">
-        <v>1.4</v>
+        <v>47</v>
       </c>
       <c r="C238" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D238" t="n">
-        <v>47</v>
-      </c>
-      <c r="E238" t="n">
-        <v>173</v>
-      </c>
-      <c r="F238" t="n">
-        <v>38</v>
-      </c>
-      <c r="G238" t="n">
         <v>24.3910588392529</v>
       </c>
-      <c r="H238" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7116,24 +4968,15 @@
         <v>0</v>
       </c>
       <c r="B239" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C239" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D239" t="n">
-        <v>63</v>
-      </c>
-      <c r="E239" t="n">
-        <v>150</v>
-      </c>
-      <c r="F239" t="n">
-        <v>35</v>
-      </c>
-      <c r="G239" t="n">
         <v>26.66666666666667</v>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7144,24 +4987,15 @@
         <v>1</v>
       </c>
       <c r="B240" t="n">
-        <v>3.3</v>
+        <v>53</v>
       </c>
       <c r="C240" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D240" t="n">
-        <v>53</v>
-      </c>
-      <c r="E240" t="n">
-        <v>162</v>
-      </c>
-      <c r="F240" t="n">
-        <v>37</v>
-      </c>
-      <c r="G240" t="n">
         <v>26.6727632982777</v>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7172,24 +5006,15 @@
         <v>0</v>
       </c>
       <c r="B241" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C241" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D241" t="n">
-        <v>59</v>
-      </c>
-      <c r="E241" t="n">
-        <v>165</v>
-      </c>
-      <c r="F241" t="n">
-        <v>37</v>
-      </c>
-      <c r="G241" t="n">
         <v>28.65013774104683</v>
       </c>
-      <c r="H241" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7200,24 +5025,15 @@
         <v>0</v>
       </c>
       <c r="B242" t="n">
-        <v>0.7</v>
+        <v>40</v>
       </c>
       <c r="C242" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D242" t="n">
-        <v>40</v>
-      </c>
-      <c r="E242" t="n">
-        <v>158</v>
-      </c>
-      <c r="F242" t="n">
-        <v>35</v>
-      </c>
-      <c r="G242" t="n">
         <v>32.44672328152539</v>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7228,24 +5044,15 @@
         <v>1</v>
       </c>
       <c r="B243" t="n">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="C243" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D243" t="n">
-        <v>23</v>
-      </c>
-      <c r="E243" t="n">
-        <v>180</v>
-      </c>
-      <c r="F243" t="n">
-        <v>40</v>
-      </c>
-      <c r="G243" t="n">
         <v>23.14814814814815</v>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7256,24 +5063,15 @@
         <v>1</v>
       </c>
       <c r="B244" t="n">
-        <v>45.3</v>
+        <v>70</v>
       </c>
       <c r="C244" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D244" t="n">
-        <v>70</v>
-      </c>
-      <c r="E244" t="n">
-        <v>180</v>
-      </c>
-      <c r="F244" t="n">
-        <v>40</v>
-      </c>
-      <c r="G244" t="n">
         <v>24.69135802469136</v>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7284,24 +5082,15 @@
         <v>1</v>
       </c>
       <c r="B245" t="n">
-        <v>56.5</v>
+        <v>47</v>
       </c>
       <c r="C245" t="n">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D245" t="n">
-        <v>47</v>
-      </c>
-      <c r="E245" t="n">
-        <v>183</v>
-      </c>
-      <c r="F245" t="n">
-        <v>45</v>
-      </c>
-      <c r="G245" t="n">
         <v>31.05497327480665</v>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7312,24 +5101,15 @@
         <v>1</v>
       </c>
       <c r="B246" t="n">
-        <v>57.1</v>
+        <v>52</v>
       </c>
       <c r="C246" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D246" t="n">
-        <v>52</v>
-      </c>
-      <c r="E246" t="n">
-        <v>171</v>
-      </c>
-      <c r="F246" t="n">
-        <v>41</v>
-      </c>
-      <c r="G246" t="n">
         <v>30.0947300023939</v>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7340,24 +5120,15 @@
         <v>1</v>
       </c>
       <c r="B247" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C247" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D247" t="n">
-        <v>55</v>
-      </c>
-      <c r="E247" t="n">
-        <v>170</v>
-      </c>
-      <c r="F247" t="n">
-        <v>36</v>
-      </c>
-      <c r="G247" t="n">
         <v>25.95155709342561</v>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7368,24 +5139,15 @@
         <v>1</v>
       </c>
       <c r="B248" t="n">
-        <v>34.3</v>
+        <v>75</v>
       </c>
       <c r="C248" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D248" t="n">
-        <v>75</v>
-      </c>
-      <c r="E248" t="n">
-        <v>172</v>
-      </c>
-      <c r="F248" t="n">
-        <v>38</v>
-      </c>
-      <c r="G248" t="n">
         <v>23.66143861546782</v>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7396,24 +5158,15 @@
         <v>1</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C249" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D249" t="n">
-        <v>22</v>
-      </c>
-      <c r="E249" t="n">
-        <v>187</v>
-      </c>
-      <c r="F249" t="n">
-        <v>39</v>
-      </c>
-      <c r="G249" t="n">
         <v>24.87917870113529</v>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7424,24 +5177,15 @@
         <v>0</v>
       </c>
       <c r="B250" t="n">
-        <v>2.8</v>
+        <v>27</v>
       </c>
       <c r="C250" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D250" t="n">
-        <v>27</v>
-      </c>
-      <c r="E250" t="n">
-        <v>165</v>
-      </c>
-      <c r="F250" t="n">
-        <v>38</v>
-      </c>
-      <c r="G250" t="n">
         <v>33.05785123966943</v>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7452,24 +5196,15 @@
         <v>1</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C251" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D251" t="n">
-        <v>36</v>
-      </c>
-      <c r="E251" t="n">
-        <v>164</v>
-      </c>
-      <c r="F251" t="n">
-        <v>36</v>
-      </c>
-      <c r="G251" t="n">
         <v>24.91076740035694</v>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="E251" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7480,24 +5215,15 @@
         <v>0</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C252" t="n">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="D252" t="n">
-        <v>40</v>
-      </c>
-      <c r="E252" t="n">
-        <v>178</v>
-      </c>
-      <c r="F252" t="n">
-        <v>37</v>
-      </c>
-      <c r="G252" t="n">
         <v>30.9304380760005</v>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7508,24 +5234,15 @@
         <v>0</v>
       </c>
       <c r="B253" t="n">
-        <v>33.9</v>
+        <v>56</v>
       </c>
       <c r="C253" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D253" t="n">
-        <v>56</v>
-      </c>
-      <c r="E253" t="n">
-        <v>160</v>
-      </c>
-      <c r="F253" t="n">
-        <v>36</v>
-      </c>
-      <c r="G253" t="n">
         <v>26.953125</v>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="E253" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7536,24 +5253,15 @@
         <v>1</v>
       </c>
       <c r="B254" t="n">
-        <v>31.3</v>
+        <v>35</v>
       </c>
       <c r="C254" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="D254" t="n">
-        <v>35</v>
-      </c>
-      <c r="E254" t="n">
-        <v>177</v>
-      </c>
-      <c r="F254" t="n">
-        <v>44</v>
-      </c>
-      <c r="G254" t="n">
         <v>30.64253566982667</v>
       </c>
-      <c r="H254" t="inlineStr">
+      <c r="E254" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7564,24 +5272,15 @@
         <v>0</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C255" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D255" t="n">
-        <v>44</v>
-      </c>
-      <c r="E255" t="n">
-        <v>171</v>
-      </c>
-      <c r="F255" t="n">
-        <v>36</v>
-      </c>
-      <c r="G255" t="n">
         <v>26.67487432030369</v>
       </c>
-      <c r="H255" t="inlineStr">
+      <c r="E255" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7592,24 +5291,15 @@
         <v>1</v>
       </c>
       <c r="B256" t="n">
-        <v>37.8</v>
+        <v>65</v>
       </c>
       <c r="C256" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D256" t="n">
-        <v>65</v>
-      </c>
-      <c r="E256" t="n">
-        <v>163</v>
-      </c>
-      <c r="F256" t="n">
-        <v>38</v>
-      </c>
-      <c r="G256" t="n">
         <v>28.22838646542964</v>
       </c>
-      <c r="H256" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7620,24 +5310,15 @@
         <v>1</v>
       </c>
       <c r="B257" t="n">
-        <v>35.2</v>
+        <v>58</v>
       </c>
       <c r="C257" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="D257" t="n">
-        <v>58</v>
-      </c>
-      <c r="E257" t="n">
-        <v>169</v>
-      </c>
-      <c r="F257" t="n">
-        <v>47</v>
-      </c>
-      <c r="G257" t="n">
         <v>38.51405763103534</v>
       </c>
-      <c r="H257" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7648,24 +5329,15 @@
         <v>1</v>
       </c>
       <c r="B258" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C258" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D258" t="n">
-        <v>64</v>
-      </c>
-      <c r="E258" t="n">
-        <v>172</v>
-      </c>
-      <c r="F258" t="n">
-        <v>41</v>
-      </c>
-      <c r="G258" t="n">
         <v>30.08382909680909</v>
       </c>
-      <c r="H258" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7676,24 +5348,15 @@
         <v>1</v>
       </c>
       <c r="B259" t="n">
-        <v>42.3</v>
+        <v>49</v>
       </c>
       <c r="C259" t="n">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D259" t="n">
-        <v>49</v>
-      </c>
-      <c r="E259" t="n">
-        <v>175</v>
-      </c>
-      <c r="F259" t="n">
-        <v>39</v>
-      </c>
-      <c r="G259" t="n">
         <v>27.42857142857143</v>
       </c>
-      <c r="H259" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7704,24 +5367,15 @@
         <v>1</v>
       </c>
       <c r="B260" t="n">
-        <v>1.8</v>
+        <v>34</v>
       </c>
       <c r="C260" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D260" t="n">
-        <v>34</v>
-      </c>
-      <c r="E260" t="n">
-        <v>177</v>
-      </c>
-      <c r="F260" t="n">
-        <v>43</v>
-      </c>
-      <c r="G260" t="n">
         <v>27.76979795078043</v>
       </c>
-      <c r="H260" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7732,24 +5386,15 @@
         <v>0</v>
       </c>
       <c r="B261" t="n">
-        <v>31.1</v>
+        <v>58</v>
       </c>
       <c r="C261" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D261" t="n">
-        <v>58</v>
-      </c>
-      <c r="E261" t="n">
-        <v>151</v>
-      </c>
-      <c r="F261" t="n">
-        <v>34</v>
-      </c>
-      <c r="G261" t="n">
         <v>25.87605806762861</v>
       </c>
-      <c r="H261" t="inlineStr">
+      <c r="E261" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7760,24 +5405,15 @@
         <v>0</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C262" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D262" t="n">
-        <v>51</v>
-      </c>
-      <c r="E262" t="n">
-        <v>170</v>
-      </c>
-      <c r="F262" t="n">
-        <v>33</v>
-      </c>
-      <c r="G262" t="n">
         <v>24.22145328719724</v>
       </c>
-      <c r="H262" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7788,24 +5424,15 @@
         <v>1</v>
       </c>
       <c r="B263" t="n">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="C263" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="D263" t="n">
-        <v>35</v>
-      </c>
-      <c r="E263" t="n">
-        <v>184</v>
-      </c>
-      <c r="F263" t="n">
-        <v>50</v>
-      </c>
-      <c r="G263" t="n">
         <v>47.25897920604915</v>
       </c>
-      <c r="H263" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7816,24 +5443,15 @@
         <v>1</v>
       </c>
       <c r="B264" t="n">
-        <v>44.7</v>
+        <v>76</v>
       </c>
       <c r="C264" t="n">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D264" t="n">
-        <v>76</v>
-      </c>
-      <c r="E264" t="n">
-        <v>170</v>
-      </c>
-      <c r="F264" t="n">
-        <v>43</v>
-      </c>
-      <c r="G264" t="n">
         <v>43.25259515570935</v>
       </c>
-      <c r="H264" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7844,24 +5462,15 @@
         <v>1</v>
       </c>
       <c r="B265" t="n">
-        <v>2.8</v>
+        <v>36</v>
       </c>
       <c r="C265" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D265" t="n">
-        <v>36</v>
-      </c>
-      <c r="E265" t="n">
-        <v>183</v>
-      </c>
-      <c r="F265" t="n">
-        <v>42</v>
-      </c>
-      <c r="G265" t="n">
         <v>28.6661291767446</v>
       </c>
-      <c r="H265" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7872,24 +5481,15 @@
         <v>1</v>
       </c>
       <c r="B266" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C266" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D266" t="n">
-        <v>64</v>
-      </c>
-      <c r="E266" t="n">
-        <v>152</v>
-      </c>
-      <c r="F266" t="n">
-        <v>42</v>
-      </c>
-      <c r="G266" t="n">
         <v>32.89473684210526</v>
       </c>
-      <c r="H266" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7900,24 +5500,15 @@
         <v>1</v>
       </c>
       <c r="B267" t="n">
-        <v>2.6</v>
+        <v>32</v>
       </c>
       <c r="C267" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D267" t="n">
-        <v>32</v>
-      </c>
-      <c r="E267" t="n">
-        <v>178</v>
-      </c>
-      <c r="F267" t="n">
-        <v>38</v>
-      </c>
-      <c r="G267" t="n">
         <v>25.24933720489837</v>
       </c>
-      <c r="H267" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -7928,24 +5519,15 @@
         <v>1</v>
       </c>
       <c r="B268" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C268" t="n">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D268" t="n">
-        <v>46</v>
-      </c>
-      <c r="E268" t="n">
-        <v>168</v>
-      </c>
-      <c r="F268" t="n">
-        <v>40</v>
-      </c>
-      <c r="G268" t="n">
         <v>27.63605442176871</v>
       </c>
-      <c r="H268" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7956,24 +5538,15 @@
         <v>1</v>
       </c>
       <c r="B269" t="n">
-        <v>33.1</v>
+        <v>63</v>
       </c>
       <c r="C269" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D269" t="n">
-        <v>63</v>
-      </c>
-      <c r="E269" t="n">
-        <v>175</v>
-      </c>
-      <c r="F269" t="n">
-        <v>45</v>
-      </c>
-      <c r="G269" t="n">
         <v>27.75510204081633</v>
       </c>
-      <c r="H269" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -7984,24 +5557,15 @@
         <v>0</v>
       </c>
       <c r="B270" t="n">
-        <v>2.7</v>
+        <v>27</v>
       </c>
       <c r="C270" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D270" t="n">
-        <v>27</v>
-      </c>
-      <c r="E270" t="n">
-        <v>163</v>
-      </c>
-      <c r="F270" t="n">
-        <v>34</v>
-      </c>
-      <c r="G270" t="n">
         <v>23.33546614475517</v>
       </c>
-      <c r="H270" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8012,24 +5576,15 @@
         <v>0</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C271" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D271" t="n">
-        <v>54</v>
-      </c>
-      <c r="E271" t="n">
-        <v>150</v>
-      </c>
-      <c r="F271" t="n">
-        <v>35</v>
-      </c>
-      <c r="G271" t="n">
         <v>28.44444444444444</v>
       </c>
-      <c r="H271" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8040,24 +5595,15 @@
         <v>1</v>
       </c>
       <c r="B272" t="n">
-        <v>84.3</v>
+        <v>49</v>
       </c>
       <c r="C272" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D272" t="n">
-        <v>49</v>
-      </c>
-      <c r="E272" t="n">
-        <v>171</v>
-      </c>
-      <c r="F272" t="n">
-        <v>45</v>
-      </c>
-      <c r="G272" t="n">
         <v>32.83061454806607</v>
       </c>
-      <c r="H272" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8068,24 +5614,15 @@
         <v>1</v>
       </c>
       <c r="B273" t="n">
-        <v>4.9</v>
+        <v>49</v>
       </c>
       <c r="C273" t="n">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D273" t="n">
-        <v>49</v>
-      </c>
-      <c r="E273" t="n">
-        <v>184</v>
-      </c>
-      <c r="F273" t="n">
-        <v>43</v>
-      </c>
-      <c r="G273" t="n">
         <v>30.42296786389414</v>
       </c>
-      <c r="H273" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8096,24 +5633,15 @@
         <v>0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4</v>
+        <v>59</v>
       </c>
       <c r="C274" t="n">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D274" t="n">
-        <v>59</v>
-      </c>
-      <c r="E274" t="n">
-        <v>150</v>
-      </c>
-      <c r="F274" t="n">
-        <v>40</v>
-      </c>
-      <c r="G274" t="n">
         <v>34.66666666666666</v>
       </c>
-      <c r="H274" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8124,24 +5652,15 @@
         <v>1</v>
       </c>
       <c r="B275" t="n">
-        <v>45.7</v>
+        <v>67</v>
       </c>
       <c r="C275" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="D275" t="n">
-        <v>67</v>
-      </c>
-      <c r="E275" t="n">
-        <v>179</v>
-      </c>
-      <c r="F275" t="n">
-        <v>43</v>
-      </c>
-      <c r="G275" t="n">
         <v>28.08901095471427</v>
       </c>
-      <c r="H275" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8152,24 +5671,15 @@
         <v>1</v>
       </c>
       <c r="B276" t="n">
-        <v>2.1</v>
+        <v>49</v>
       </c>
       <c r="C276" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D276" t="n">
-        <v>49</v>
-      </c>
-      <c r="E276" t="n">
-        <v>169</v>
-      </c>
-      <c r="F276" t="n">
-        <v>37</v>
-      </c>
-      <c r="G276" t="n">
         <v>21.7079233920381</v>
       </c>
-      <c r="H276" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8180,24 +5690,15 @@
         <v>1</v>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C277" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D277" t="n">
-        <v>64</v>
-      </c>
-      <c r="E277" t="n">
-        <v>170</v>
-      </c>
-      <c r="F277" t="n">
-        <v>41</v>
-      </c>
-      <c r="G277" t="n">
         <v>23.18339100346021</v>
       </c>
-      <c r="H277" t="inlineStr">
+      <c r="E277" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8211,21 +5712,12 @@
         <v>45</v>
       </c>
       <c r="C278" t="n">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D278" t="n">
-        <v>45</v>
-      </c>
-      <c r="E278" t="n">
-        <v>170</v>
-      </c>
-      <c r="F278" t="n">
-        <v>41</v>
-      </c>
-      <c r="G278" t="n">
         <v>29.06574394463668</v>
       </c>
-      <c r="H278" t="inlineStr">
+      <c r="E278" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8236,24 +5728,15 @@
         <v>1</v>
       </c>
       <c r="B279" t="n">
-        <v>3.8</v>
+        <v>43</v>
       </c>
       <c r="C279" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D279" t="n">
-        <v>43</v>
-      </c>
-      <c r="E279" t="n">
-        <v>188</v>
-      </c>
-      <c r="F279" t="n">
-        <v>37</v>
-      </c>
-      <c r="G279" t="n">
         <v>23.20054323223178</v>
       </c>
-      <c r="H279" t="inlineStr">
+      <c r="E279" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8264,24 +5747,15 @@
         <v>1</v>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C280" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D280" t="n">
-        <v>66</v>
-      </c>
-      <c r="E280" t="n">
-        <v>180</v>
-      </c>
-      <c r="F280" t="n">
-        <v>42</v>
-      </c>
-      <c r="G280" t="n">
         <v>26.54320987654321</v>
       </c>
-      <c r="H280" t="inlineStr">
+      <c r="E280" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8292,24 +5766,15 @@
         <v>0</v>
       </c>
       <c r="B281" t="n">
-        <v>1.3</v>
+        <v>49.50370370370371</v>
       </c>
       <c r="C281" t="n">
-        <v>87.79703703703704</v>
+        <v>40.6177347242921</v>
       </c>
       <c r="D281" t="n">
-        <v>49.50370370370371</v>
-      </c>
-      <c r="E281" t="n">
-        <v>171.3994082840237</v>
-      </c>
-      <c r="F281" t="n">
-        <v>40.6177347242921</v>
-      </c>
-      <c r="G281" t="n">
         <v>29.88554795334758</v>
       </c>
-      <c r="H281" t="inlineStr">
+      <c r="E281" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8320,24 +5785,15 @@
         <v>1</v>
       </c>
       <c r="B282" t="n">
-        <v>52.6</v>
+        <v>48</v>
       </c>
       <c r="C282" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D282" t="n">
-        <v>48</v>
-      </c>
-      <c r="E282" t="n">
-        <v>193</v>
-      </c>
-      <c r="F282" t="n">
-        <v>46</v>
-      </c>
-      <c r="G282" t="n">
         <v>32.21562994979731</v>
       </c>
-      <c r="H282" t="inlineStr">
+      <c r="E282" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8348,24 +5804,15 @@
         <v>1</v>
       </c>
       <c r="B283" t="n">
-        <v>64.3</v>
+        <v>55</v>
       </c>
       <c r="C283" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="D283" t="n">
-        <v>55</v>
-      </c>
-      <c r="E283" t="n">
-        <v>174</v>
-      </c>
-      <c r="F283" t="n">
-        <v>46</v>
-      </c>
-      <c r="G283" t="n">
         <v>32.03857841194345</v>
       </c>
-      <c r="H283" t="inlineStr">
+      <c r="E283" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8376,24 +5823,15 @@
         <v>0</v>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>49.50370370370371</v>
       </c>
       <c r="C284" t="n">
-        <v>87.79703703703704</v>
+        <v>40.6177347242921</v>
       </c>
       <c r="D284" t="n">
-        <v>49.50370370370371</v>
-      </c>
-      <c r="E284" t="n">
-        <v>171.3994082840237</v>
-      </c>
-      <c r="F284" t="n">
-        <v>40.6177347242921</v>
-      </c>
-      <c r="G284" t="n">
         <v>29.88554795334758</v>
       </c>
-      <c r="H284" t="inlineStr">
+      <c r="E284" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8404,24 +5842,15 @@
         <v>0</v>
       </c>
       <c r="B285" t="n">
-        <v>4.8</v>
+        <v>54</v>
       </c>
       <c r="C285" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D285" t="n">
-        <v>54</v>
-      </c>
-      <c r="E285" t="n">
-        <v>148</v>
-      </c>
-      <c r="F285" t="n">
-        <v>38</v>
-      </c>
-      <c r="G285" t="n">
         <v>28.30533235938642</v>
       </c>
-      <c r="H285" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8432,24 +5861,15 @@
         <v>1</v>
       </c>
       <c r="B286" t="n">
-        <v>41.5</v>
+        <v>44</v>
       </c>
       <c r="C286" t="n">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D286" t="n">
-        <v>44</v>
-      </c>
-      <c r="E286" t="n">
-        <v>180</v>
-      </c>
-      <c r="F286" t="n">
-        <v>44</v>
-      </c>
-      <c r="G286" t="n">
         <v>34.87654320987654</v>
       </c>
-      <c r="H286" t="inlineStr">
+      <c r="E286" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8460,24 +5880,15 @@
         <v>1</v>
       </c>
       <c r="B287" t="n">
-        <v>2.7</v>
+        <v>33</v>
       </c>
       <c r="C287" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D287" t="n">
-        <v>33</v>
-      </c>
-      <c r="E287" t="n">
-        <v>180</v>
-      </c>
-      <c r="F287" t="n">
-        <v>40</v>
-      </c>
-      <c r="G287" t="n">
         <v>26.23456790123457</v>
       </c>
-      <c r="H287" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8488,24 +5899,15 @@
         <v>0</v>
       </c>
       <c r="B288" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C288" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D288" t="n">
-        <v>64</v>
-      </c>
-      <c r="E288" t="n">
-        <v>168</v>
-      </c>
-      <c r="F288" t="n">
-        <v>35</v>
-      </c>
-      <c r="G288" t="n">
         <v>24.8015873015873</v>
       </c>
-      <c r="H288" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8516,24 +5918,15 @@
         <v>0</v>
       </c>
       <c r="B289" t="n">
-        <v>108.6</v>
+        <v>35</v>
       </c>
       <c r="C289" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D289" t="n">
-        <v>35</v>
-      </c>
-      <c r="E289" t="n">
-        <v>163</v>
-      </c>
-      <c r="F289" t="n">
-        <v>44</v>
-      </c>
-      <c r="G289" t="n">
         <v>35.75595618954421</v>
       </c>
-      <c r="H289" t="inlineStr">
+      <c r="E289" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8544,24 +5937,15 @@
         <v>0</v>
       </c>
       <c r="B290" t="n">
-        <v>4.6</v>
+        <v>25</v>
       </c>
       <c r="C290" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D290" t="n">
-        <v>25</v>
-      </c>
-      <c r="E290" t="n">
-        <v>173</v>
-      </c>
-      <c r="F290" t="n">
-        <v>40</v>
-      </c>
-      <c r="G290" t="n">
         <v>35.08302983728156</v>
       </c>
-      <c r="H290" t="inlineStr">
+      <c r="E290" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8572,24 +5956,15 @@
         <v>1</v>
       </c>
       <c r="B291" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C291" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D291" t="n">
-        <v>57</v>
-      </c>
-      <c r="E291" t="n">
-        <v>179</v>
-      </c>
-      <c r="F291" t="n">
-        <v>42</v>
-      </c>
-      <c r="G291" t="n">
         <v>28.08901095471427</v>
       </c>
-      <c r="H291" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8600,24 +5975,15 @@
         <v>0</v>
       </c>
       <c r="B292" t="n">
-        <v>4.7</v>
+        <v>49</v>
       </c>
       <c r="C292" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D292" t="n">
-        <v>49</v>
-      </c>
-      <c r="E292" t="n">
-        <v>169</v>
-      </c>
-      <c r="F292" t="n">
-        <v>34</v>
-      </c>
-      <c r="G292" t="n">
         <v>25.55932915514163</v>
       </c>
-      <c r="H292" t="inlineStr">
+      <c r="E292" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -8628,24 +5994,15 @@
         <v>0</v>
       </c>
       <c r="B293" t="n">
-        <v>36.3</v>
+        <v>64</v>
       </c>
       <c r="C293" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D293" t="n">
-        <v>64</v>
-      </c>
-      <c r="E293" t="n">
-        <v>165</v>
-      </c>
-      <c r="F293" t="n">
-        <v>39</v>
-      </c>
-      <c r="G293" t="n">
         <v>30.11937557392103</v>
       </c>
-      <c r="H293" t="inlineStr">
+      <c r="E293" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8656,24 +6013,15 @@
         <v>1</v>
       </c>
       <c r="B294" t="n">
-        <v>52.2</v>
+        <v>50</v>
       </c>
       <c r="C294" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D294" t="n">
-        <v>50</v>
-      </c>
-      <c r="E294" t="n">
-        <v>180</v>
-      </c>
-      <c r="F294" t="n">
-        <v>42</v>
-      </c>
-      <c r="G294" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="H294" t="inlineStr">
+      <c r="E294" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -8684,24 +6032,15 @@
         <v>0</v>
       </c>
       <c r="B295" t="n">
-        <v>31.9</v>
+        <v>60</v>
       </c>
       <c r="C295" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D295" t="n">
-        <v>60</v>
-      </c>
-      <c r="E295" t="n">
-        <v>163</v>
-      </c>
-      <c r="F295" t="n">
-        <v>35</v>
-      </c>
-      <c r="G295" t="n">
         <v>26.34649403440099</v>
       </c>
-      <c r="H295" t="inlineStr">
+      <c r="E295" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>

--- a/OSA_CaseStudy/DATA/OSA_DB_class.xlsx
+++ b/OSA_CaseStudy/DATA/OSA_DB_class.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Cervical</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>BMI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>OSA</t>
         </is>
@@ -465,15 +475,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
+        <v>82</v>
+      </c>
+      <c r="C2" t="n">
         <v>39</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>168</v>
+      </c>
+      <c r="E2" t="n">
         <v>40.6177347242921</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>29.05328798185942</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -484,15 +500,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>87.79703703703704</v>
+      </c>
+      <c r="C3" t="n">
         <v>46</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
+        <v>171.3994082840237</v>
+      </c>
+      <c r="E3" t="n">
         <v>43</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>29.88554795334758</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -503,15 +525,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
+        <v>109</v>
+      </c>
+      <c r="C4" t="n">
         <v>32</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>190</v>
+      </c>
+      <c r="E4" t="n">
         <v>42</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>30.19390581717452</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -522,15 +550,21 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
+        <v>86</v>
+      </c>
+      <c r="C5" t="n">
         <v>39</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
+        <v>169</v>
+      </c>
+      <c r="E5" t="n">
         <v>42</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>30.11099051153672</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -541,15 +575,21 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
+        <v>145</v>
+      </c>
+      <c r="C6" t="n">
         <v>47</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
+        <v>172</v>
+      </c>
+      <c r="E6" t="n">
         <v>44</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>49.01297998918335</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -560,15 +600,21 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
+        <v>90</v>
+      </c>
+      <c r="C7" t="n">
         <v>36</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
+        <v>180</v>
+      </c>
+      <c r="E7" t="n">
         <v>40</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -576,18 +622,24 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
-        <v>22.60026298487837</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>171</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30.43671557060292</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -598,55 +650,73 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>30.43671557060292</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>177</v>
+      </c>
+      <c r="E9" t="n">
+        <v>46</v>
+      </c>
+      <c r="F9" t="n">
+        <v>36.06881802802515</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" t="n">
+        <v>53</v>
+      </c>
+      <c r="D10" t="n">
+        <v>162</v>
+      </c>
+      <c r="E10" t="n">
         <v>33</v>
       </c>
-      <c r="C10" t="n">
-        <v>46</v>
-      </c>
-      <c r="D10" t="n">
-        <v>36.06881802802515</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Severe</t>
+      <c r="F10" t="n">
+        <v>22.86236854138088</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D11" t="n">
-        <v>22.86236854138088</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>170</v>
+      </c>
+      <c r="E11" t="n">
+        <v>46</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37.0242214532872</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -655,17 +725,23 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
-        <v>37.0242214532872</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>174</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.12062359624785</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -674,17 +750,23 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
-        <v>23.12062359624785</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>180</v>
+      </c>
+      <c r="E13" t="n">
+        <v>48</v>
+      </c>
+      <c r="F13" t="n">
+        <v>30.8641975308642</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -693,15 +775,21 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D14" t="n">
-        <v>30.8641975308642</v>
-      </c>
-      <c r="E14" t="inlineStr">
+        <v>185</v>
+      </c>
+      <c r="E14" t="n">
+        <v>47</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30.67932797662527</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -712,15 +800,21 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C15" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>30.67932797662527</v>
-      </c>
-      <c r="E15" t="inlineStr">
+        <v>182</v>
+      </c>
+      <c r="E15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F15" t="n">
+        <v>33.20854969206617</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -731,15 +825,21 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C16" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D16" t="n">
-        <v>33.20854969206617</v>
-      </c>
-      <c r="E16" t="inlineStr">
+        <v>182</v>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34.71802922352373</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -750,15 +850,21 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>34.71802922352373</v>
-      </c>
-      <c r="E17" t="inlineStr">
+        <v>168</v>
+      </c>
+      <c r="E17" t="n">
+        <v>43</v>
+      </c>
+      <c r="F17" t="n">
+        <v>31.88775510204082</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -766,39 +872,51 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C18" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>31.88775510204082</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>171</v>
+      </c>
+      <c r="E18" t="n">
+        <v>37</v>
+      </c>
+      <c r="F18" t="n">
+        <v>24.62296091104956</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C19" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D19" t="n">
-        <v>24.62296091104956</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>175</v>
+      </c>
+      <c r="E19" t="n">
+        <v>42</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30.36734693877551</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -807,15 +925,21 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C20" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>30.36734693877551</v>
-      </c>
-      <c r="E20" t="inlineStr">
+        <v>179</v>
+      </c>
+      <c r="E20" t="n">
+        <v>44</v>
+      </c>
+      <c r="F20" t="n">
+        <v>34.33101338909523</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -826,15 +950,21 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D21" t="n">
-        <v>34.33101338909523</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="E21" t="n">
+        <v>47</v>
+      </c>
+      <c r="F21" t="n">
+        <v>41.76551171104948</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -845,15 +975,21 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D22" t="n">
-        <v>41.76551171104948</v>
-      </c>
-      <c r="E22" t="inlineStr">
+        <v>175</v>
+      </c>
+      <c r="E22" t="n">
+        <v>39</v>
+      </c>
+      <c r="F22" t="n">
+        <v>23.51020408163265</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -861,39 +997,51 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C23" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>23.51020408163265</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>156</v>
+      </c>
+      <c r="E23" t="n">
+        <v>42</v>
+      </c>
+      <c r="F23" t="n">
+        <v>27.94214332675871</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C24" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D24" t="n">
-        <v>27.94214332675871</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>168</v>
+      </c>
+      <c r="E24" t="n">
+        <v>36</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23.73866213151928</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -902,17 +1050,23 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D25" t="n">
-        <v>23.73866213151928</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>187</v>
+      </c>
+      <c r="E25" t="n">
+        <v>41</v>
+      </c>
+      <c r="F25" t="n">
+        <v>25.73708141496754</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -921,34 +1075,46 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C26" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D26" t="n">
-        <v>25.73708141496754</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>172</v>
+      </c>
+      <c r="E26" t="n">
+        <v>42</v>
+      </c>
+      <c r="F26" t="n">
+        <v>33.80205516495403</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C27" t="n">
+        <v>61</v>
+      </c>
+      <c r="D27" t="n">
+        <v>168</v>
+      </c>
+      <c r="E27" t="n">
         <v>42</v>
       </c>
-      <c r="D27" t="n">
-        <v>33.80205516495403</v>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>34.36791383219956</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -956,18 +1122,24 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C28" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D28" t="n">
-        <v>34.36791383219956</v>
-      </c>
-      <c r="E28" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="E28" t="n">
+        <v>43</v>
+      </c>
+      <c r="F28" t="n">
+        <v>25.88057063502083</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -978,15 +1150,21 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C29" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>25.88057063502083</v>
-      </c>
-      <c r="E29" t="inlineStr">
+        <v>175</v>
+      </c>
+      <c r="E29" t="n">
+        <v>38</v>
+      </c>
+      <c r="F29" t="n">
+        <v>24.16326530612245</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -997,15 +1175,21 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C30" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D30" t="n">
-        <v>24.16326530612245</v>
-      </c>
-      <c r="E30" t="inlineStr">
+        <v>175</v>
+      </c>
+      <c r="E30" t="n">
+        <v>44</v>
+      </c>
+      <c r="F30" t="n">
+        <v>32</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1016,15 +1200,21 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C31" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
-      </c>
-      <c r="E31" t="inlineStr">
+        <v>175</v>
+      </c>
+      <c r="E31" t="n">
+        <v>37</v>
+      </c>
+      <c r="F31" t="n">
+        <v>25.46938775510204</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1035,17 +1225,23 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C32" t="n">
         <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>25.46938775510204</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>179</v>
+      </c>
+      <c r="E32" t="n">
+        <v>38</v>
+      </c>
+      <c r="F32" t="n">
+        <v>23.40750912892856</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -1054,17 +1250,23 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C33" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D33" t="n">
-        <v>23.40750912892856</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>168</v>
+      </c>
+      <c r="E33" t="n">
+        <v>45</v>
+      </c>
+      <c r="F33" t="n">
+        <v>31.88775510204082</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1073,15 +1275,21 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C34" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D34" t="n">
-        <v>26.25958474843318</v>
-      </c>
-      <c r="E34" t="inlineStr">
+        <v>180</v>
+      </c>
+      <c r="E34" t="n">
+        <v>41</v>
+      </c>
+      <c r="F34" t="n">
+        <v>23.14814814814815</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1092,17 +1300,23 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C35" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35" t="n">
-        <v>31.88775510204082</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>188</v>
+      </c>
+      <c r="E35" t="n">
+        <v>42</v>
+      </c>
+      <c r="F35" t="n">
+        <v>26.02987777274785</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -1111,17 +1325,23 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C36" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D36" t="n">
-        <v>23.14814814814815</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>174</v>
+      </c>
+      <c r="E36" t="n">
+        <v>47</v>
+      </c>
+      <c r="F36" t="n">
+        <v>28.73563218390805</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1130,55 +1350,73 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D37" t="n">
-        <v>26.02987777274785</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>187</v>
+      </c>
+      <c r="E37" t="n">
+        <v>47</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30.0265949841288</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C38" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D38" t="n">
-        <v>30.0265949841288</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>164</v>
+      </c>
+      <c r="E38" t="n">
+        <v>38</v>
+      </c>
+      <c r="F38" t="n">
+        <v>29.74419988102321</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
+        <v>106</v>
+      </c>
+      <c r="C39" t="n">
         <v>51</v>
       </c>
-      <c r="C39" t="n">
-        <v>38</v>
-      </c>
       <c r="D39" t="n">
-        <v>29.74419988102321</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>174</v>
+      </c>
+      <c r="E39" t="n">
+        <v>48</v>
+      </c>
+      <c r="F39" t="n">
+        <v>35.01123001717532</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1187,15 +1425,21 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C40" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
-        <v>35.01123001717532</v>
-      </c>
-      <c r="E40" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E40" t="n">
+        <v>42</v>
+      </c>
+      <c r="F40" t="n">
+        <v>29.75778546712803</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1206,34 +1450,46 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C41" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
-        <v>29.75778546712803</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>191</v>
+      </c>
+      <c r="E41" t="n">
+        <v>46</v>
+      </c>
+      <c r="F41" t="n">
+        <v>30.15268221814095</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C42" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D42" t="n">
-        <v>30.15268221814095</v>
-      </c>
-      <c r="E42" t="inlineStr">
+        <v>158</v>
+      </c>
+      <c r="E42" t="n">
+        <v>35</v>
+      </c>
+      <c r="F42" t="n">
+        <v>29.64268546707258</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1241,18 +1497,24 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D43" t="n">
-        <v>29.64268546707258</v>
-      </c>
-      <c r="E43" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E43" t="n">
+        <v>44</v>
+      </c>
+      <c r="F43" t="n">
+        <v>29.75778546712803</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1263,17 +1525,23 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C44" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D44" t="n">
-        <v>29.75778546712803</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>178</v>
+      </c>
+      <c r="E44" t="n">
+        <v>41</v>
+      </c>
+      <c r="F44" t="n">
+        <v>29.98358793081681</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1282,17 +1550,23 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C45" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D45" t="n">
-        <v>29.98358793081681</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>170</v>
+      </c>
+      <c r="E45" t="n">
+        <v>44</v>
+      </c>
+      <c r="F45" t="n">
+        <v>30.10380622837371</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1575,23 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C46" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D46" t="n">
-        <v>30.10380622837371</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>159</v>
+      </c>
+      <c r="E46" t="n">
+        <v>42</v>
+      </c>
+      <c r="F46" t="n">
+        <v>30.85320992049365</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1320,15 +1600,21 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
+        <v>80</v>
+      </c>
+      <c r="C47" t="n">
         <v>56</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
+        <v>170</v>
+      </c>
+      <c r="E47" t="n">
         <v>45</v>
       </c>
-      <c r="D47" t="n">
+      <c r="F47" t="n">
         <v>27.68166089965398</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1339,15 +1625,21 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="C48" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D48" t="n">
-        <v>24.5089457652043</v>
-      </c>
-      <c r="E48" t="inlineStr">
+        <v>163</v>
+      </c>
+      <c r="E48" t="n">
+        <v>46</v>
+      </c>
+      <c r="F48" t="n">
+        <v>38.01422710677858</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1358,17 +1650,23 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C49" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D49" t="n">
-        <v>38.01422710677858</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>180</v>
+      </c>
+      <c r="E49" t="n">
+        <v>52</v>
+      </c>
+      <c r="F49" t="n">
+        <v>37.03703703703704</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1377,17 +1675,23 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C50" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D50" t="n">
-        <v>37.03703703703704</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>184</v>
+      </c>
+      <c r="E50" t="n">
+        <v>40</v>
+      </c>
+      <c r="F50" t="n">
+        <v>25.40170132325142</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1700,23 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D51" t="n">
-        <v>25.40170132325142</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>182</v>
+      </c>
+      <c r="E51" t="n">
+        <v>53</v>
+      </c>
+      <c r="F51" t="n">
+        <v>42.2654268808115</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1415,36 +1725,48 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="C52" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D52" t="n">
-        <v>33.02946228035407</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>180</v>
+      </c>
+      <c r="E52" t="n">
+        <v>52</v>
+      </c>
+      <c r="F52" t="n">
+        <v>49.69135802469135</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C53" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>42.2654268808115</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>170</v>
+      </c>
+      <c r="E53" t="n">
+        <v>33</v>
+      </c>
+      <c r="F53" t="n">
+        <v>22.49134948096886</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -1453,15 +1775,21 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C54" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>49.69135802469135</v>
-      </c>
-      <c r="E54" t="inlineStr">
+        <v>177</v>
+      </c>
+      <c r="E54" t="n">
+        <v>42</v>
+      </c>
+      <c r="F54" t="n">
+        <v>29.04657027035654</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1469,18 +1797,24 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C55" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D55" t="n">
-        <v>22.49134948096886</v>
-      </c>
-      <c r="E55" t="inlineStr">
+        <v>187</v>
+      </c>
+      <c r="E55" t="n">
+        <v>41</v>
+      </c>
+      <c r="F55" t="n">
+        <v>22.87740570219337</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1488,20 +1822,26 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C56" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>29.04657027035654</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>165</v>
+      </c>
+      <c r="E56" t="n">
+        <v>35</v>
+      </c>
+      <c r="F56" t="n">
+        <v>30.48668503213958</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -1510,15 +1850,21 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C57" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D57" t="n">
-        <v>22.87740570219337</v>
-      </c>
-      <c r="E57" t="inlineStr">
+        <v>166</v>
+      </c>
+      <c r="E57" t="n">
+        <v>40</v>
+      </c>
+      <c r="F57" t="n">
+        <v>31.20917404557991</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1526,20 +1872,26 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C58" t="n">
         <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>30.48668503213958</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>176</v>
+      </c>
+      <c r="E58" t="n">
+        <v>47</v>
+      </c>
+      <c r="F58" t="n">
+        <v>35.51136363636364</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1548,17 +1900,23 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>31.20917404557991</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>165</v>
+      </c>
+      <c r="E59" t="n">
+        <v>41</v>
+      </c>
+      <c r="F59" t="n">
+        <v>27.18089990817264</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1567,55 +1925,73 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C60" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D60" t="n">
-        <v>35.51136363636364</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>176</v>
+      </c>
+      <c r="E60" t="n">
+        <v>40</v>
+      </c>
+      <c r="F60" t="n">
+        <v>26.79493801652893</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
+        <v>94</v>
+      </c>
+      <c r="C61" t="n">
         <v>38</v>
       </c>
-      <c r="C61" t="n">
-        <v>40</v>
-      </c>
       <c r="D61" t="n">
-        <v>26.79493801652893</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>156</v>
+      </c>
+      <c r="E61" t="n">
+        <v>39</v>
+      </c>
+      <c r="F61" t="n">
+        <v>38.62590401051939</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="C62" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>38.62590401051939</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>180</v>
+      </c>
+      <c r="E62" t="n">
+        <v>43</v>
+      </c>
+      <c r="F62" t="n">
+        <v>32.4074074074074</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -1624,15 +2000,21 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C63" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
-        <v>32.4074074074074</v>
-      </c>
-      <c r="E63" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="E63" t="n">
+        <v>42</v>
+      </c>
+      <c r="F63" t="n">
+        <v>31.21748178980229</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1643,15 +2025,21 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C64" t="n">
+        <v>37</v>
+      </c>
+      <c r="D64" t="n">
+        <v>183</v>
+      </c>
+      <c r="E64" t="n">
         <v>42</v>
       </c>
-      <c r="D64" t="n">
-        <v>31.21748178980229</v>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="n">
+        <v>26.27728507868255</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1659,56 +2047,74 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C65" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D65" t="n">
-        <v>26.27728507868255</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>153</v>
+      </c>
+      <c r="E65" t="n">
+        <v>35</v>
+      </c>
+      <c r="F65" t="n">
+        <v>30.75740099961553</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D66" t="n">
-        <v>30.75740099961553</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>174</v>
+      </c>
+      <c r="E66" t="n">
+        <v>42</v>
+      </c>
+      <c r="F66" t="n">
+        <v>31.37798916633637</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C67" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
-        <v>31.37798916633637</v>
-      </c>
-      <c r="E67" t="inlineStr">
+        <v>163</v>
+      </c>
+      <c r="E67" t="n">
+        <v>35</v>
+      </c>
+      <c r="F67" t="n">
+        <v>24.08822311716662</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1719,34 +2125,46 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D68" t="n">
-        <v>24.08822311716662</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>153</v>
+      </c>
+      <c r="E68" t="n">
+        <v>37</v>
+      </c>
+      <c r="F68" t="n">
+        <v>38.44675124951942</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="C69" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D69" t="n">
-        <v>38.44675124951942</v>
-      </c>
-      <c r="E69" t="inlineStr">
+        <v>176</v>
+      </c>
+      <c r="E69" t="n">
+        <v>47</v>
+      </c>
+      <c r="F69" t="n">
+        <v>52.29855371900827</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1757,15 +2175,21 @@
         <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C70" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>52.29855371900827</v>
-      </c>
-      <c r="E70" t="inlineStr">
+        <v>185</v>
+      </c>
+      <c r="E70" t="n">
+        <v>44</v>
+      </c>
+      <c r="F70" t="n">
+        <v>27.75748721694668</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -1776,17 +2200,23 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>27.75748721694668</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>168</v>
+      </c>
+      <c r="E71" t="n">
+        <v>35</v>
+      </c>
+      <c r="F71" t="n">
+        <v>24.8015873015873</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -1795,17 +2225,23 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D72" t="n">
-        <v>24.8015873015873</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>170</v>
+      </c>
+      <c r="E72" t="n">
+        <v>42</v>
+      </c>
+      <c r="F72" t="n">
+        <v>29.06574394463668</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1814,17 +2250,23 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C73" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D73" t="n">
-        <v>29.06574394463668</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>162</v>
+      </c>
+      <c r="E73" t="n">
+        <v>44</v>
+      </c>
+      <c r="F73" t="n">
+        <v>35.43667123914037</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -1833,15 +2275,21 @@
         <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C74" t="n">
+        <v>43</v>
+      </c>
+      <c r="D74" t="n">
+        <v>174</v>
+      </c>
+      <c r="E74" t="n">
         <v>44</v>
       </c>
-      <c r="D74" t="n">
-        <v>35.43667123914037</v>
-      </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="n">
+        <v>33.35975690315762</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1849,18 +2297,24 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C75" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D75" t="n">
-        <v>33.35975690315762</v>
-      </c>
-      <c r="E75" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E75" t="n">
+        <v>37</v>
+      </c>
+      <c r="F75" t="n">
+        <v>34.94809688581315</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1868,18 +2322,24 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="C76" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
-        <v>34.94809688581315</v>
-      </c>
-      <c r="E76" t="inlineStr">
+        <v>184</v>
+      </c>
+      <c r="E76" t="n">
+        <v>44</v>
+      </c>
+      <c r="F76" t="n">
+        <v>32.7859168241966</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1890,15 +2350,21 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C77" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D77" t="n">
-        <v>32.7859168241966</v>
-      </c>
-      <c r="E77" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="E77" t="n">
+        <v>38</v>
+      </c>
+      <c r="F77" t="n">
+        <v>25.24933720489837</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1906,18 +2372,24 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C78" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D78" t="n">
-        <v>25.24933720489837</v>
-      </c>
-      <c r="E78" t="inlineStr">
+        <v>156</v>
+      </c>
+      <c r="E78" t="n">
+        <v>36</v>
+      </c>
+      <c r="F78" t="n">
+        <v>28.76397107166338</v>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -1925,58 +2397,76 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C79" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>28.76397107166338</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>175</v>
+      </c>
+      <c r="E79" t="n">
+        <v>44</v>
+      </c>
+      <c r="F79" t="n">
+        <v>35.91836734693877</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C80" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D80" t="n">
-        <v>35.91836734693877</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>164</v>
+      </c>
+      <c r="E80" t="n">
+        <v>40</v>
+      </c>
+      <c r="F80" t="n">
+        <v>37.55205234979179</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C81" t="n">
-        <v>40</v>
+        <v>49.50370370370371</v>
       </c>
       <c r="D81" t="n">
-        <v>37.55205234979179</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>184</v>
+      </c>
+      <c r="E81" t="n">
+        <v>40.6177347242921</v>
+      </c>
+      <c r="F81" t="n">
+        <v>31.30907372400756</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -1985,15 +2475,21 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>49.50370370370371</v>
+        <v>118</v>
       </c>
       <c r="C82" t="n">
-        <v>40.6177347242921</v>
+        <v>33</v>
       </c>
       <c r="D82" t="n">
-        <v>31.30907372400756</v>
-      </c>
-      <c r="E82" t="inlineStr">
+        <v>181</v>
+      </c>
+      <c r="E82" t="n">
+        <v>44</v>
+      </c>
+      <c r="F82" t="n">
+        <v>36.01843655566069</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2004,15 +2500,21 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C83" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D83" t="n">
-        <v>36.01843655566069</v>
-      </c>
-      <c r="E83" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="E83" t="n">
+        <v>46</v>
+      </c>
+      <c r="F83" t="n">
+        <v>31.24605479106173</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2023,15 +2525,21 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
+        <v>130</v>
+      </c>
+      <c r="C84" t="n">
         <v>52</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
+        <v>182</v>
+      </c>
+      <c r="E84" t="n">
         <v>47</v>
       </c>
-      <c r="D84" t="n">
+      <c r="F84" t="n">
         <v>39.24646781789639</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2042,15 +2550,21 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
+        <v>78</v>
+      </c>
+      <c r="C85" t="n">
         <v>53</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
+        <v>165</v>
+      </c>
+      <c r="E85" t="n">
         <v>41</v>
       </c>
-      <c r="D85" t="n">
+      <c r="F85" t="n">
         <v>28.65013774104683</v>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2061,15 +2575,21 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C86" t="n">
         <v>35</v>
       </c>
       <c r="D86" t="n">
+        <v>167</v>
+      </c>
+      <c r="E86" t="n">
+        <v>35</v>
+      </c>
+      <c r="F86" t="n">
         <v>21.15529420201513</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2077,20 +2597,26 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C87" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D87" t="n">
-        <v>28.40550435551067</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>152</v>
+      </c>
+      <c r="E87" t="n">
+        <v>43</v>
+      </c>
+      <c r="F87" t="n">
+        <v>38.52146814404432</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -2099,15 +2625,21 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C88" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D88" t="n">
-        <v>27.08415906989034</v>
-      </c>
-      <c r="E88" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="E88" t="n">
+        <v>41</v>
+      </c>
+      <c r="F88" t="n">
+        <v>28.40550435551067</v>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2118,15 +2650,21 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D89" t="n">
-        <v>31.20917404557991</v>
-      </c>
-      <c r="E89" t="inlineStr">
+        <v>174</v>
+      </c>
+      <c r="E89" t="n">
+        <v>37</v>
+      </c>
+      <c r="F89" t="n">
+        <v>27.08415906989034</v>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2134,18 +2672,24 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C90" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D90" t="n">
-        <v>24.03460983816696</v>
-      </c>
-      <c r="E90" t="inlineStr">
+        <v>166</v>
+      </c>
+      <c r="E90" t="n">
+        <v>40</v>
+      </c>
+      <c r="F90" t="n">
+        <v>31.20917404557991</v>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2153,20 +2697,26 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C91" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D91" t="n">
-        <v>28.07504293830096</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>158</v>
+      </c>
+      <c r="E91" t="n">
+        <v>37</v>
+      </c>
+      <c r="F91" t="n">
+        <v>24.03460983816696</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -2175,15 +2725,21 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C92" t="n">
+        <v>47</v>
+      </c>
+      <c r="D92" t="n">
+        <v>174</v>
+      </c>
+      <c r="E92" t="n">
         <v>45</v>
       </c>
-      <c r="D92" t="n">
-        <v>34.02034614876469</v>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="n">
+        <v>28.07504293830096</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2194,15 +2750,21 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C93" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D93" t="n">
-        <v>28.06891815222909</v>
-      </c>
-      <c r="E93" t="inlineStr">
+        <v>174</v>
+      </c>
+      <c r="E93" t="n">
+        <v>45</v>
+      </c>
+      <c r="F93" t="n">
+        <v>34.02034614876469</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2213,17 +2775,23 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C94" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D94" t="n">
-        <v>26.85440557410364</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>183</v>
+      </c>
+      <c r="E94" t="n">
+        <v>44</v>
+      </c>
+      <c r="F94" t="n">
+        <v>28.06891815222909</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -2232,17 +2800,23 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C95" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D95" t="n">
-        <v>28.73467205720204</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>166</v>
+      </c>
+      <c r="E95" t="n">
+        <v>38</v>
+      </c>
+      <c r="F95" t="n">
+        <v>26.85440557410364</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -2251,15 +2825,21 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C96" t="n">
+        <v>45</v>
+      </c>
+      <c r="D96" t="n">
+        <v>173</v>
+      </c>
+      <c r="E96" t="n">
         <v>42</v>
       </c>
-      <c r="D96" t="n">
-        <v>27.16049382716049</v>
-      </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="n">
+        <v>28.73467205720204</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2270,15 +2850,21 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D97" t="n">
-        <v>29.98358793081681</v>
-      </c>
-      <c r="E97" t="inlineStr">
+        <v>180</v>
+      </c>
+      <c r="E97" t="n">
+        <v>42</v>
+      </c>
+      <c r="F97" t="n">
+        <v>27.16049382716049</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2286,18 +2872,24 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C98" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D98" t="n">
-        <v>44.84953703703704</v>
-      </c>
-      <c r="E98" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="E98" t="n">
+        <v>47</v>
+      </c>
+      <c r="F98" t="n">
+        <v>29.98358793081681</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2305,37 +2897,49 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D99" t="n">
-        <v>29.75778546712803</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>144</v>
+      </c>
+      <c r="E99" t="n">
+        <v>43</v>
+      </c>
+      <c r="F99" t="n">
+        <v>44.84953703703704</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D100" t="n">
-        <v>21.50188648626719</v>
-      </c>
-      <c r="E100" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E100" t="n">
+        <v>40</v>
+      </c>
+      <c r="F100" t="n">
+        <v>29.75778546712803</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2346,34 +2950,46 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C101" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D101" t="n">
-        <v>39.06249999999999</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>157</v>
+      </c>
+      <c r="E101" t="n">
+        <v>34</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21.50188648626719</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D102" t="n">
-        <v>32.96398891966759</v>
-      </c>
-      <c r="E102" t="inlineStr">
+        <v>160</v>
+      </c>
+      <c r="E102" t="n">
+        <v>35</v>
+      </c>
+      <c r="F102" t="n">
+        <v>39.06249999999999</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2381,39 +2997,51 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="C103" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D103" t="n">
-        <v>32.77051278049998</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>190</v>
+      </c>
+      <c r="E103" t="n">
+        <v>49</v>
+      </c>
+      <c r="F103" t="n">
+        <v>32.96398891966759</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C104" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D104" t="n">
-        <v>28.40054796351365</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>179</v>
+      </c>
+      <c r="E104" t="n">
+        <v>37</v>
+      </c>
+      <c r="F104" t="n">
+        <v>32.77051278049998</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -2422,15 +3050,21 @@
         <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C105" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D105" t="n">
-        <v>33.51527338887293</v>
-      </c>
-      <c r="E105" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="E105" t="n">
+        <v>43</v>
+      </c>
+      <c r="F105" t="n">
+        <v>28.40054796351365</v>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2441,15 +3075,21 @@
         <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D106" t="n">
-        <v>30.14764616454946</v>
-      </c>
-      <c r="E106" t="inlineStr">
+        <v>177</v>
+      </c>
+      <c r="E106" t="n">
+        <v>46</v>
+      </c>
+      <c r="F106" t="n">
+        <v>33.51527338887293</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2460,34 +3100,46 @@
         <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C107" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D107" t="n">
-        <v>26.14927685950413</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>197</v>
+      </c>
+      <c r="E107" t="n">
+        <v>44</v>
+      </c>
+      <c r="F107" t="n">
+        <v>30.14764616454946</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C108" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D108" t="n">
-        <v>26.43807082198365</v>
-      </c>
-      <c r="E108" t="inlineStr">
+        <v>176</v>
+      </c>
+      <c r="E108" t="n">
+        <v>41</v>
+      </c>
+      <c r="F108" t="n">
+        <v>26.14927685950413</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2495,18 +3147,24 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C109" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D109" t="n">
-        <v>36.73094582185492</v>
-      </c>
-      <c r="E109" t="inlineStr">
+        <v>158</v>
+      </c>
+      <c r="E109" t="n">
+        <v>35</v>
+      </c>
+      <c r="F109" t="n">
+        <v>26.43807082198365</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2514,18 +3172,24 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C110" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D110" t="n">
-        <v>31.24999999999999</v>
-      </c>
-      <c r="E110" t="inlineStr">
+        <v>165</v>
+      </c>
+      <c r="E110" t="n">
+        <v>44</v>
+      </c>
+      <c r="F110" t="n">
+        <v>36.73094582185492</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2533,18 +3197,24 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" t="n">
+        <v>80</v>
+      </c>
+      <c r="C111" t="n">
+        <v>55</v>
+      </c>
+      <c r="D111" t="n">
+        <v>160</v>
+      </c>
+      <c r="E111" t="n">
         <v>40</v>
       </c>
-      <c r="C111" t="n">
-        <v>46</v>
-      </c>
-      <c r="D111" t="n">
-        <v>30.0947300023939</v>
-      </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="n">
+        <v>31.24999999999999</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2555,15 +3225,21 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
+        <v>71</v>
+      </c>
+      <c r="C112" t="n">
         <v>64</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
+        <v>168</v>
+      </c>
+      <c r="E112" t="n">
         <v>33</v>
       </c>
-      <c r="D112" t="n">
+      <c r="F112" t="n">
         <v>25.15589569160998</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2574,15 +3250,21 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
+        <v>99</v>
+      </c>
+      <c r="C113" t="n">
         <v>52</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
+        <v>165</v>
+      </c>
+      <c r="E113" t="n">
         <v>40</v>
       </c>
-      <c r="D113" t="n">
+      <c r="F113" t="n">
         <v>36.36363636363637</v>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2593,17 +3275,23 @@
         <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C114" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D114" t="n">
-        <v>27.30996813837051</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>167</v>
+      </c>
+      <c r="E114" t="n">
+        <v>36</v>
+      </c>
+      <c r="F114" t="n">
+        <v>22.58955143605005</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -2612,15 +3300,21 @@
         <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C115" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D115" t="n">
-        <v>35.08302983728156</v>
-      </c>
-      <c r="E115" t="inlineStr">
+        <v>169</v>
+      </c>
+      <c r="E115" t="n">
+        <v>43</v>
+      </c>
+      <c r="F115" t="n">
+        <v>27.30996813837051</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2628,18 +3322,24 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C116" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D116" t="n">
-        <v>22.43230251562249</v>
-      </c>
-      <c r="E116" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="E116" t="n">
+        <v>50</v>
+      </c>
+      <c r="F116" t="n">
+        <v>35.08302983728156</v>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2650,15 +3350,21 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C117" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D117" t="n">
-        <v>33.34648069131199</v>
-      </c>
-      <c r="E117" t="inlineStr">
+        <v>158</v>
+      </c>
+      <c r="E117" t="n">
+        <v>33</v>
+      </c>
+      <c r="F117" t="n">
+        <v>22.43230251562249</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2669,17 +3375,23 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C118" t="n">
         <v>39</v>
       </c>
       <c r="D118" t="n">
-        <v>38.76698407919004</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>167</v>
+      </c>
+      <c r="E118" t="n">
+        <v>38</v>
+      </c>
+      <c r="F118" t="n">
+        <v>33.34648069131199</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -2688,17 +3400,23 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C119" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D119" t="n">
-        <v>32.00731595793324</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>163</v>
+      </c>
+      <c r="E119" t="n">
+        <v>39</v>
+      </c>
+      <c r="F119" t="n">
+        <v>38.76698407919004</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3425,46 @@
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C120" t="n">
+        <v>65</v>
+      </c>
+      <c r="D120" t="n">
+        <v>162</v>
+      </c>
+      <c r="E120" t="n">
         <v>37</v>
       </c>
-      <c r="D120" t="n">
-        <v>26.07897153351699</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Severe</t>
+      <c r="F120" t="n">
+        <v>32.00731595793324</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C121" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D121" t="n">
-        <v>27.75510204081633</v>
-      </c>
-      <c r="E121" t="inlineStr">
+        <v>165</v>
+      </c>
+      <c r="E121" t="n">
+        <v>37</v>
+      </c>
+      <c r="F121" t="n">
+        <v>26.07897153351699</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2745,34 +3475,46 @@
         <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C122" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D122" t="n">
-        <v>27.11776859504132</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>175</v>
+      </c>
+      <c r="E122" t="n">
+        <v>44</v>
+      </c>
+      <c r="F122" t="n">
+        <v>27.75510204081633</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C123" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D123" t="n">
-        <v>43.28254847645429</v>
-      </c>
-      <c r="E123" t="inlineStr">
+        <v>176</v>
+      </c>
+      <c r="E123" t="n">
+        <v>38</v>
+      </c>
+      <c r="F123" t="n">
+        <v>27.11776859504132</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2780,18 +3522,24 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C124" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D124" t="n">
-        <v>23.23563170124017</v>
-      </c>
-      <c r="E124" t="inlineStr">
+        <v>152</v>
+      </c>
+      <c r="E124" t="n">
+        <v>40</v>
+      </c>
+      <c r="F124" t="n">
+        <v>43.28254847645429</v>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2802,36 +3550,48 @@
         <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C125" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D125" t="n">
-        <v>26.25072494734593</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>189</v>
+      </c>
+      <c r="E125" t="n">
+        <v>38</v>
+      </c>
+      <c r="F125" t="n">
+        <v>23.23563170124017</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C126" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D126" t="n">
-        <v>41.79687499999999</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>181</v>
+      </c>
+      <c r="E126" t="n">
+        <v>43</v>
+      </c>
+      <c r="F126" t="n">
+        <v>26.25072494734593</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -2840,15 +3600,21 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C127" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D127" t="n">
-        <v>25.81663021262863</v>
-      </c>
-      <c r="E127" t="inlineStr">
+        <v>160</v>
+      </c>
+      <c r="E127" t="n">
+        <v>38</v>
+      </c>
+      <c r="F127" t="n">
+        <v>41.79687499999999</v>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -2859,36 +3625,48 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C128" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D128" t="n">
-        <v>29.33333333333333</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>167</v>
+      </c>
+      <c r="E128" t="n">
+        <v>34</v>
+      </c>
+      <c r="F128" t="n">
+        <v>25.81663021262863</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C129" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D129" t="n">
-        <v>26.25072494734593</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>150</v>
+      </c>
+      <c r="E129" t="n">
+        <v>33</v>
+      </c>
+      <c r="F129" t="n">
+        <v>29.33333333333333</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -2897,17 +3675,23 @@
         <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C130" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D130" t="n">
-        <v>41.03017295795985</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>181</v>
+      </c>
+      <c r="E130" t="n">
+        <v>39</v>
+      </c>
+      <c r="F130" t="n">
+        <v>26.25072494734593</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -2916,15 +3700,21 @@
         <v>1</v>
       </c>
       <c r="B131" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C131" t="n">
+        <v>33</v>
+      </c>
+      <c r="D131" t="n">
+        <v>178</v>
+      </c>
+      <c r="E131" t="n">
         <v>46</v>
       </c>
-      <c r="D131" t="n">
-        <v>34.31610855329005</v>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="n">
+        <v>41.03017295795985</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2935,15 +3725,21 @@
         <v>1</v>
       </c>
       <c r="B132" t="n">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C132" t="n">
+        <v>60</v>
+      </c>
+      <c r="D132" t="n">
+        <v>187</v>
+      </c>
+      <c r="E132" t="n">
         <v>46</v>
       </c>
-      <c r="D132" t="n">
-        <v>27.35884545672173</v>
-      </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="n">
+        <v>34.31610855329005</v>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2954,15 +3750,21 @@
         <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C133" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D133" t="n">
-        <v>26.82742078020452</v>
-      </c>
-      <c r="E133" t="inlineStr">
+        <v>171</v>
+      </c>
+      <c r="E133" t="n">
+        <v>46</v>
+      </c>
+      <c r="F133" t="n">
+        <v>27.35884545672173</v>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -2970,20 +3772,26 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C134" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D134" t="n">
-        <v>21.71925011431184</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>178</v>
+      </c>
+      <c r="E134" t="n">
+        <v>42</v>
+      </c>
+      <c r="F134" t="n">
+        <v>26.82742078020452</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -2992,34 +3800,46 @@
         <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C135" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D135" t="n">
-        <v>36.68409512565357</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>162</v>
+      </c>
+      <c r="E135" t="n">
+        <v>33</v>
+      </c>
+      <c r="F135" t="n">
+        <v>21.71925011431184</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C136" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D136" t="n">
-        <v>32.17993079584775</v>
-      </c>
-      <c r="E136" t="inlineStr">
+        <v>154</v>
+      </c>
+      <c r="E136" t="n">
+        <v>45</v>
+      </c>
+      <c r="F136" t="n">
+        <v>36.68409512565357</v>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3027,39 +3847,51 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
+        <v>93</v>
+      </c>
+      <c r="C137" t="n">
         <v>40</v>
       </c>
-      <c r="C137" t="n">
-        <v>34</v>
-      </c>
       <c r="D137" t="n">
-        <v>28.19692120103642</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>170</v>
+      </c>
+      <c r="E137" t="n">
+        <v>42</v>
+      </c>
+      <c r="F137" t="n">
+        <v>32.17993079584775</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C138" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D138" t="n">
-        <v>28.02768166089966</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>162</v>
+      </c>
+      <c r="E138" t="n">
+        <v>34</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28.19692120103642</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -3068,34 +3900,46 @@
         <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C139" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D139" t="n">
-        <v>26.12244897959184</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>170</v>
+      </c>
+      <c r="E139" t="n">
+        <v>41</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28.02768166089966</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C140" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D140" t="n">
-        <v>30.11621315192744</v>
-      </c>
-      <c r="E140" t="inlineStr">
+        <v>175</v>
+      </c>
+      <c r="E140" t="n">
+        <v>39</v>
+      </c>
+      <c r="F140" t="n">
+        <v>26.12244897959184</v>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3103,20 +3947,26 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C141" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D141" t="n">
-        <v>31.83391003460208</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>168</v>
+      </c>
+      <c r="E141" t="n">
+        <v>36</v>
+      </c>
+      <c r="F141" t="n">
+        <v>30.11621315192744</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -3125,15 +3975,21 @@
         <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C142" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D142" t="n">
-        <v>31.45643284051588</v>
-      </c>
-      <c r="E142" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E142" t="n">
+        <v>46</v>
+      </c>
+      <c r="F142" t="n">
+        <v>31.83391003460208</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3144,15 +4000,21 @@
         <v>1</v>
       </c>
       <c r="B143" t="n">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C143" t="n">
         <v>44</v>
       </c>
       <c r="D143" t="n">
-        <v>38.51405763103534</v>
-      </c>
-      <c r="E143" t="inlineStr">
+        <v>187</v>
+      </c>
+      <c r="E143" t="n">
+        <v>42</v>
+      </c>
+      <c r="F143" t="n">
+        <v>31.45643284051588</v>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3163,15 +4025,21 @@
         <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C144" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D144" t="n">
-        <v>35.34907208685772</v>
-      </c>
-      <c r="E144" t="inlineStr">
+        <v>169</v>
+      </c>
+      <c r="E144" t="n">
+        <v>44</v>
+      </c>
+      <c r="F144" t="n">
+        <v>38.51405763103534</v>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3182,15 +4050,21 @@
         <v>1</v>
       </c>
       <c r="B145" t="n">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C145" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D145" t="n">
-        <v>25.38146854190928</v>
-      </c>
-      <c r="E145" t="inlineStr">
+        <v>178</v>
+      </c>
+      <c r="E145" t="n">
+        <v>43</v>
+      </c>
+      <c r="F145" t="n">
+        <v>35.34907208685772</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3201,15 +4075,21 @@
         <v>1</v>
       </c>
       <c r="B146" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C146" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D146" t="n">
-        <v>33.89721074380165</v>
-      </c>
-      <c r="E146" t="inlineStr">
+        <v>183</v>
+      </c>
+      <c r="E146" t="n">
+        <v>39</v>
+      </c>
+      <c r="F146" t="n">
+        <v>25.38146854190928</v>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3217,18 +4097,24 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C147" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D147" t="n">
-        <v>27.34375</v>
-      </c>
-      <c r="E147" t="inlineStr">
+        <v>176</v>
+      </c>
+      <c r="E147" t="n">
+        <v>49</v>
+      </c>
+      <c r="F147" t="n">
+        <v>33.89721074380165</v>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3236,18 +4122,24 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C148" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D148" t="n">
-        <v>32.89383514706286</v>
-      </c>
-      <c r="E148" t="inlineStr">
+        <v>160</v>
+      </c>
+      <c r="E148" t="n">
+        <v>34</v>
+      </c>
+      <c r="F148" t="n">
+        <v>27.34375</v>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3258,15 +4150,21 @@
         <v>1</v>
       </c>
       <c r="B149" t="n">
+        <v>120</v>
+      </c>
+      <c r="C149" t="n">
         <v>35</v>
       </c>
-      <c r="C149" t="n">
+      <c r="D149" t="n">
+        <v>191</v>
+      </c>
+      <c r="E149" t="n">
         <v>44</v>
       </c>
-      <c r="D149" t="n">
-        <v>41.04938271604938</v>
-      </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="n">
+        <v>32.89383514706286</v>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3274,39 +4172,51 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C150" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D150" t="n">
-        <v>34.54734651404786</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>180</v>
+      </c>
+      <c r="E150" t="n">
+        <v>44</v>
+      </c>
+      <c r="F150" t="n">
+        <v>41.04938271604938</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C151" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D151" t="n">
-        <v>29.35752192404683</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>155</v>
+      </c>
+      <c r="E151" t="n">
+        <v>33</v>
+      </c>
+      <c r="F151" t="n">
+        <v>34.54734651404786</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -3315,15 +4225,21 @@
         <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C152" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D152" t="n">
-        <v>49.21389879772757</v>
-      </c>
-      <c r="E152" t="inlineStr">
+        <v>163</v>
+      </c>
+      <c r="E152" t="n">
+        <v>41</v>
+      </c>
+      <c r="F152" t="n">
+        <v>29.35752192404683</v>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3331,56 +4247,74 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="C153" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D153" t="n">
-        <v>31.17913832199547</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>174</v>
+      </c>
+      <c r="E153" t="n">
+        <v>43</v>
+      </c>
+      <c r="F153" t="n">
+        <v>49.21389879772757</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B154" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C154" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D154" t="n">
-        <v>39.44485025566107</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>168</v>
+      </c>
+      <c r="E154" t="n">
+        <v>39</v>
+      </c>
+      <c r="F154" t="n">
+        <v>31.17913832199547</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C155" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D155" t="n">
-        <v>32.87310979618672</v>
-      </c>
-      <c r="E155" t="inlineStr">
+        <v>185</v>
+      </c>
+      <c r="E155" t="n">
+        <v>50</v>
+      </c>
+      <c r="F155" t="n">
+        <v>39.44485025566107</v>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3388,18 +4322,24 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C156" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D156" t="n">
-        <v>41.66520780084731</v>
-      </c>
-      <c r="E156" t="inlineStr">
+        <v>156</v>
+      </c>
+      <c r="E156" t="n">
+        <v>41</v>
+      </c>
+      <c r="F156" t="n">
+        <v>32.87310979618672</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3410,15 +4350,21 @@
         <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C157" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D157" t="n">
-        <v>32.45841265878094</v>
-      </c>
-      <c r="E157" t="inlineStr">
+        <v>169</v>
+      </c>
+      <c r="E157" t="n">
+        <v>44</v>
+      </c>
+      <c r="F157" t="n">
+        <v>41.66520780084731</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3426,20 +4372,26 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B158" t="n">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C158" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D158" t="n">
-        <v>23.18367346938776</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>179</v>
+      </c>
+      <c r="E158" t="n">
+        <v>46</v>
+      </c>
+      <c r="F158" t="n">
+        <v>32.45841265878094</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -3448,15 +4400,21 @@
         <v>1</v>
       </c>
       <c r="B159" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C159" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D159" t="n">
-        <v>30.48668503213958</v>
-      </c>
-      <c r="E159" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E159" t="n">
+        <v>40</v>
+      </c>
+      <c r="F159" t="n">
+        <v>29.06574394463668</v>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3464,18 +4422,24 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C160" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D160" t="n">
-        <v>28.63403944485025</v>
-      </c>
-      <c r="E160" t="inlineStr">
+        <v>175</v>
+      </c>
+      <c r="E160" t="n">
+        <v>35</v>
+      </c>
+      <c r="F160" t="n">
+        <v>23.18367346938776</v>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3483,20 +4447,26 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C161" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D161" t="n">
-        <v>33.64845377343374</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>165</v>
+      </c>
+      <c r="E161" t="n">
+        <v>45</v>
+      </c>
+      <c r="F161" t="n">
+        <v>30.48668503213958</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -3505,15 +4475,21 @@
         <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C162" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D162" t="n">
-        <v>24.0569347455645</v>
-      </c>
-      <c r="E162" t="inlineStr">
+        <v>185</v>
+      </c>
+      <c r="E162" t="n">
+        <v>40</v>
+      </c>
+      <c r="F162" t="n">
+        <v>28.63403944485025</v>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3524,15 +4500,21 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C163" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D163" t="n">
-        <v>21.82995219993225</v>
-      </c>
-      <c r="E163" t="inlineStr">
+        <v>158</v>
+      </c>
+      <c r="E163" t="n">
+        <v>35</v>
+      </c>
+      <c r="F163" t="n">
+        <v>33.64845377343374</v>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3543,15 +4525,21 @@
         <v>1</v>
       </c>
       <c r="B164" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C164" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D164" t="n">
-        <v>25.4200146092038</v>
-      </c>
-      <c r="E164" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="E164" t="n">
+        <v>38</v>
+      </c>
+      <c r="F164" t="n">
+        <v>24.0569347455645</v>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3559,20 +4547,26 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C165" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D165" t="n">
-        <v>28.99789383718446</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>163</v>
+      </c>
+      <c r="E165" t="n">
+        <v>31</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21.82995219993225</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -3581,17 +4575,23 @@
         <v>1</v>
       </c>
       <c r="B166" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C166" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D166" t="n">
-        <v>35.92561284868977</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>185</v>
+      </c>
+      <c r="E166" t="n">
+        <v>40</v>
+      </c>
+      <c r="F166" t="n">
+        <v>25.4200146092038</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -3600,15 +4600,21 @@
         <v>1</v>
       </c>
       <c r="B167" t="n">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C167" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D167" t="n">
-        <v>31.31456611570248</v>
-      </c>
-      <c r="E167" t="inlineStr">
+        <v>181</v>
+      </c>
+      <c r="E167" t="n">
+        <v>43</v>
+      </c>
+      <c r="F167" t="n">
+        <v>28.99789383718446</v>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3619,17 +4625,23 @@
         <v>1</v>
       </c>
       <c r="B168" t="n">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C168" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D168" t="n">
-        <v>25.91068434689833</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>182</v>
+      </c>
+      <c r="E168" t="n">
+        <v>45</v>
+      </c>
+      <c r="F168" t="n">
+        <v>35.92561284868977</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -3638,15 +4650,21 @@
         <v>1</v>
       </c>
       <c r="B169" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C169" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D169" t="n">
-        <v>36.41952621203515</v>
-      </c>
-      <c r="E169" t="inlineStr">
+        <v>176</v>
+      </c>
+      <c r="E169" t="n">
+        <v>44</v>
+      </c>
+      <c r="F169" t="n">
+        <v>31.31456611570248</v>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3654,18 +4672,24 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C170" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D170" t="n">
-        <v>29.88554795334758</v>
-      </c>
-      <c r="E170" t="inlineStr">
+        <v>162</v>
+      </c>
+      <c r="E170" t="n">
+        <v>44</v>
+      </c>
+      <c r="F170" t="n">
+        <v>25.91068434689833</v>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3673,18 +4697,24 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B171" t="n">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C171" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D171" t="n">
-        <v>45.14209500359085</v>
-      </c>
-      <c r="E171" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="E171" t="n">
+        <v>47</v>
+      </c>
+      <c r="F171" t="n">
+        <v>36.41952621203515</v>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3692,37 +4722,49 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>76</v>
+        <v>87.79703703703704</v>
       </c>
       <c r="C172" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D172" t="n">
-        <v>33.46403461330449</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>171.3994082840237</v>
+      </c>
+      <c r="E172" t="n">
+        <v>40</v>
+      </c>
+      <c r="F172" t="n">
+        <v>29.88554795334758</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="C173" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D173" t="n">
-        <v>31.65218429932216</v>
-      </c>
-      <c r="E173" t="inlineStr">
+        <v>171</v>
+      </c>
+      <c r="E173" t="n">
+        <v>42</v>
+      </c>
+      <c r="F173" t="n">
+        <v>45.14209500359085</v>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3730,20 +4772,26 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B174" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C174" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D174" t="n">
-        <v>23.1404958677686</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>172</v>
+      </c>
+      <c r="E174" t="n">
+        <v>50</v>
+      </c>
+      <c r="F174" t="n">
+        <v>33.46403461330449</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -3752,15 +4800,21 @@
         <v>1</v>
       </c>
       <c r="B175" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C175" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D175" t="n">
-        <v>25</v>
-      </c>
-      <c r="E175" t="inlineStr">
+        <v>183</v>
+      </c>
+      <c r="E175" t="n">
+        <v>46</v>
+      </c>
+      <c r="F175" t="n">
+        <v>31.65218429932216</v>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3771,15 +4825,21 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C176" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D176" t="n">
-        <v>21.56454491374182</v>
-      </c>
-      <c r="E176" t="inlineStr">
+        <v>165</v>
+      </c>
+      <c r="E176" t="n">
+        <v>34</v>
+      </c>
+      <c r="F176" t="n">
+        <v>23.1404958677686</v>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3787,18 +4847,24 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B177" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C177" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D177" t="n">
-        <v>39.91871098853245</v>
-      </c>
-      <c r="E177" t="inlineStr">
+        <v>180</v>
+      </c>
+      <c r="E177" t="n">
+        <v>39</v>
+      </c>
+      <c r="F177" t="n">
+        <v>25</v>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3806,20 +4872,26 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C178" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D178" t="n">
-        <v>27.13141179099237</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>164</v>
+      </c>
+      <c r="E178" t="n">
+        <v>33</v>
+      </c>
+      <c r="F178" t="n">
+        <v>21.56454491374182</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -3828,17 +4900,23 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C179" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D179" t="n">
-        <v>38.10394756896814</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>166</v>
+      </c>
+      <c r="E179" t="n">
+        <v>41</v>
+      </c>
+      <c r="F179" t="n">
+        <v>39.91871098853245</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -3847,15 +4925,21 @@
         <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C180" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D180" t="n">
-        <v>25.76571345623458</v>
-      </c>
-      <c r="E180" t="inlineStr">
+        <v>177</v>
+      </c>
+      <c r="E180" t="n">
+        <v>39</v>
+      </c>
+      <c r="F180" t="n">
+        <v>27.13141179099237</v>
+      </c>
+      <c r="G180" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3863,18 +4947,24 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C181" t="n">
+        <v>43</v>
+      </c>
+      <c r="D181" t="n">
+        <v>162</v>
+      </c>
+      <c r="E181" t="n">
         <v>37</v>
       </c>
-      <c r="D181" t="n">
-        <v>23.18339100346021</v>
-      </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="n">
+        <v>38.10394756896814</v>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3885,15 +4975,21 @@
         <v>1</v>
       </c>
       <c r="B182" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C182" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D182" t="n">
-        <v>21.35779559539232</v>
-      </c>
-      <c r="E182" t="inlineStr">
+        <v>166</v>
+      </c>
+      <c r="E182" t="n">
+        <v>38</v>
+      </c>
+      <c r="F182" t="n">
+        <v>25.76571345623458</v>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3904,15 +5000,21 @@
         <v>1</v>
       </c>
       <c r="B183" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C183" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D183" t="n">
-        <v>26.01456815816857</v>
-      </c>
-      <c r="E183" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E183" t="n">
+        <v>37</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23.18339100346021</v>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -3923,15 +5025,21 @@
         <v>1</v>
       </c>
       <c r="B184" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C184" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D184" t="n">
-        <v>32.11195240670633</v>
-      </c>
-      <c r="E184" t="inlineStr">
+        <v>169</v>
+      </c>
+      <c r="E184" t="n">
+        <v>34</v>
+      </c>
+      <c r="F184" t="n">
+        <v>21.35779559539232</v>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3942,17 +5050,23 @@
         <v>1</v>
       </c>
       <c r="B185" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C185" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D185" t="n">
-        <v>36.57355946789057</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>186</v>
+      </c>
+      <c r="E185" t="n">
+        <v>40</v>
+      </c>
+      <c r="F185" t="n">
+        <v>26.01456815816857</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -3961,15 +5075,21 @@
         <v>1</v>
       </c>
       <c r="B186" t="n">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C186" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D186" t="n">
-        <v>35.34152463997886</v>
-      </c>
-      <c r="E186" t="inlineStr">
+        <v>172</v>
+      </c>
+      <c r="E186" t="n">
+        <v>42</v>
+      </c>
+      <c r="F186" t="n">
+        <v>32.11195240670633</v>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -3980,17 +5100,23 @@
         <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C187" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D187" t="n">
-        <v>24.72452000854675</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>167</v>
+      </c>
+      <c r="E187" t="n">
+        <v>43</v>
+      </c>
+      <c r="F187" t="n">
+        <v>36.57355946789057</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -3999,15 +5125,21 @@
         <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C188" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D188" t="n">
-        <v>41.81429346611765</v>
-      </c>
-      <c r="E188" t="inlineStr">
+        <v>174</v>
+      </c>
+      <c r="E188" t="n">
+        <v>48</v>
+      </c>
+      <c r="F188" t="n">
+        <v>35.34152463997886</v>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4018,17 +5150,23 @@
         <v>1</v>
       </c>
       <c r="B189" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C189" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D189" t="n">
-        <v>24.0493435943866</v>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>181</v>
+      </c>
+      <c r="E189" t="n">
+        <v>40</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24.72452000854675</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -4037,15 +5175,21 @@
         <v>1</v>
       </c>
       <c r="B190" t="n">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C190" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D190" t="n">
-        <v>27.16049382716049</v>
-      </c>
-      <c r="E190" t="inlineStr">
+        <v>177</v>
+      </c>
+      <c r="E190" t="n">
+        <v>45</v>
+      </c>
+      <c r="F190" t="n">
+        <v>41.81429346611765</v>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4053,56 +5197,74 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B191" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C191" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D191" t="n">
-        <v>40.7420592539852</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>188</v>
+      </c>
+      <c r="E191" t="n">
+        <v>42</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24.0493435943866</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B192" t="n">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C192" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D192" t="n">
-        <v>23.79535990481856</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>180</v>
+      </c>
+      <c r="E192" t="n">
+        <v>40</v>
+      </c>
+      <c r="F192" t="n">
+        <v>27.16049382716049</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
+        <v>64</v>
+      </c>
+      <c r="C193" t="n">
+        <v>49</v>
+      </c>
+      <c r="D193" t="n">
+        <v>164</v>
+      </c>
+      <c r="E193" t="n">
         <v>33</v>
       </c>
-      <c r="C193" t="n">
-        <v>39</v>
-      </c>
-      <c r="D193" t="n">
-        <v>26.88172043010752</v>
-      </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="n">
+        <v>23.79535990481856</v>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4113,55 +5275,73 @@
         <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C194" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D194" t="n">
-        <v>46.28299658463404</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>186</v>
+      </c>
+      <c r="E194" t="n">
+        <v>39</v>
+      </c>
+      <c r="F194" t="n">
+        <v>26.88172043010752</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="C195" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D195" t="n">
-        <v>27.88761706555671</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>177</v>
+      </c>
+      <c r="E195" t="n">
+        <v>46</v>
+      </c>
+      <c r="F195" t="n">
+        <v>46.28299658463404</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C196" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D196" t="n">
-        <v>29.53686200378072</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>155</v>
+      </c>
+      <c r="E196" t="n">
+        <v>35</v>
+      </c>
+      <c r="F196" t="n">
+        <v>27.88761706555671</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -4170,17 +5350,23 @@
         <v>1</v>
       </c>
       <c r="B197" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C197" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D197" t="n">
-        <v>23.30668005306752</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>184</v>
+      </c>
+      <c r="E197" t="n">
+        <v>43</v>
+      </c>
+      <c r="F197" t="n">
+        <v>29.53686200378072</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -4189,15 +5375,21 @@
         <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C198" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D198" t="n">
-        <v>28.08988764044944</v>
-      </c>
-      <c r="E198" t="inlineStr">
+        <v>167</v>
+      </c>
+      <c r="E198" t="n">
+        <v>37</v>
+      </c>
+      <c r="F198" t="n">
+        <v>23.30668005306752</v>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4208,15 +5400,21 @@
         <v>1</v>
       </c>
       <c r="B199" t="n">
+        <v>89</v>
+      </c>
+      <c r="C199" t="n">
+        <v>34</v>
+      </c>
+      <c r="D199" t="n">
+        <v>178</v>
+      </c>
+      <c r="E199" t="n">
         <v>42</v>
       </c>
-      <c r="C199" t="n">
-        <v>40</v>
-      </c>
-      <c r="D199" t="n">
-        <v>31.91222345727707</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="n">
+        <v>28.08988764044944</v>
+      </c>
+      <c r="G199" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4224,18 +5422,24 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B200" t="n">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C200" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D200" t="n">
-        <v>31.61177324960485</v>
-      </c>
-      <c r="E200" t="inlineStr">
+        <v>167</v>
+      </c>
+      <c r="E200" t="n">
+        <v>40</v>
+      </c>
+      <c r="F200" t="n">
+        <v>31.91222345727707</v>
+      </c>
+      <c r="G200" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4246,15 +5450,21 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C201" t="n">
         <v>35</v>
       </c>
       <c r="D201" t="n">
-        <v>26.61934338952972</v>
-      </c>
-      <c r="E201" t="inlineStr">
+        <v>153</v>
+      </c>
+      <c r="E201" t="n">
+        <v>36</v>
+      </c>
+      <c r="F201" t="n">
+        <v>31.61177324960485</v>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4265,15 +5475,21 @@
         <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C202" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D202" t="n">
-        <v>28.67262607522348</v>
-      </c>
-      <c r="E202" t="inlineStr">
+        <v>161</v>
+      </c>
+      <c r="E202" t="n">
+        <v>35</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26.61934338952972</v>
+      </c>
+      <c r="G202" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4281,20 +5497,26 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C203" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D203" t="n">
-        <v>30.87331203522242</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>154</v>
+      </c>
+      <c r="E203" t="n">
+        <v>37</v>
+      </c>
+      <c r="F203" t="n">
+        <v>28.67262607522348</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -4303,15 +5525,21 @@
         <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C204" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D204" t="n">
-        <v>38.58024691358025</v>
-      </c>
-      <c r="E204" t="inlineStr">
+        <v>193</v>
+      </c>
+      <c r="E204" t="n">
+        <v>44</v>
+      </c>
+      <c r="F204" t="n">
+        <v>30.87331203522242</v>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4322,15 +5550,21 @@
         <v>1</v>
       </c>
       <c r="B205" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C205" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D205" t="n">
-        <v>32.45567771512029</v>
-      </c>
-      <c r="E205" t="inlineStr">
+        <v>171</v>
+      </c>
+      <c r="E205" t="n">
+        <v>41</v>
+      </c>
+      <c r="F205" t="n">
+        <v>29.75274443418488</v>
+      </c>
+      <c r="G205" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4341,17 +5575,23 @@
         <v>1</v>
       </c>
       <c r="B206" t="n">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C206" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D206" t="n">
-        <v>24.97704315886134</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>180</v>
+      </c>
+      <c r="E206" t="n">
+        <v>45</v>
+      </c>
+      <c r="F206" t="n">
+        <v>38.58024691358025</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -4360,15 +5600,21 @@
         <v>1</v>
       </c>
       <c r="B207" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C207" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D207" t="n">
-        <v>43.29779927737466</v>
-      </c>
-      <c r="E207" t="inlineStr">
+        <v>157</v>
+      </c>
+      <c r="E207" t="n">
+        <v>42</v>
+      </c>
+      <c r="F207" t="n">
+        <v>32.45567771512029</v>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4379,17 +5625,23 @@
         <v>1</v>
       </c>
       <c r="B208" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C208" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D208" t="n">
-        <v>28.73469387755102</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>165</v>
+      </c>
+      <c r="E208" t="n">
+        <v>39</v>
+      </c>
+      <c r="F208" t="n">
+        <v>24.97704315886134</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -4398,15 +5650,21 @@
         <v>1</v>
       </c>
       <c r="B209" t="n">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="C209" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D209" t="n">
-        <v>27.77442337881898</v>
-      </c>
-      <c r="E209" t="inlineStr">
+        <v>183</v>
+      </c>
+      <c r="E209" t="n">
+        <v>50</v>
+      </c>
+      <c r="F209" t="n">
+        <v>43.29779927737466</v>
+      </c>
+      <c r="G209" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4417,15 +5675,21 @@
         <v>1</v>
       </c>
       <c r="B210" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C210" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D210" t="n">
-        <v>38.06228373702422</v>
-      </c>
-      <c r="E210" t="inlineStr">
+        <v>175</v>
+      </c>
+      <c r="E210" t="n">
+        <v>41</v>
+      </c>
+      <c r="F210" t="n">
+        <v>28.73469387755102</v>
+      </c>
+      <c r="G210" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4436,17 +5700,23 @@
         <v>1</v>
       </c>
       <c r="B211" t="n">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C211" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D211" t="n">
-        <v>25.390625</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>182</v>
+      </c>
+      <c r="E211" t="n">
+        <v>42</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27.77442337881898</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -4455,15 +5725,21 @@
         <v>1</v>
       </c>
       <c r="B212" t="n">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C212" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D212" t="n">
-        <v>25.20920135849585</v>
-      </c>
-      <c r="E212" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E212" t="n">
+        <v>46</v>
+      </c>
+      <c r="F212" t="n">
+        <v>38.06228373702422</v>
+      </c>
+      <c r="G212" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4471,18 +5747,24 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B213" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C213" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D213" t="n">
-        <v>24.91349480968858</v>
-      </c>
-      <c r="E213" t="inlineStr">
+        <v>160</v>
+      </c>
+      <c r="E213" t="n">
+        <v>37</v>
+      </c>
+      <c r="F213" t="n">
+        <v>25.390625</v>
+      </c>
+      <c r="G213" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4493,34 +5775,46 @@
         <v>1</v>
       </c>
       <c r="B214" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C214" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D214" t="n">
-        <v>26.23355580417422</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>169</v>
+      </c>
+      <c r="E214" t="n">
+        <v>42</v>
+      </c>
+      <c r="F214" t="n">
+        <v>25.20920135849585</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B215" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C215" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D215" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="E215" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E215" t="n">
+        <v>36</v>
+      </c>
+      <c r="F215" t="n">
+        <v>24.91349480968858</v>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4531,17 +5825,23 @@
         <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C216" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D216" t="n">
-        <v>38.53061224489796</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>161</v>
+      </c>
+      <c r="E216" t="n">
+        <v>43</v>
+      </c>
+      <c r="F216" t="n">
+        <v>26.23355580417422</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -4550,17 +5850,23 @@
         <v>1</v>
       </c>
       <c r="B217" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C217" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D217" t="n">
-        <v>26.72992749507167</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>170</v>
+      </c>
+      <c r="E217" t="n">
+        <v>35</v>
+      </c>
+      <c r="F217" t="n">
+        <v>23.52941176470588</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -4569,15 +5875,21 @@
         <v>1</v>
       </c>
       <c r="B218" t="n">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C218" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D218" t="n">
-        <v>30.32334258993265</v>
-      </c>
-      <c r="E218" t="inlineStr">
+        <v>175</v>
+      </c>
+      <c r="E218" t="n">
+        <v>41</v>
+      </c>
+      <c r="F218" t="n">
+        <v>38.53061224489796</v>
+      </c>
+      <c r="G218" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4588,15 +5900,21 @@
         <v>1</v>
       </c>
       <c r="B219" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C219" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D219" t="n">
-        <v>31.09789075175771</v>
-      </c>
-      <c r="E219" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="E219" t="n">
+        <v>41</v>
+      </c>
+      <c r="F219" t="n">
+        <v>26.72992749507167</v>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4604,39 +5922,51 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B220" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C220" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D220" t="n">
-        <v>28.98114343784109</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>177</v>
+      </c>
+      <c r="E220" t="n">
+        <v>42</v>
+      </c>
+      <c r="F220" t="n">
+        <v>30.32334258993265</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B221" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C221" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D221" t="n">
-        <v>18.5901249256395</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>172</v>
+      </c>
+      <c r="E221" t="n">
+        <v>44</v>
+      </c>
+      <c r="F221" t="n">
+        <v>31.09789075175771</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -4645,15 +5975,21 @@
         <v>0</v>
       </c>
       <c r="B222" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C222" t="n">
+        <v>44</v>
+      </c>
+      <c r="D222" t="n">
+        <v>163</v>
+      </c>
+      <c r="E222" t="n">
         <v>33</v>
       </c>
-      <c r="D222" t="n">
-        <v>23.8751147842057</v>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="F222" t="n">
+        <v>28.98114343784109</v>
+      </c>
+      <c r="G222" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4661,18 +5997,24 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B223" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C223" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D223" t="n">
-        <v>20.61925365062196</v>
-      </c>
-      <c r="E223" t="inlineStr">
+        <v>164</v>
+      </c>
+      <c r="E223" t="n">
+        <v>30</v>
+      </c>
+      <c r="F223" t="n">
+        <v>18.5901249256395</v>
+      </c>
+      <c r="G223" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4680,18 +6022,24 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B224" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C224" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D224" t="n">
-        <v>25.35154137371552</v>
-      </c>
-      <c r="E224" t="inlineStr">
+        <v>165</v>
+      </c>
+      <c r="E224" t="n">
+        <v>33</v>
+      </c>
+      <c r="F224" t="n">
+        <v>23.8751147842057</v>
+      </c>
+      <c r="G224" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -4705,14 +6053,20 @@
         <v>61</v>
       </c>
       <c r="C225" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D225" t="n">
-        <v>32.17993079584775</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>172</v>
+      </c>
+      <c r="E225" t="n">
+        <v>35</v>
+      </c>
+      <c r="F225" t="n">
+        <v>20.61925365062196</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -4721,34 +6075,46 @@
         <v>1</v>
       </c>
       <c r="B226" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C226" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D226" t="n">
-        <v>33.56401384083046</v>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>172</v>
+      </c>
+      <c r="E226" t="n">
+        <v>39</v>
+      </c>
+      <c r="F226" t="n">
+        <v>25.35154137371552</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B227" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C227" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D227" t="n">
-        <v>37.77777777777778</v>
-      </c>
-      <c r="E227" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E227" t="n">
+        <v>42</v>
+      </c>
+      <c r="F227" t="n">
+        <v>32.17993079584775</v>
+      </c>
+      <c r="G227" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4756,18 +6122,24 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B228" t="n">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C228" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D228" t="n">
-        <v>39.06249999999999</v>
-      </c>
-      <c r="E228" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E228" t="n">
+        <v>45</v>
+      </c>
+      <c r="F228" t="n">
+        <v>33.56401384083046</v>
+      </c>
+      <c r="G228" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4775,20 +6147,26 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C229" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D229" t="n">
-        <v>30.24326101249178</v>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>150</v>
+      </c>
+      <c r="E229" t="n">
+        <v>43</v>
+      </c>
+      <c r="F229" t="n">
+        <v>37.77777777777778</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -4797,17 +6175,23 @@
         <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C230" t="n">
+        <v>46</v>
+      </c>
+      <c r="D230" t="n">
+        <v>160</v>
+      </c>
+      <c r="E230" t="n">
         <v>38</v>
       </c>
-      <c r="D230" t="n">
-        <v>37.37842938017129</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+      <c r="F230" t="n">
+        <v>39.06249999999999</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -4816,17 +6200,23 @@
         <v>1</v>
       </c>
       <c r="B231" t="n">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C231" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D231" t="n">
-        <v>33.80205516495403</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>195</v>
+      </c>
+      <c r="E231" t="n">
+        <v>48</v>
+      </c>
+      <c r="F231" t="n">
+        <v>30.24326101249178</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -4835,17 +6225,23 @@
         <v>0</v>
       </c>
       <c r="B232" t="n">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C232" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D232" t="n">
-        <v>29.1363163371488</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>166</v>
+      </c>
+      <c r="E232" t="n">
+        <v>38</v>
+      </c>
+      <c r="F232" t="n">
+        <v>37.37842938017129</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -4854,15 +6250,21 @@
         <v>1</v>
       </c>
       <c r="B233" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C233" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D233" t="n">
-        <v>31.96022727272727</v>
-      </c>
-      <c r="E233" t="inlineStr">
+        <v>172</v>
+      </c>
+      <c r="E233" t="n">
+        <v>44</v>
+      </c>
+      <c r="F233" t="n">
+        <v>33.80205516495403</v>
+      </c>
+      <c r="G233" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4873,15 +6275,21 @@
         <v>0</v>
       </c>
       <c r="B234" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C234" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D234" t="n">
-        <v>47.66600920447074</v>
-      </c>
-      <c r="E234" t="inlineStr">
+        <v>155</v>
+      </c>
+      <c r="E234" t="n">
+        <v>34</v>
+      </c>
+      <c r="F234" t="n">
+        <v>29.1363163371488</v>
+      </c>
+      <c r="G234" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4892,34 +6300,46 @@
         <v>1</v>
       </c>
       <c r="B235" t="n">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C235" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D235" t="n">
-        <v>23.67125362959222</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>176</v>
+      </c>
+      <c r="E235" t="n">
+        <v>45</v>
+      </c>
+      <c r="F235" t="n">
+        <v>31.96022727272727</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B236" t="n">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C236" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D236" t="n">
-        <v>28.34467120181406</v>
-      </c>
-      <c r="E236" t="inlineStr">
+        <v>156</v>
+      </c>
+      <c r="E236" t="n">
+        <v>42</v>
+      </c>
+      <c r="F236" t="n">
+        <v>47.66600920447074</v>
+      </c>
+      <c r="G236" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4930,17 +6350,23 @@
         <v>1</v>
       </c>
       <c r="B237" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C237" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D237" t="n">
-        <v>26.83864765261977</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>178</v>
+      </c>
+      <c r="E237" t="n">
+        <v>38</v>
+      </c>
+      <c r="F237" t="n">
+        <v>23.67125362959222</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -4949,34 +6375,46 @@
         <v>1</v>
       </c>
       <c r="B238" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C238" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D238" t="n">
-        <v>24.3910588392529</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>168</v>
+      </c>
+      <c r="E238" t="n">
+        <v>40</v>
+      </c>
+      <c r="F238" t="n">
+        <v>28.34467120181406</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B239" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C239" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D239" t="n">
-        <v>26.66666666666667</v>
-      </c>
-      <c r="E239" t="inlineStr">
+        <v>158</v>
+      </c>
+      <c r="E239" t="n">
+        <v>43</v>
+      </c>
+      <c r="F239" t="n">
+        <v>26.83864765261977</v>
+      </c>
+      <c r="G239" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4987,15 +6425,21 @@
         <v>1</v>
       </c>
       <c r="B240" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C240" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D240" t="n">
-        <v>26.6727632982777</v>
-      </c>
-      <c r="E240" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="E240" t="n">
+        <v>38</v>
+      </c>
+      <c r="F240" t="n">
+        <v>24.3910588392529</v>
+      </c>
+      <c r="G240" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5006,15 +6450,21 @@
         <v>0</v>
       </c>
       <c r="B241" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C241" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D241" t="n">
-        <v>28.65013774104683</v>
-      </c>
-      <c r="E241" t="inlineStr">
+        <v>150</v>
+      </c>
+      <c r="E241" t="n">
+        <v>35</v>
+      </c>
+      <c r="F241" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="G241" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5022,18 +6472,24 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B242" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C242" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D242" t="n">
-        <v>32.44672328152539</v>
-      </c>
-      <c r="E242" t="inlineStr">
+        <v>162</v>
+      </c>
+      <c r="E242" t="n">
+        <v>37</v>
+      </c>
+      <c r="F242" t="n">
+        <v>26.6727632982777</v>
+      </c>
+      <c r="G242" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5041,39 +6497,51 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B243" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C243" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D243" t="n">
-        <v>23.14814814814815</v>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>165</v>
+      </c>
+      <c r="E243" t="n">
+        <v>37</v>
+      </c>
+      <c r="F243" t="n">
+        <v>28.65013774104683</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B244" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C244" t="n">
         <v>40</v>
       </c>
       <c r="D244" t="n">
-        <v>24.69135802469136</v>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>158</v>
+      </c>
+      <c r="E244" t="n">
+        <v>35</v>
+      </c>
+      <c r="F244" t="n">
+        <v>32.44672328152539</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -5082,15 +6550,21 @@
         <v>1</v>
       </c>
       <c r="B245" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C245" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D245" t="n">
-        <v>31.05497327480665</v>
-      </c>
-      <c r="E245" t="inlineStr">
+        <v>174</v>
+      </c>
+      <c r="E245" t="n">
+        <v>42</v>
+      </c>
+      <c r="F245" t="n">
+        <v>26.42356982428326</v>
+      </c>
+      <c r="G245" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5101,15 +6575,21 @@
         <v>1</v>
       </c>
       <c r="B246" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C246" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D246" t="n">
-        <v>30.0947300023939</v>
-      </c>
-      <c r="E246" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="E246" t="n">
+        <v>42</v>
+      </c>
+      <c r="F246" t="n">
+        <v>31.40766480670921</v>
+      </c>
+      <c r="G246" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5120,17 +6600,23 @@
         <v>1</v>
       </c>
       <c r="B247" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C247" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D247" t="n">
-        <v>25.95155709342561</v>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>180</v>
+      </c>
+      <c r="E247" t="n">
+        <v>40</v>
+      </c>
+      <c r="F247" t="n">
+        <v>23.14814814814815</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -5139,15 +6625,21 @@
         <v>1</v>
       </c>
       <c r="B248" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C248" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D248" t="n">
-        <v>23.66143861546782</v>
-      </c>
-      <c r="E248" t="inlineStr">
+        <v>180</v>
+      </c>
+      <c r="E248" t="n">
+        <v>40</v>
+      </c>
+      <c r="F248" t="n">
+        <v>24.69135802469136</v>
+      </c>
+      <c r="G248" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5158,36 +6650,48 @@
         <v>1</v>
       </c>
       <c r="B249" t="n">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C249" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D249" t="n">
-        <v>24.87917870113529</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>183</v>
+      </c>
+      <c r="E249" t="n">
+        <v>45</v>
+      </c>
+      <c r="F249" t="n">
+        <v>31.05497327480665</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B250" t="n">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C250" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D250" t="n">
-        <v>33.05785123966943</v>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>171</v>
+      </c>
+      <c r="E250" t="n">
+        <v>41</v>
+      </c>
+      <c r="F250" t="n">
+        <v>30.0947300023939</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -5196,55 +6700,73 @@
         <v>1</v>
       </c>
       <c r="B251" t="n">
+        <v>75</v>
+      </c>
+      <c r="C251" t="n">
+        <v>55</v>
+      </c>
+      <c r="D251" t="n">
+        <v>170</v>
+      </c>
+      <c r="E251" t="n">
         <v>36</v>
       </c>
-      <c r="C251" t="n">
-        <v>36</v>
-      </c>
-      <c r="D251" t="n">
-        <v>24.91076740035694</v>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+      <c r="F251" t="n">
+        <v>25.95155709342561</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B252" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C252" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D252" t="n">
-        <v>30.9304380760005</v>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>172</v>
+      </c>
+      <c r="E252" t="n">
+        <v>38</v>
+      </c>
+      <c r="F252" t="n">
+        <v>23.66143861546782</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B253" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C253" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D253" t="n">
-        <v>26.953125</v>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>187</v>
+      </c>
+      <c r="E253" t="n">
+        <v>39</v>
+      </c>
+      <c r="F253" t="n">
+        <v>24.87917870113529</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -5253,15 +6775,21 @@
         <v>1</v>
       </c>
       <c r="B254" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C254" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D254" t="n">
-        <v>30.64253566982667</v>
-      </c>
-      <c r="E254" t="inlineStr">
+        <v>174</v>
+      </c>
+      <c r="E254" t="n">
+        <v>38</v>
+      </c>
+      <c r="F254" t="n">
+        <v>26.42356982428326</v>
+      </c>
+      <c r="G254" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5272,15 +6800,21 @@
         <v>0</v>
       </c>
       <c r="B255" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C255" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D255" t="n">
-        <v>26.67487432030369</v>
-      </c>
-      <c r="E255" t="inlineStr">
+        <v>165</v>
+      </c>
+      <c r="E255" t="n">
+        <v>38</v>
+      </c>
+      <c r="F255" t="n">
+        <v>33.05785123966943</v>
+      </c>
+      <c r="G255" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5291,53 +6825,71 @@
         <v>1</v>
       </c>
       <c r="B256" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C256" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D256" t="n">
-        <v>28.22838646542964</v>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>164</v>
+      </c>
+      <c r="E256" t="n">
+        <v>36</v>
+      </c>
+      <c r="F256" t="n">
+        <v>24.91076740035694</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B257" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C257" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D257" t="n">
-        <v>38.51405763103534</v>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>178</v>
+      </c>
+      <c r="E257" t="n">
+        <v>37</v>
+      </c>
+      <c r="F257" t="n">
+        <v>30.9304380760005</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B258" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C258" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D258" t="n">
-        <v>30.08382909680909</v>
-      </c>
-      <c r="E258" t="inlineStr">
+        <v>160</v>
+      </c>
+      <c r="E258" t="n">
+        <v>36</v>
+      </c>
+      <c r="F258" t="n">
+        <v>26.953125</v>
+      </c>
+      <c r="G258" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5348,15 +6900,21 @@
         <v>1</v>
       </c>
       <c r="B259" t="n">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C259" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D259" t="n">
-        <v>27.42857142857143</v>
-      </c>
-      <c r="E259" t="inlineStr">
+        <v>177</v>
+      </c>
+      <c r="E259" t="n">
+        <v>44</v>
+      </c>
+      <c r="F259" t="n">
+        <v>30.64253566982667</v>
+      </c>
+      <c r="G259" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5364,18 +6922,24 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B260" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C260" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D260" t="n">
-        <v>27.76979795078043</v>
-      </c>
-      <c r="E260" t="inlineStr">
+        <v>171</v>
+      </c>
+      <c r="E260" t="n">
+        <v>36</v>
+      </c>
+      <c r="F260" t="n">
+        <v>26.67487432030369</v>
+      </c>
+      <c r="G260" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5383,18 +6947,24 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B261" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C261" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D261" t="n">
-        <v>25.87605806762861</v>
-      </c>
-      <c r="E261" t="inlineStr">
+        <v>163</v>
+      </c>
+      <c r="E261" t="n">
+        <v>38</v>
+      </c>
+      <c r="F261" t="n">
+        <v>28.22838646542964</v>
+      </c>
+      <c r="G261" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5402,20 +6972,26 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B262" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C262" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D262" t="n">
-        <v>24.22145328719724</v>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>169</v>
+      </c>
+      <c r="E262" t="n">
+        <v>47</v>
+      </c>
+      <c r="F262" t="n">
+        <v>38.51405763103534</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -5424,15 +7000,21 @@
         <v>1</v>
       </c>
       <c r="B263" t="n">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C263" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D263" t="n">
-        <v>47.25897920604915</v>
-      </c>
-      <c r="E263" t="inlineStr">
+        <v>172</v>
+      </c>
+      <c r="E263" t="n">
+        <v>41</v>
+      </c>
+      <c r="F263" t="n">
+        <v>30.08382909680909</v>
+      </c>
+      <c r="G263" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5443,15 +7025,21 @@
         <v>1</v>
       </c>
       <c r="B264" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C264" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D264" t="n">
-        <v>43.25259515570935</v>
-      </c>
-      <c r="E264" t="inlineStr">
+        <v>175</v>
+      </c>
+      <c r="E264" t="n">
+        <v>39</v>
+      </c>
+      <c r="F264" t="n">
+        <v>27.42857142857143</v>
+      </c>
+      <c r="G264" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5462,15 +7050,21 @@
         <v>1</v>
       </c>
       <c r="B265" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C265" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D265" t="n">
-        <v>28.6661291767446</v>
-      </c>
-      <c r="E265" t="inlineStr">
+        <v>177</v>
+      </c>
+      <c r="E265" t="n">
+        <v>43</v>
+      </c>
+      <c r="F265" t="n">
+        <v>27.76979795078043</v>
+      </c>
+      <c r="G265" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5478,18 +7072,24 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B266" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C266" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D266" t="n">
-        <v>32.89473684210526</v>
-      </c>
-      <c r="E266" t="inlineStr">
+        <v>151</v>
+      </c>
+      <c r="E266" t="n">
+        <v>34</v>
+      </c>
+      <c r="F266" t="n">
+        <v>25.87605806762861</v>
+      </c>
+      <c r="G266" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5497,18 +7097,24 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B267" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C267" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D267" t="n">
-        <v>25.24933720489837</v>
-      </c>
-      <c r="E267" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E267" t="n">
+        <v>33</v>
+      </c>
+      <c r="F267" t="n">
+        <v>24.22145328719724</v>
+      </c>
+      <c r="G267" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5519,15 +7125,21 @@
         <v>1</v>
       </c>
       <c r="B268" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C268" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D268" t="n">
-        <v>27.63605442176871</v>
-      </c>
-      <c r="E268" t="inlineStr">
+        <v>184</v>
+      </c>
+      <c r="E268" t="n">
+        <v>50</v>
+      </c>
+      <c r="F268" t="n">
+        <v>47.25897920604915</v>
+      </c>
+      <c r="G268" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5538,15 +7150,21 @@
         <v>1</v>
       </c>
       <c r="B269" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C269" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D269" t="n">
-        <v>27.75510204081633</v>
-      </c>
-      <c r="E269" t="inlineStr">
+        <v>170</v>
+      </c>
+      <c r="E269" t="n">
+        <v>43</v>
+      </c>
+      <c r="F269" t="n">
+        <v>43.25259515570935</v>
+      </c>
+      <c r="G269" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5554,18 +7172,24 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B270" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C270" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D270" t="n">
-        <v>23.33546614475517</v>
-      </c>
-      <c r="E270" t="inlineStr">
+        <v>183</v>
+      </c>
+      <c r="E270" t="n">
+        <v>42</v>
+      </c>
+      <c r="F270" t="n">
+        <v>28.6661291767446</v>
+      </c>
+      <c r="G270" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5573,20 +7197,26 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B271" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C271" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D271" t="n">
-        <v>28.44444444444444</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>152</v>
+      </c>
+      <c r="E271" t="n">
+        <v>42</v>
+      </c>
+      <c r="F271" t="n">
+        <v>32.89473684210526</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -5595,17 +7225,23 @@
         <v>1</v>
       </c>
       <c r="B272" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C272" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D272" t="n">
-        <v>32.83061454806607</v>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>178</v>
+      </c>
+      <c r="E272" t="n">
+        <v>38</v>
+      </c>
+      <c r="F272" t="n">
+        <v>25.24933720489837</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -5614,55 +7250,73 @@
         <v>1</v>
       </c>
       <c r="B273" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C273" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D273" t="n">
-        <v>30.42296786389414</v>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>168</v>
+      </c>
+      <c r="E273" t="n">
+        <v>40</v>
+      </c>
+      <c r="F273" t="n">
+        <v>27.63605442176871</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B274" t="n">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C274" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D274" t="n">
-        <v>34.66666666666666</v>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>175</v>
+      </c>
+      <c r="E274" t="n">
+        <v>45</v>
+      </c>
+      <c r="F274" t="n">
+        <v>27.75510204081633</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B275" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C275" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D275" t="n">
-        <v>28.08901095471427</v>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>163</v>
+      </c>
+      <c r="E275" t="n">
+        <v>34</v>
+      </c>
+      <c r="F275" t="n">
+        <v>23.33546614475517</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -5671,34 +7325,46 @@
         <v>1</v>
       </c>
       <c r="B276" t="n">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C276" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D276" t="n">
-        <v>21.7079233920381</v>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>174</v>
+      </c>
+      <c r="E276" t="n">
+        <v>44</v>
+      </c>
+      <c r="F276" t="n">
+        <v>31.70828378913991</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B277" t="n">
         <v>64</v>
       </c>
       <c r="C277" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D277" t="n">
-        <v>23.18339100346021</v>
-      </c>
-      <c r="E277" t="inlineStr">
+        <v>150</v>
+      </c>
+      <c r="E277" t="n">
+        <v>35</v>
+      </c>
+      <c r="F277" t="n">
+        <v>28.44444444444444</v>
+      </c>
+      <c r="G277" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5709,15 +7375,21 @@
         <v>1</v>
       </c>
       <c r="B278" t="n">
+        <v>96</v>
+      </c>
+      <c r="C278" t="n">
+        <v>49</v>
+      </c>
+      <c r="D278" t="n">
+        <v>171</v>
+      </c>
+      <c r="E278" t="n">
         <v>45</v>
       </c>
-      <c r="C278" t="n">
-        <v>41</v>
-      </c>
-      <c r="D278" t="n">
-        <v>29.06574394463668</v>
-      </c>
-      <c r="E278" t="inlineStr">
+      <c r="F278" t="n">
+        <v>32.83061454806607</v>
+      </c>
+      <c r="G278" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5728,15 +7400,21 @@
         <v>1</v>
       </c>
       <c r="B279" t="n">
+        <v>103</v>
+      </c>
+      <c r="C279" t="n">
+        <v>49</v>
+      </c>
+      <c r="D279" t="n">
+        <v>184</v>
+      </c>
+      <c r="E279" t="n">
         <v>43</v>
       </c>
-      <c r="C279" t="n">
-        <v>37</v>
-      </c>
-      <c r="D279" t="n">
-        <v>23.20054323223178</v>
-      </c>
-      <c r="E279" t="inlineStr">
+      <c r="F279" t="n">
+        <v>30.42296786389414</v>
+      </c>
+      <c r="G279" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5744,18 +7422,24 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B280" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C280" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D280" t="n">
-        <v>26.54320987654321</v>
-      </c>
-      <c r="E280" t="inlineStr">
+        <v>150</v>
+      </c>
+      <c r="E280" t="n">
+        <v>40</v>
+      </c>
+      <c r="F280" t="n">
+        <v>34.66666666666666</v>
+      </c>
+      <c r="G280" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5763,20 +7447,26 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B281" t="n">
-        <v>49.50370370370371</v>
+        <v>90</v>
       </c>
       <c r="C281" t="n">
-        <v>40.6177347242921</v>
+        <v>67</v>
       </c>
       <c r="D281" t="n">
-        <v>29.88554795334758</v>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>179</v>
+      </c>
+      <c r="E281" t="n">
+        <v>43</v>
+      </c>
+      <c r="F281" t="n">
+        <v>28.08901095471427</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
@@ -5785,17 +7475,23 @@
         <v>1</v>
       </c>
       <c r="B282" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C282" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D282" t="n">
-        <v>32.21562994979731</v>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>169</v>
+      </c>
+      <c r="E282" t="n">
+        <v>37</v>
+      </c>
+      <c r="F282" t="n">
+        <v>21.7079233920381</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
@@ -5804,53 +7500,71 @@
         <v>1</v>
       </c>
       <c r="B283" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C283" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D283" t="n">
-        <v>32.03857841194345</v>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>170</v>
+      </c>
+      <c r="E283" t="n">
+        <v>41</v>
+      </c>
+      <c r="F283" t="n">
+        <v>23.18339100346021</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B284" t="n">
-        <v>49.50370370370371</v>
+        <v>84</v>
       </c>
       <c r="C284" t="n">
-        <v>40.6177347242921</v>
+        <v>45</v>
       </c>
       <c r="D284" t="n">
-        <v>29.88554795334758</v>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>170</v>
+      </c>
+      <c r="E284" t="n">
+        <v>41</v>
+      </c>
+      <c r="F284" t="n">
+        <v>29.06574394463668</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B285" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C285" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D285" t="n">
-        <v>28.30533235938642</v>
-      </c>
-      <c r="E285" t="inlineStr">
+        <v>188</v>
+      </c>
+      <c r="E285" t="n">
+        <v>37</v>
+      </c>
+      <c r="F285" t="n">
+        <v>23.20054323223178</v>
+      </c>
+      <c r="G285" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5861,34 +7575,46 @@
         <v>1</v>
       </c>
       <c r="B286" t="n">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C286" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D286" t="n">
-        <v>34.87654320987654</v>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>180</v>
+      </c>
+      <c r="E286" t="n">
+        <v>42</v>
+      </c>
+      <c r="F286" t="n">
+        <v>26.54320987654321</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B287" t="n">
-        <v>33</v>
+        <v>87.79703703703704</v>
       </c>
       <c r="C287" t="n">
-        <v>40</v>
+        <v>49.50370370370371</v>
       </c>
       <c r="D287" t="n">
-        <v>26.23456790123457</v>
-      </c>
-      <c r="E287" t="inlineStr">
+        <v>171.3994082840237</v>
+      </c>
+      <c r="E287" t="n">
+        <v>40.6177347242921</v>
+      </c>
+      <c r="F287" t="n">
+        <v>29.88554795334758</v>
+      </c>
+      <c r="G287" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5896,18 +7622,24 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B288" t="n">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C288" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D288" t="n">
-        <v>24.8015873015873</v>
-      </c>
-      <c r="E288" t="inlineStr">
+        <v>193</v>
+      </c>
+      <c r="E288" t="n">
+        <v>46</v>
+      </c>
+      <c r="F288" t="n">
+        <v>32.21562994979731</v>
+      </c>
+      <c r="G288" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5915,18 +7647,24 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B289" t="n">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C289" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D289" t="n">
-        <v>35.75595618954421</v>
-      </c>
-      <c r="E289" t="inlineStr">
+        <v>174</v>
+      </c>
+      <c r="E289" t="n">
+        <v>46</v>
+      </c>
+      <c r="F289" t="n">
+        <v>32.03857841194345</v>
+      </c>
+      <c r="G289" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -5937,15 +7675,21 @@
         <v>0</v>
       </c>
       <c r="B290" t="n">
-        <v>25</v>
+        <v>87.79703703703704</v>
       </c>
       <c r="C290" t="n">
-        <v>40</v>
+        <v>49.50370370370371</v>
       </c>
       <c r="D290" t="n">
-        <v>35.08302983728156</v>
-      </c>
-      <c r="E290" t="inlineStr">
+        <v>171.3994082840237</v>
+      </c>
+      <c r="E290" t="n">
+        <v>40.6177347242921</v>
+      </c>
+      <c r="F290" t="n">
+        <v>29.88554795334758</v>
+      </c>
+      <c r="G290" t="inlineStr">
         <is>
           <t>Healthy</t>
         </is>
@@ -5953,75 +7697,99 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B291" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C291" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D291" t="n">
-        <v>28.08901095471427</v>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>148</v>
+      </c>
+      <c r="E291" t="n">
+        <v>38</v>
+      </c>
+      <c r="F291" t="n">
+        <v>28.30533235938642</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B292" t="n">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C292" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D292" t="n">
-        <v>25.55932915514163</v>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>Healthy</t>
+        <v>180</v>
+      </c>
+      <c r="E292" t="n">
+        <v>44</v>
+      </c>
+      <c r="F292" t="n">
+        <v>34.87654320987654</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Severe</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B293" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C293" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D293" t="n">
-        <v>30.11937557392103</v>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>Severe</t>
+        <v>180</v>
+      </c>
+      <c r="E293" t="n">
+        <v>40</v>
+      </c>
+      <c r="F293" t="n">
+        <v>26.23456790123457</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Healthy</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B294" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C294" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D294" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="E294" t="inlineStr">
+        <v>168</v>
+      </c>
+      <c r="E294" t="n">
+        <v>35</v>
+      </c>
+      <c r="F294" t="n">
+        <v>24.8015873015873</v>
+      </c>
+      <c r="G294" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -6032,15 +7800,171 @@
         <v>0</v>
       </c>
       <c r="B295" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C295" t="n">
         <v>35</v>
       </c>
       <c r="D295" t="n">
+        <v>163</v>
+      </c>
+      <c r="E295" t="n">
+        <v>44</v>
+      </c>
+      <c r="F295" t="n">
+        <v>35.75595618954421</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0</v>
+      </c>
+      <c r="B296" t="n">
+        <v>105</v>
+      </c>
+      <c r="C296" t="n">
+        <v>25</v>
+      </c>
+      <c r="D296" t="n">
+        <v>173</v>
+      </c>
+      <c r="E296" t="n">
+        <v>40</v>
+      </c>
+      <c r="F296" t="n">
+        <v>35.08302983728156</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Healthy</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1</v>
+      </c>
+      <c r="B297" t="n">
+        <v>90</v>
+      </c>
+      <c r="C297" t="n">
+        <v>57</v>
+      </c>
+      <c r="D297" t="n">
+        <v>179</v>
+      </c>
+      <c r="E297" t="n">
+        <v>42</v>
+      </c>
+      <c r="F297" t="n">
+        <v>28.08901095471427</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0</v>
+      </c>
+      <c r="B298" t="n">
+        <v>73</v>
+      </c>
+      <c r="C298" t="n">
+        <v>49</v>
+      </c>
+      <c r="D298" t="n">
+        <v>169</v>
+      </c>
+      <c r="E298" t="n">
+        <v>34</v>
+      </c>
+      <c r="F298" t="n">
+        <v>25.55932915514163</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Healthy</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0</v>
+      </c>
+      <c r="B299" t="n">
+        <v>82</v>
+      </c>
+      <c r="C299" t="n">
+        <v>64</v>
+      </c>
+      <c r="D299" t="n">
+        <v>165</v>
+      </c>
+      <c r="E299" t="n">
+        <v>39</v>
+      </c>
+      <c r="F299" t="n">
+        <v>30.11937557392103</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1</v>
+      </c>
+      <c r="B300" t="n">
+        <v>90</v>
+      </c>
+      <c r="C300" t="n">
+        <v>50</v>
+      </c>
+      <c r="D300" t="n">
+        <v>180</v>
+      </c>
+      <c r="E300" t="n">
+        <v>42</v>
+      </c>
+      <c r="F300" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0</v>
+      </c>
+      <c r="B301" t="n">
+        <v>70</v>
+      </c>
+      <c r="C301" t="n">
+        <v>60</v>
+      </c>
+      <c r="D301" t="n">
+        <v>163</v>
+      </c>
+      <c r="E301" t="n">
+        <v>35</v>
+      </c>
+      <c r="F301" t="n">
         <v>26.34649403440099</v>
       </c>
-      <c r="E295" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
